--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport_3.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport_3.xlsx
@@ -502,73 +502,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.46535961763528E-06</v>
+        <v>5.20403021735768E-06</v>
       </c>
       <c r="C2">
-        <v>0.03694686318841234</v>
+        <v>0.03662643346750398</v>
       </c>
       <c r="D2">
-        <v>0.001620054546893563</v>
+        <v>0.002644902114585823</v>
       </c>
       <c r="E2">
-        <v>0.04001462531751464</v>
+        <v>0.03865785482588319</v>
       </c>
       <c r="F2">
-        <v>8.800000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="G2">
-        <v>25.84855497244021</v>
+        <v>17.87113365670209</v>
       </c>
       <c r="H2">
-        <v>26.14756926646914</v>
+        <v>18.49581889360094</v>
       </c>
       <c r="I2">
-        <v>25.22335893372632</v>
+        <v>18.31306780726143</v>
       </c>
       <c r="J2">
-        <v>25.59813105307045</v>
+        <v>20.67854816773141</v>
       </c>
       <c r="K2">
-        <v>5.500042252085632</v>
+        <v>7.758695883553461</v>
       </c>
       <c r="L2">
-        <v>4.366535576818261</v>
+        <v>8.664053155390611</v>
       </c>
       <c r="M2">
-        <v>5.535963304155813</v>
+        <v>8.351382229908241</v>
       </c>
       <c r="N2">
-        <v>0.002125172386751591</v>
+        <v>0.00999931209698373</v>
       </c>
       <c r="O2">
-        <v>9.744092801428657E-05</v>
+        <v>0.0008719187562413619</v>
       </c>
       <c r="P2">
-        <v>0.01532142783639237</v>
+        <v>0.008761383067956034</v>
       </c>
       <c r="Q2">
-        <v>0.01328430468777885</v>
+        <v>0.0006877596380641979</v>
       </c>
       <c r="R2">
-        <v>0.0003443183476271941</v>
+        <v>0.0008728328121917295</v>
       </c>
       <c r="S2">
-        <v>1.441314491595948E-05</v>
+        <v>2.081444696078623E-06</v>
       </c>
       <c r="T2">
-        <v>0.01046677911168603</v>
+        <v>0.002544947262742507</v>
       </c>
       <c r="U2">
-        <v>0.002054068706103622</v>
+        <v>0.0008162161018768905</v>
       </c>
       <c r="V2">
-        <v>28.77955664121784</v>
+        <v>11.43600380339711</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.000286490885574113</v>
       </c>
       <c r="X2">
-        <v>1.724997887395718E-06</v>
+        <v>1.612065205822327E-06</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -576,61 +576,61 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.456749550727573E-06</v>
+        <v>5.196684775412985E-06</v>
       </c>
       <c r="C3">
-        <v>0.03730369963933678</v>
+        <v>0.0369696812589476</v>
       </c>
       <c r="D3">
-        <v>0.001638507387308194</v>
+        <v>0.002674257283614216</v>
       </c>
       <c r="E3">
-        <v>0.04042561603548025</v>
+        <v>0.03903551346178084</v>
       </c>
       <c r="F3">
-        <v>8.799985244231278</v>
+        <v>6.499985236928875</v>
       </c>
       <c r="K3">
-        <v>5.503909546829742</v>
+        <v>7.755719182743845</v>
       </c>
       <c r="L3">
-        <v>4.3664710481082</v>
+        <v>8.703755295935776</v>
       </c>
       <c r="M3">
-        <v>5.540895696895975</v>
+        <v>8.377552477346311</v>
       </c>
       <c r="N3">
-        <v>0.002145654522698432</v>
+        <v>0.01009150798931446</v>
       </c>
       <c r="O3">
-        <v>9.739783996076846E-05</v>
+        <v>0.0008923483479226655</v>
       </c>
       <c r="P3">
-        <v>0.01534200483789352</v>
+        <v>0.008842934819773125</v>
       </c>
       <c r="Q3">
-        <v>0.01327874403831287</v>
+        <v>0.0006899463405858008</v>
       </c>
       <c r="R3">
-        <v>0.000347650723412156</v>
+        <v>0.0008816282805502714</v>
       </c>
       <c r="S3">
-        <v>7.665734548371905E-06</v>
+        <v>1.89132252717822E-06</v>
       </c>
       <c r="T3">
-        <v>0.01055175598446969</v>
+        <v>0.002562409193660342</v>
       </c>
       <c r="U3">
-        <v>0.002072604374573668</v>
+        <v>0.0008337778918179458</v>
       </c>
       <c r="V3">
-        <v>28.90940826668475</v>
+        <v>11.55903292282918</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0002897797263974646</v>
       </c>
       <c r="X3">
-        <v>1.724804522658513E-06</v>
+        <v>1.612214040862808E-06</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -638,61 +638,61 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.447855141514872E-06</v>
+        <v>5.189071890556392E-06</v>
       </c>
       <c r="C4">
-        <v>0.03766763017252074</v>
+        <v>0.03731963456481834</v>
       </c>
       <c r="D4">
-        <v>0.001657407721000593</v>
+        <v>0.002704338020382712</v>
       </c>
       <c r="E4">
-        <v>0.04084513031287591</v>
+        <v>0.03942072840272404</v>
       </c>
       <c r="F4">
-        <v>8.799970413340207</v>
+        <v>6.499970398548582</v>
       </c>
       <c r="K4">
-        <v>5.507813624597576</v>
+        <v>7.752579765467971</v>
       </c>
       <c r="L4">
-        <v>4.369061804880734</v>
+        <v>8.701714286020781</v>
       </c>
       <c r="M4">
-        <v>5.545125498876084</v>
+        <v>8.376722077213989</v>
       </c>
       <c r="N4">
-        <v>0.002166555101093714</v>
+        <v>0.01018537696524703</v>
       </c>
       <c r="O4">
-        <v>9.854511623874011E-05</v>
+        <v>0.0009007440535716293</v>
       </c>
       <c r="P4">
-        <v>0.01536305851952189</v>
+        <v>0.008926128579764832</v>
       </c>
       <c r="Q4">
-        <v>0.01327986096392026</v>
+        <v>0.0006976233611045361</v>
       </c>
       <c r="R4">
-        <v>0.0003511199579923988</v>
+        <v>0.0008906051882852009</v>
       </c>
       <c r="S4">
-        <v>7.706531258335735E-06</v>
+        <v>1.912344935582338E-06</v>
       </c>
       <c r="T4">
-        <v>0.01063827793967271</v>
+        <v>0.002580048288577101</v>
       </c>
       <c r="U4">
-        <v>0.002092560616665069</v>
+        <v>0.0008399618459180473</v>
       </c>
       <c r="V4">
-        <v>29.04589444448793</v>
+        <v>11.62892375627204</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.0002931249050273905</v>
       </c>
       <c r="X4">
-        <v>1.724609318770121E-06</v>
+        <v>1.612371011726601E-06</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -700,61 +700,61 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.438776588727827E-06</v>
+        <v>5.181307935332481E-06</v>
       </c>
       <c r="C5">
-        <v>0.03803886957923745</v>
+        <v>0.03767649329208057</v>
       </c>
       <c r="D5">
-        <v>0.001676750351651851</v>
+        <v>0.002735113921077197</v>
       </c>
       <c r="E5">
-        <v>0.04127348451358501</v>
+        <v>0.03981378336983601</v>
       </c>
       <c r="F5">
-        <v>8.799955505877827</v>
+        <v>6.499955483403649</v>
       </c>
       <c r="K5">
-        <v>5.511756632741947</v>
+        <v>7.749415612372903</v>
       </c>
       <c r="L5">
-        <v>4.371671323245385</v>
+        <v>8.699415939837785</v>
       </c>
       <c r="M5">
-        <v>5.549391226486022</v>
+        <v>8.376049104564993</v>
       </c>
       <c r="N5">
-        <v>0.00218787479165923</v>
+        <v>0.01028109483031585</v>
       </c>
       <c r="O5">
-        <v>9.970477942768038E-05</v>
+        <v>0.0009091857183969978</v>
       </c>
       <c r="P5">
-        <v>0.0153845347829817</v>
+        <v>0.009010958530472669</v>
       </c>
       <c r="Q5">
-        <v>0.01328096760240027</v>
+        <v>0.0007054137387459429</v>
       </c>
       <c r="R5">
-        <v>0.0003546603025979045</v>
+        <v>0.0008997669701754032</v>
       </c>
       <c r="S5">
-        <v>7.743949218143457E-06</v>
+        <v>1.932565661438334E-06</v>
       </c>
       <c r="T5">
-        <v>0.01072637811826042</v>
+        <v>0.002597987324068431</v>
       </c>
       <c r="U5">
-        <v>0.0021129333136322</v>
+        <v>0.0008463382119830434</v>
       </c>
       <c r="V5">
-        <v>29.18549799769113</v>
+        <v>11.68620398922763</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0002965410122424603</v>
       </c>
       <c r="X5">
-        <v>1.724412168362903E-06</v>
+        <v>1.612529219381355E-06</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -762,61 +762,61 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.429508136988805E-06</v>
+        <v>5.173388342283643E-06</v>
       </c>
       <c r="C6">
-        <v>0.03841764165452479</v>
+        <v>0.03804046599386186</v>
       </c>
       <c r="D6">
-        <v>0.00169655090060238</v>
+        <v>0.00276660934119717</v>
       </c>
       <c r="E6">
-        <v>0.0417109595381931</v>
+        <v>0.04021492046993205</v>
       </c>
       <c r="F6">
-        <v>8.799940520350006</v>
+        <v>6.499940489993135</v>
       </c>
       <c r="K6">
-        <v>5.515738245231652</v>
+        <v>7.746246026821221</v>
       </c>
       <c r="L6">
-        <v>4.374330057388719</v>
+        <v>8.697122069144321</v>
       </c>
       <c r="M6">
-        <v>5.553695414749908</v>
+        <v>8.375391493438984</v>
       </c>
       <c r="N6">
-        <v>0.002209626562619975</v>
+        <v>0.010378718883565</v>
       </c>
       <c r="O6">
-        <v>0.0001008906963112385</v>
+        <v>0.0009178252948548267</v>
       </c>
       <c r="P6">
-        <v>0.01540644694111276</v>
+        <v>0.009097474622053155</v>
       </c>
       <c r="Q6">
-        <v>0.01328212118585505</v>
+        <v>0.00071337897016688</v>
       </c>
       <c r="R6">
-        <v>0.0003582740146122771</v>
+        <v>0.0009091194118890903</v>
       </c>
       <c r="S6">
-        <v>7.781425519287404E-06</v>
+        <v>1.953113701147825E-06</v>
       </c>
       <c r="T6">
-        <v>0.01081610150164196</v>
+        <v>0.002616233668985988</v>
       </c>
       <c r="U6">
-        <v>0.002133736512630743</v>
+        <v>0.0008528480912493164</v>
       </c>
       <c r="V6">
-        <v>29.32755485384677</v>
+        <v>11.73881411268094</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.0003000318683737714</v>
       </c>
       <c r="X6">
-        <v>1.724213087738417E-06</v>
+        <v>1.612687698658939E-06</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -824,61 +824,61 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.420043774377377E-06</v>
+        <v>5.165308385795589E-06</v>
       </c>
       <c r="C7">
-        <v>0.0388041794519345</v>
+        <v>0.03841176974810044</v>
       </c>
       <c r="D7">
-        <v>0.001716825732067916</v>
+        <v>0.002798849770066248</v>
       </c>
       <c r="E7">
-        <v>0.04215784822388197</v>
+        <v>0.04062439186296329</v>
       </c>
       <c r="F7">
-        <v>8.799925455215497</v>
+        <v>6.499925416768648</v>
       </c>
       <c r="K7">
-        <v>5.519759930985606</v>
+        <v>7.743055047985112</v>
       </c>
       <c r="L7">
-        <v>4.377044780570161</v>
+        <v>8.694814518921843</v>
       </c>
       <c r="M7">
-        <v>5.558049214405495</v>
+        <v>8.374740554164044</v>
       </c>
       <c r="N7">
-        <v>0.00223182378226533</v>
+        <v>0.01047830723713037</v>
       </c>
       <c r="O7">
-        <v>0.0001021058859954713</v>
+        <v>0.0009266628543334209</v>
       </c>
       <c r="P7">
-        <v>0.01542880826485232</v>
+        <v>0.009185728260494064</v>
       </c>
       <c r="Q7">
-        <v>0.01328328807708305</v>
+        <v>0.0007215264886469845</v>
       </c>
       <c r="R7">
-        <v>0.0003619634102869401</v>
+        <v>0.0009186685308173845</v>
       </c>
       <c r="S7">
-        <v>7.818926596616188E-06</v>
+        <v>1.974057696847137E-06</v>
       </c>
       <c r="T7">
-        <v>0.01090749481731576</v>
+        <v>0.002634795622435847</v>
       </c>
       <c r="U7">
-        <v>0.002154984485570133</v>
+        <v>0.0008594917655918534</v>
       </c>
       <c r="V7">
-        <v>29.4718769827595</v>
+        <v>11.78940161518536</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>0.0003035990457173507</v>
       </c>
       <c r="X7">
-        <v>1.72401200345072E-06</v>
+        <v>1.612847247600744E-06</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -886,61 +886,61 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.410377241763071E-06</v>
+        <v>5.157063107764957E-06</v>
       </c>
       <c r="C8">
-        <v>0.0391987257681033</v>
+        <v>0.03879063059893059</v>
       </c>
       <c r="D8">
-        <v>0.001737591992878866</v>
+        <v>0.002831861929202123</v>
       </c>
       <c r="E8">
-        <v>0.04261445599128934</v>
+        <v>0.04104246025827687</v>
       </c>
       <c r="F8">
-        <v>8.799910308883918</v>
+        <v>6.499910262132372</v>
       </c>
       <c r="K8">
-        <v>5.523822306927965</v>
+        <v>7.739842140670618</v>
       </c>
       <c r="L8">
-        <v>4.379816167138148</v>
+        <v>8.692467756142056</v>
       </c>
       <c r="M8">
-        <v>5.562451252005259</v>
+        <v>8.374081931900504</v>
       </c>
       <c r="N8">
-        <v>0.002254480355629903</v>
+        <v>0.01057992047524524</v>
       </c>
       <c r="O8">
-        <v>0.0001033508881393919</v>
+        <v>0.0009356971275420717</v>
       </c>
       <c r="P8">
-        <v>0.01545163294770092</v>
+        <v>0.009275772960194564</v>
       </c>
       <c r="Q8">
-        <v>0.01328447284346144</v>
+        <v>0.0007298655129750112</v>
       </c>
       <c r="R8">
-        <v>0.000365730904794284</v>
+        <v>0.000928420599680369</v>
       </c>
       <c r="S8">
-        <v>7.856439525267545E-06</v>
+        <v>1.995477593357299E-06</v>
       </c>
       <c r="T8">
-        <v>0.01100060662935561</v>
+        <v>0.002653681833678868</v>
       </c>
       <c r="U8">
-        <v>0.002176692048194503</v>
+        <v>0.0008662671524243808</v>
       </c>
       <c r="V8">
-        <v>29.61841345483003</v>
+        <v>11.83909696624717</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.0003072442816649673</v>
       </c>
       <c r="X8">
-        <v>1.723808884653602E-06</v>
+        <v>1.613007892966469E-06</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -948,61 +948,61 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.400501999725816E-06</v>
+        <v>5.148647376210389E-06</v>
       </c>
       <c r="C9">
-        <v>0.03960153365815948</v>
+        <v>0.03917728402548681</v>
       </c>
       <c r="D9">
-        <v>0.001758867663685142</v>
+        <v>0.002865673812887041</v>
       </c>
       <c r="E9">
-        <v>0.04308110151243111</v>
+        <v>0.04146939950047387</v>
       </c>
       <c r="F9">
-        <v>8.799895079713602</v>
+        <v>6.499895024434823</v>
       </c>
       <c r="K9">
-        <v>5.527926060027111</v>
+        <v>7.736612898341979</v>
       </c>
       <c r="L9">
-        <v>4.382641719353369</v>
+        <v>8.690098053340312</v>
       </c>
       <c r="M9">
-        <v>5.566895802324289</v>
+        <v>8.373425267781464</v>
       </c>
       <c r="N9">
-        <v>0.002277610780011522</v>
+        <v>0.01068362180156462</v>
       </c>
       <c r="O9">
-        <v>0.0001046253896191373</v>
+        <v>0.000944940572272661</v>
       </c>
       <c r="P9">
-        <v>0.0154749357445207</v>
+        <v>0.009367664438121657</v>
       </c>
       <c r="Q9">
-        <v>0.01328570006541758</v>
+        <v>0.0007384010216015474</v>
       </c>
       <c r="R9">
-        <v>0.0003695790173240584</v>
+        <v>0.0009383821601329175</v>
       </c>
       <c r="S9">
-        <v>7.893935434707891E-06</v>
+        <v>2.017343419843062E-06</v>
       </c>
       <c r="T9">
-        <v>0.01109548743130358</v>
+        <v>0.002672901346380529</v>
       </c>
       <c r="U9">
-        <v>0.002198874679740044</v>
+        <v>0.0008731827729769543</v>
       </c>
       <c r="V9">
-        <v>29.76716591520599</v>
+        <v>11.88848032448878</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.0003109712193208354</v>
       </c>
       <c r="X9">
-        <v>1.723603696998644E-06</v>
+        <v>1.613169355082901E-06</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1010,61 +1010,61 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.390411252359573E-06</v>
+        <v>5.140055829401038E-06</v>
       </c>
       <c r="C10">
-        <v>0.04001286698418637</v>
+        <v>0.03957197544084114</v>
       </c>
       <c r="D10">
-        <v>0.001780671601785306</v>
+        <v>0.002900314787682692</v>
       </c>
       <c r="E10">
-        <v>0.04355811745128144</v>
+        <v>0.04190549514227834</v>
       </c>
       <c r="F10">
-        <v>8.799879766009324</v>
+        <v>6.499879701972652</v>
       </c>
       <c r="K10">
-        <v>5.53207237393017</v>
+        <v>7.733369013578857</v>
       </c>
       <c r="L10">
-        <v>4.385529630122544</v>
+        <v>8.687717715424977</v>
       </c>
       <c r="M10">
-        <v>5.571394824417923</v>
+        <v>8.372778432171321</v>
       </c>
       <c r="N10">
-        <v>0.00230123018642883</v>
+        <v>0.0107894770323178</v>
       </c>
       <c r="O10">
-        <v>0.0001059327687302082</v>
+        <v>0.0009544048908848785</v>
       </c>
       <c r="P10">
-        <v>0.01549873178451095</v>
+        <v>0.009461460779605571</v>
       </c>
       <c r="Q10">
-        <v>0.01328692950328764</v>
+        <v>0.0007471384434592384</v>
       </c>
       <c r="R10">
-        <v>0.0003735103769098122</v>
+        <v>0.0009485600385754509</v>
       </c>
       <c r="S10">
-        <v>7.931388054495673E-06</v>
+        <v>2.039632837351694E-06</v>
       </c>
       <c r="T10">
-        <v>0.01119218974382057</v>
+        <v>0.00269246350478709</v>
       </c>
       <c r="U10">
-        <v>0.002221548659900623</v>
+        <v>0.0008802465419979826</v>
       </c>
       <c r="V10">
-        <v>29.91816062172396</v>
+        <v>11.93788632176044</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>0.0003147826111616385</v>
       </c>
       <c r="X10">
-        <v>1.723396381303491E-06</v>
+        <v>1.613331549321057E-06</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1072,61 +1072,61 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.380097883511777E-06</v>
+        <v>5.131282889804544E-06</v>
       </c>
       <c r="C11">
-        <v>0.04043300099937759</v>
+        <v>0.03997496072274399</v>
       </c>
       <c r="D11">
-        <v>0.001803023605515806</v>
+        <v>0.00293581566398257</v>
       </c>
       <c r="E11">
-        <v>0.04404585120865544</v>
+        <v>0.04235104508369459</v>
       </c>
       <c r="F11">
-        <v>8.799864366019944</v>
+        <v>6.499864292986074</v>
       </c>
       <c r="K11">
-        <v>5.536261618782977</v>
+        <v>7.730096873935408</v>
       </c>
       <c r="L11">
-        <v>4.388475440612865</v>
+        <v>8.685305890073948</v>
       </c>
       <c r="M11">
-        <v>5.575938832767355</v>
+        <v>8.372129724440546</v>
       </c>
       <c r="N11">
-        <v>0.002325354333876068</v>
+        <v>0.01089755474815772</v>
       </c>
       <c r="O11">
-        <v>0.0001072720856592437</v>
+        <v>0.0009640910229351296</v>
       </c>
       <c r="P11">
-        <v>0.01552303730408484</v>
+        <v>0.009557222563519267</v>
       </c>
       <c r="Q11">
-        <v>0.01328821101408248</v>
+        <v>0.0007560872802148449</v>
       </c>
       <c r="R11">
-        <v>0.0003775277284356947</v>
+        <v>0.0009589613617154299</v>
       </c>
       <c r="S11">
-        <v>7.96877581161612E-06</v>
+        <v>2.062417587743168E-06</v>
       </c>
       <c r="T11">
-        <v>0.01129076821727024</v>
+        <v>0.002712377976905652</v>
       </c>
       <c r="U11">
-        <v>0.002244730901644252</v>
+        <v>0.000887458187561199</v>
       </c>
       <c r="V11">
-        <v>30.07143702584532</v>
+        <v>11.9875153561764</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.0003186800787274196</v>
       </c>
       <c r="X11">
-        <v>1.723186919060851E-06</v>
+        <v>1.613495156303229E-06</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1134,61 +1134,61 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.369554456214951E-06</v>
+        <v>5.122322723504897E-06</v>
       </c>
       <c r="C12">
-        <v>0.0408622229704205</v>
+        <v>0.04038650677895245</v>
       </c>
       <c r="D12">
-        <v>0.00182594446962644</v>
+        <v>0.002972208800432866</v>
       </c>
       <c r="E12">
-        <v>0.0445446657487902</v>
+        <v>0.04280636023282038</v>
       </c>
       <c r="F12">
-        <v>8.799848877935858</v>
+        <v>6.499848795656574</v>
       </c>
       <c r="K12">
-        <v>5.54049537318638</v>
+        <v>7.726818471197587</v>
       </c>
       <c r="L12">
-        <v>4.391485318862557</v>
+        <v>8.682880355652353</v>
       </c>
       <c r="M12">
-        <v>5.580536227585091</v>
+        <v>8.371489508971553</v>
       </c>
       <c r="N12">
-        <v>0.002349999692189588</v>
+        <v>0.01100792656732686</v>
       </c>
       <c r="O12">
-        <v>0.000108646063352128</v>
+        <v>0.0009740135141365494</v>
       </c>
       <c r="P12">
-        <v>0.01554786870730709</v>
+        <v>0.009655012955555983</v>
       </c>
       <c r="Q12">
-        <v>0.01328951061559323</v>
+        <v>0.000765253834304462</v>
       </c>
       <c r="R12">
-        <v>0.0003816339390204068</v>
+        <v>0.0009695935722057376</v>
       </c>
       <c r="S12">
-        <v>8.006071374800226E-06</v>
+        <v>2.085663452316145E-06</v>
       </c>
       <c r="T12">
-        <v>0.01139127974299942</v>
+        <v>0.002732654863453924</v>
       </c>
       <c r="U12">
-        <v>0.002268439254019746</v>
+        <v>0.0008948269916747031</v>
       </c>
       <c r="V12">
-        <v>30.22704296786581</v>
+        <v>12.0375067765562</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>0.000322668405788006</v>
       </c>
       <c r="X12">
-        <v>1.722975231340681E-06</v>
+        <v>1.613659076440121E-06</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1196,61 +1196,61 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.358773244493108E-06</v>
+        <v>5.113169267450443E-06</v>
       </c>
       <c r="C13">
-        <v>0.04130083284121594</v>
+        <v>0.04080689214949761</v>
       </c>
       <c r="D13">
-        <v>0.001849456037510022</v>
+        <v>0.003009528180617834</v>
       </c>
       <c r="E13">
-        <v>0.04505494050003384</v>
+        <v>0.04327176523624621</v>
       </c>
       <c r="F13">
-        <v>8.799833299886311</v>
+        <v>6.49983320810392</v>
       </c>
       <c r="K13">
-        <v>5.544773992097294</v>
+        <v>7.723513882848521</v>
       </c>
       <c r="L13">
-        <v>4.39456049989538</v>
+        <v>8.680428260924833</v>
       </c>
       <c r="M13">
-        <v>5.585186893163342</v>
+        <v>8.370851195284132</v>
       </c>
       <c r="N13">
-        <v>0.002375183440828212</v>
+        <v>0.01112066716343012</v>
       </c>
       <c r="O13">
-        <v>0.0001100557530428489</v>
+        <v>0.0009841765429606662</v>
       </c>
       <c r="P13">
-        <v>0.01557324351732634</v>
+        <v>0.00975489788950263</v>
       </c>
       <c r="Q13">
-        <v>0.01329083340409456</v>
+        <v>0.0007746469696147397</v>
       </c>
       <c r="R13">
-        <v>0.0003858320049490091</v>
+        <v>0.0009804644475849896</v>
       </c>
       <c r="S13">
-        <v>8.043234765669633E-06</v>
+        <v>2.109419873387726E-06</v>
       </c>
       <c r="T13">
-        <v>0.01149378356871829</v>
+        <v>0.002753304614822229</v>
       </c>
       <c r="U13">
-        <v>0.002292692304976996</v>
+        <v>0.0009023554187335473</v>
       </c>
       <c r="V13">
-        <v>30.38503204429638</v>
+        <v>12.0879563594995</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>0.0003267488461265099</v>
       </c>
       <c r="X13">
-        <v>1.722761300395135E-06</v>
+        <v>1.613824305857574E-06</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1258,61 +1258,61 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.347746120152344E-06</v>
+        <v>5.103816180186934E-06</v>
       </c>
       <c r="C14">
-        <v>0.04174914394125805</v>
+        <v>0.04123640764914397</v>
       </c>
       <c r="D14">
-        <v>0.00187358128928217</v>
+        <v>0.003047809535349103</v>
       </c>
       <c r="E14">
-        <v>0.04557707223884758</v>
+        <v>0.043747599228292</v>
       </c>
       <c r="F14">
-        <v>8.799817629936646</v>
+        <v>6.499817528383692</v>
       </c>
       <c r="K14">
-        <v>5.54909872228041</v>
+        <v>7.720184497124857</v>
       </c>
       <c r="L14">
-        <v>4.39770003936837</v>
+        <v>8.677924365387602</v>
       </c>
       <c r="M14">
-        <v>5.589887488570898</v>
+        <v>8.370200474305046</v>
       </c>
       <c r="N14">
-        <v>0.002400923528189409</v>
+        <v>0.01123585455684454</v>
       </c>
       <c r="O14">
-        <v>0.0001115015575891388</v>
+        <v>0.0009945812683454546</v>
       </c>
       <c r="P14">
-        <v>0.0155991799958858</v>
+        <v>0.009856946195410447</v>
       </c>
       <c r="Q14">
-        <v>0.0132921997507946</v>
+        <v>0.0007842790195115311</v>
       </c>
       <c r="R14">
-        <v>0.0003901250591556379</v>
+        <v>0.0009915821183544397</v>
       </c>
       <c r="S14">
-        <v>8.080240554795527E-06</v>
+        <v>2.133776620658215E-06</v>
       </c>
       <c r="T14">
-        <v>0.01159834142398808</v>
+        <v>0.002774338128414147</v>
       </c>
       <c r="U14">
-        <v>0.002317509583162446</v>
+        <v>0.0009100422624720454</v>
       </c>
       <c r="V14">
-        <v>30.54546240778813</v>
+        <v>12.13892911180691</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>0.0003309250612750773</v>
       </c>
       <c r="X14">
-        <v>1.722545063885979E-06</v>
+        <v>1.613990775143757E-06</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1320,61 +1320,61 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.336464617393987E-06</v>
+        <v>5.094256853225082E-06</v>
       </c>
       <c r="C15">
-        <v>0.04220748374185548</v>
+        <v>0.04167535705275081</v>
       </c>
       <c r="D15">
-        <v>0.001898344396469109</v>
+        <v>0.003087090441338142</v>
       </c>
       <c r="E15">
-        <v>0.04611147613083028</v>
+        <v>0.04423421665094694</v>
       </c>
       <c r="F15">
-        <v>8.79980186608522</v>
+        <v>6.499801754483742</v>
       </c>
       <c r="K15">
-        <v>5.553470260188117</v>
+        <v>7.716843014305568</v>
       </c>
       <c r="L15">
-        <v>4.400908028122941</v>
+        <v>8.675429116024123</v>
       </c>
       <c r="M15">
-        <v>5.594642350436438</v>
+        <v>8.369572223979786</v>
       </c>
       <c r="N15">
-        <v>0.00242723872325378</v>
+        <v>0.01135357034176982</v>
       </c>
       <c r="O15">
-        <v>0.0001129856140300516</v>
+        <v>0.001005256529030747</v>
       </c>
       <c r="P15">
-        <v>0.01562569701019719</v>
+        <v>0.009961229726167906</v>
       </c>
       <c r="Q15">
-        <v>0.01329360096740785</v>
+        <v>0.0007941507900628787</v>
       </c>
       <c r="R15">
-        <v>0.0003945163789096706</v>
+        <v>0.001002955087799656</v>
       </c>
       <c r="S15">
-        <v>8.117045682016501E-06</v>
+        <v>2.158576336262634E-06</v>
       </c>
       <c r="T15">
-        <v>0.01170501765204355</v>
+        <v>0.002795766816528424</v>
       </c>
       <c r="U15">
-        <v>0.002342911569167084</v>
+        <v>0.000917908970940133</v>
       </c>
       <c r="V15">
-        <v>30.70839609263183</v>
+        <v>12.19049293180943</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>0.0003352015402910065</v>
       </c>
       <c r="X15">
-        <v>1.722326486990594E-06</v>
+        <v>1.614157849284721E-06</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1382,61 +1382,61 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.324919882444985E-06</v>
+        <v>5.084484369367125E-06</v>
       </c>
       <c r="C16">
-        <v>0.04267619466447625</v>
+        <v>0.04212405782730213</v>
       </c>
       <c r="D16">
-        <v>0.001923770806857918</v>
+        <v>0.003127410456233486</v>
       </c>
       <c r="E16">
-        <v>0.04665858678279699</v>
+        <v>0.04473198811535038</v>
       </c>
       <c r="F16">
-        <v>8.799786006260307</v>
+        <v>6.499785884321603</v>
       </c>
       <c r="K16">
-        <v>5.557890245362227</v>
+        <v>7.713481551817647</v>
       </c>
       <c r="L16">
-        <v>4.404189300445292</v>
+        <v>8.672910410735506</v>
       </c>
       <c r="M16">
-        <v>5.599456902169209</v>
+        <v>8.368949875840501</v>
       </c>
       <c r="N16">
-        <v>0.002454148643128474</v>
+        <v>0.01147389957215051</v>
       </c>
       <c r="O16">
-        <v>0.0001145103851636673</v>
+        <v>0.001016203067919326</v>
       </c>
       <c r="P16">
-        <v>0.01565281440604358</v>
+        <v>0.01006782366728541</v>
       </c>
       <c r="Q16">
-        <v>0.01329502173464369</v>
+        <v>0.0008042753640834846</v>
       </c>
       <c r="R16">
-        <v>0.0003990093944123177</v>
+        <v>0.001014592256537602</v>
       </c>
       <c r="S16">
-        <v>8.153613916412593E-06</v>
+        <v>2.183925166220913E-06</v>
       </c>
       <c r="T16">
-        <v>0.01181387935068165</v>
+        <v>0.002817602372872474</v>
       </c>
       <c r="U16">
-        <v>0.002368919812158935</v>
+        <v>0.0009259541491577296</v>
       </c>
       <c r="V16">
-        <v>30.8738987190003</v>
+        <v>12.24269630861206</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>0.0003395810928257163</v>
       </c>
       <c r="X16">
-        <v>1.722105487731889E-06</v>
+        <v>1.614325922409118E-06</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1444,61 +1444,61 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.313102623836261E-06</v>
+        <v>5.074491519439858E-06</v>
       </c>
       <c r="C17">
-        <v>0.04315563494515411</v>
+        <v>0.04258284191402058</v>
       </c>
       <c r="D17">
-        <v>0.001949887335572026</v>
+        <v>0.003168811231278722</v>
       </c>
       <c r="E17">
-        <v>0.04721885936718121</v>
+        <v>0.04524130134072312</v>
       </c>
       <c r="F17">
-        <v>8.799770048316741</v>
+        <v>6.499769915740508</v>
       </c>
       <c r="K17">
-        <v>5.562359010181209</v>
+        <v>7.710089212123115</v>
       </c>
       <c r="L17">
-        <v>4.407541116234135</v>
+        <v>8.670324448044605</v>
       </c>
       <c r="M17">
-        <v>5.604324900895222</v>
+        <v>8.368307446893864</v>
       </c>
       <c r="N17">
-        <v>0.002481673799104531</v>
+        <v>0.0115969312957297</v>
       </c>
       <c r="O17">
-        <v>0.000116075729296314</v>
+        <v>0.001027415926782874</v>
       </c>
       <c r="P17">
-        <v>0.01568055314335417</v>
+        <v>0.01017680658849955</v>
       </c>
       <c r="Q17">
-        <v>0.01329648677841873</v>
+        <v>0.0008146689645789152</v>
       </c>
       <c r="R17">
-        <v>0.0004036076977122696</v>
+        <v>0.00102650294278903</v>
       </c>
       <c r="S17">
-        <v>8.189899827829031E-06</v>
+        <v>2.209975858179787E-06</v>
       </c>
       <c r="T17">
-        <v>0.01192499652172309</v>
+        <v>0.002839857057857353</v>
       </c>
       <c r="U17">
-        <v>0.002395556818698914</v>
+        <v>0.0009341717981185733</v>
       </c>
       <c r="V17">
-        <v>31.04203921073718</v>
+        <v>12.29557035578877</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>0.000344066500504394</v>
       </c>
       <c r="X17">
-        <v>1.721882049490939E-06</v>
+        <v>1.614495539393844E-06</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -1506,61 +1506,61 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.301003136649682E-06</v>
+        <v>5.064270740011853E-06</v>
       </c>
       <c r="C18">
-        <v>0.0436461795595539</v>
+        <v>0.0430520565650056</v>
       </c>
       <c r="D18">
-        <v>0.00197672224578535</v>
+        <v>0.003211336676470849</v>
       </c>
       <c r="E18">
-        <v>0.04779277087043314</v>
+        <v>0.04576256212644009</v>
       </c>
       <c r="F18">
-        <v>8.799753990032313</v>
+        <v>6.499753846506296</v>
       </c>
       <c r="K18">
-        <v>5.566878144076299</v>
+        <v>7.706686973382403</v>
       </c>
       <c r="L18">
-        <v>4.410969308436505</v>
+        <v>8.667756818118654</v>
       </c>
       <c r="M18">
-        <v>5.609252416487513</v>
+        <v>8.367694322522141</v>
       </c>
       <c r="N18">
-        <v>0.002509835680887962</v>
+        <v>0.01172275885964573</v>
       </c>
       <c r="O18">
-        <v>0.0001176843856391391</v>
+        <v>0.001038934707401653</v>
       </c>
       <c r="P18">
-        <v>0.01570893488579387</v>
+        <v>0.01028826060783193</v>
       </c>
       <c r="Q18">
-        <v>0.01329797607338471</v>
+        <v>0.0008253303687694097</v>
       </c>
       <c r="R18">
-        <v>0.0004083150524489891</v>
+        <v>0.001038696906681064</v>
       </c>
       <c r="S18">
-        <v>8.225859247244665E-06</v>
+        <v>2.23649471488409E-06</v>
       </c>
       <c r="T18">
-        <v>0.01203844223247338</v>
+        <v>0.002862543787139957</v>
       </c>
       <c r="U18">
-        <v>0.002422846363426874</v>
+        <v>0.0009425914378467018</v>
       </c>
       <c r="V18">
-        <v>31.21288986880993</v>
+        <v>12.34916319578179</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>0.0003486632187915022</v>
       </c>
       <c r="X18">
-        <v>1.721656092796185E-06</v>
+        <v>1.61466565133088E-06</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -1568,61 +1568,61 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.288611237143322E-06</v>
+        <v>5.053814150781299E-06</v>
       </c>
       <c r="C19">
-        <v>0.04414822121393665</v>
+        <v>0.04353206523836144</v>
       </c>
       <c r="D19">
-        <v>0.002004305356883028</v>
+        <v>0.003255033082559337</v>
       </c>
       <c r="E19">
-        <v>0.04838082137861067</v>
+        <v>0.04629619544231771</v>
       </c>
       <c r="F19">
-        <v>8.799737829104028</v>
+        <v>6.49973767430334</v>
       </c>
       <c r="K19">
-        <v>5.571448442113105</v>
+        <v>7.703258817833507</v>
       </c>
       <c r="L19">
-        <v>4.414473832950294</v>
+        <v>8.665136023048873</v>
       </c>
       <c r="M19">
-        <v>5.614237765236395</v>
+        <v>8.367071489952266</v>
       </c>
       <c r="N19">
-        <v>0.002538656780830719</v>
+        <v>0.01185147963256434</v>
       </c>
       <c r="O19">
-        <v>0.0001193375263370421</v>
+        <v>0.001050748735837531</v>
       </c>
       <c r="P19">
-        <v>0.01573798258232892</v>
+        <v>0.01040227181553148</v>
       </c>
       <c r="Q19">
-        <v>0.01329951578909557</v>
+        <v>0.0008362805757111017</v>
       </c>
       <c r="R19">
-        <v>0.0004131354041743113</v>
+        <v>0.00105118438152403</v>
       </c>
       <c r="S19">
-        <v>8.261439476027092E-06</v>
+        <v>2.263707502654432E-06</v>
       </c>
       <c r="T19">
-        <v>0.01215429278511249</v>
+        <v>0.002885675743155539</v>
       </c>
       <c r="U19">
-        <v>0.002450813359051683</v>
+        <v>0.0009512015598202837</v>
       </c>
       <c r="V19">
-        <v>31.3865263190801</v>
+        <v>12.4035032990518</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>0.0003533742738894879</v>
       </c>
       <c r="X19">
-        <v>1.721427577894345E-06</v>
+        <v>1.614837059108325E-06</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1630,61 +1630,61 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.2759162563856E-06</v>
+        <v>5.043113486029713E-06</v>
       </c>
       <c r="C20">
-        <v>0.04466217140731535</v>
+        <v>0.04402324855733463</v>
       </c>
       <c r="D20">
-        <v>0.002032668146897593</v>
+        <v>0.003299949312119287</v>
       </c>
       <c r="E20">
-        <v>0.04898353549245124</v>
+        <v>0.04684264653651293</v>
       </c>
       <c r="F20">
-        <v>8.799721563144093</v>
+        <v>6.499721396730438</v>
       </c>
       <c r="K20">
-        <v>5.576071291308971</v>
+        <v>7.699809373704655</v>
       </c>
       <c r="L20">
-        <v>4.418058445260445</v>
+        <v>8.662493463266472</v>
       </c>
       <c r="M20">
-        <v>5.619283776910796</v>
+        <v>8.366457272493992</v>
       </c>
       <c r="N20">
-        <v>0.002568160674178203</v>
+        <v>0.01198319586301222</v>
       </c>
       <c r="O20">
-        <v>0.0001210373343388429</v>
+        <v>0.001062880262015081</v>
       </c>
       <c r="P20">
-        <v>0.0157677199822464</v>
+        <v>0.01051893024528539</v>
       </c>
       <c r="Q20">
-        <v>0.01330110024261289</v>
+        <v>0.0008475261684849796</v>
       </c>
       <c r="R20">
-        <v>0.0004180728915486806</v>
+        <v>0.001063976097060876</v>
       </c>
       <c r="S20">
-        <v>8.296587960515007E-06</v>
+        <v>2.291543561671851E-06</v>
       </c>
       <c r="T20">
-        <v>0.01227262790006445</v>
+        <v>0.002909266891732798</v>
       </c>
       <c r="U20">
-        <v>0.002479484072879088</v>
+        <v>0.0009600181124343743</v>
       </c>
       <c r="V20">
-        <v>31.56302763623951</v>
+        <v>12.45862490296055</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>0.0003582042634369296</v>
       </c>
       <c r="X20">
-        <v>1.721196435434551E-06</v>
+        <v>1.615009531314767E-06</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -1692,61 +1692,61 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.262907018622867E-06</v>
+        <v>5.03216010392059E-06</v>
       </c>
       <c r="C21">
-        <v>0.04518846157102421</v>
+        <v>0.04452600533813976</v>
       </c>
       <c r="D21">
-        <v>0.002061843866717831</v>
+        <v>0.003346136961449894</v>
       </c>
       <c r="E21">
-        <v>0.04960146383779547</v>
+        <v>0.04740238217249707</v>
       </c>
       <c r="F21">
-        <v>8.799705189675626</v>
+        <v>6.499705011296672</v>
       </c>
       <c r="K21">
-        <v>5.580747928033568</v>
+        <v>7.696330109214859</v>
       </c>
       <c r="L21">
-        <v>4.421727192157604</v>
+        <v>8.659824163969089</v>
       </c>
       <c r="M21">
-        <v>5.624394448939341</v>
+        <v>8.365847390101049</v>
       </c>
       <c r="N21">
-        <v>0.002598372073435479</v>
+        <v>0.01211801457413564</v>
       </c>
       <c r="O21">
-        <v>0.0001227862887720829</v>
+        <v>0.001075338732873286</v>
       </c>
       <c r="P21">
-        <v>0.01579817207779743</v>
+        <v>0.01063833029561626</v>
       </c>
       <c r="Q21">
-        <v>0.01330270807526224</v>
+        <v>0.0008590796609689332</v>
       </c>
       <c r="R21">
-        <v>0.0004231318582596456</v>
+        <v>0.001077083313770743</v>
       </c>
       <c r="S21">
-        <v>8.331235402601507E-06</v>
+        <v>2.320048246611125E-06</v>
       </c>
       <c r="T21">
-        <v>0.01239353091027662</v>
+        <v>0.002933331691477223</v>
       </c>
       <c r="U21">
-        <v>0.002508886151568101</v>
+        <v>0.0009690466147546361</v>
       </c>
       <c r="V21">
-        <v>31.74247644790857</v>
+        <v>12.51455926377888</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>0.0003631569553708768</v>
       </c>
       <c r="X21">
-        <v>1.720962603598322E-06</v>
+        <v>1.615183494539257E-06</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -1754,61 +1754,61 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.249571776984545E-06</v>
+        <v>5.020944935743298E-06</v>
       </c>
       <c r="C22">
-        <v>0.04572754429232805</v>
+        <v>0.04504075369284839</v>
       </c>
       <c r="D22">
-        <v>0.002091867674045771</v>
+        <v>0.003393650569962645</v>
       </c>
       <c r="E22">
-        <v>0.05023518466118398</v>
+        <v>0.04797589191725805</v>
       </c>
       <c r="F22">
-        <v>8.799688706128158</v>
+        <v>6.499688515416824</v>
       </c>
       <c r="K22">
-        <v>5.585479375208359</v>
+        <v>7.6928382118656</v>
       </c>
       <c r="L22">
-        <v>4.425479041803685</v>
+        <v>8.65712134035706</v>
       </c>
       <c r="M22">
-        <v>5.629565639359525</v>
+        <v>8.365241070798044</v>
       </c>
       <c r="N22">
-        <v>0.002629316895743771</v>
+        <v>0.01225604802215142</v>
       </c>
       <c r="O22">
-        <v>0.0001245852215374613</v>
+        <v>0.00108813890475498</v>
       </c>
       <c r="P22">
-        <v>0.01582936537782912</v>
+        <v>0.01076057092854935</v>
       </c>
       <c r="Q22">
-        <v>0.01330437603747524</v>
+        <v>0.0008709561400261897</v>
       </c>
       <c r="R22">
-        <v>0.0004283168660453587</v>
+        <v>0.001090517854589794</v>
       </c>
       <c r="S22">
-        <v>8.365328409850672E-06</v>
+        <v>2.349256093185868E-06</v>
       </c>
       <c r="T22">
-        <v>0.01251708896976047</v>
+        <v>0.002957885254936255</v>
       </c>
       <c r="U22">
-        <v>0.002539048674055215</v>
+        <v>0.0009782943764703779</v>
       </c>
       <c r="V22">
-        <v>31.92495904430281</v>
+        <v>12.57133656115734</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>0.0003682385868446287</v>
       </c>
       <c r="X22">
-        <v>1.720726031239582E-06</v>
+        <v>1.61535808940672E-06</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -1816,61 +1816,61 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.235898203195501E-06</v>
+        <v>5.009458495825595E-06</v>
       </c>
       <c r="C23">
-        <v>0.04627989462926833</v>
+        <v>0.04556793221339124</v>
       </c>
       <c r="D23">
-        <v>0.002122776764654904</v>
+        <v>0.00344254781060811</v>
       </c>
       <c r="E23">
-        <v>0.05088530558100916</v>
+        <v>0.04856368956135799</v>
       </c>
       <c r="F23">
-        <v>8.799672109832754</v>
+        <v>6.499671906406208</v>
       </c>
       <c r="K23">
-        <v>5.590267276847957</v>
+        <v>7.68931165026201</v>
       </c>
       <c r="L23">
-        <v>4.429321323383983</v>
+        <v>8.654386826479373</v>
       </c>
       <c r="M23">
-        <v>5.634805575603678</v>
+        <v>8.364638950518014</v>
       </c>
       <c r="N23">
-        <v>0.002661022359974231</v>
+        <v>0.01239741396034631</v>
       </c>
       <c r="O23">
-        <v>0.0001264379289298241</v>
+        <v>0.001101293863089164</v>
       </c>
       <c r="P23">
-        <v>0.01586132726821335</v>
+        <v>0.01088575592587243</v>
       </c>
       <c r="Q23">
-        <v>0.01330607521538688</v>
+        <v>0.0008831676261355896</v>
       </c>
       <c r="R23">
-        <v>0.0004336327082939095</v>
+        <v>0.001104292140646713</v>
       </c>
       <c r="S23">
-        <v>8.398790201868352E-06</v>
+        <v>2.379188968051271E-06</v>
       </c>
       <c r="T23">
-        <v>0.01264339327730105</v>
+        <v>0.002982943367321899</v>
       </c>
       <c r="U23">
-        <v>0.002570002390955787</v>
+        <v>0.0009877703173296433</v>
       </c>
       <c r="V23">
-        <v>32.11056561045638</v>
+        <v>12.62898716820044</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>0.0003734518425684059</v>
       </c>
       <c r="X23">
-        <v>1.720486636157602E-06</v>
+        <v>1.615534417486899E-06</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -1878,61 +1878,61 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.221873348642209E-06</v>
+        <v>4.997690833426145E-06</v>
       </c>
       <c r="C24">
-        <v>0.0468460115249685</v>
+        <v>0.04610800124419615</v>
       </c>
       <c r="D24">
-        <v>0.002154610521772761</v>
+        <v>0.003492889730891654</v>
       </c>
       <c r="E24">
-        <v>0.05155246545477212</v>
+        <v>0.04916631461379469</v>
       </c>
       <c r="F24">
-        <v>8.799655398016913</v>
+        <v>6.499655181475892</v>
       </c>
       <c r="K24">
-        <v>5.595112889118977</v>
+        <v>7.685777929448623</v>
       </c>
       <c r="L24">
-        <v>4.433254751116095</v>
+        <v>8.651645403422872</v>
       </c>
       <c r="M24">
-        <v>5.64011222484988</v>
+        <v>8.364055455040361</v>
       </c>
       <c r="N24">
-        <v>0.002693517032167108</v>
+        <v>0.01254223601287525</v>
       </c>
       <c r="O24">
-        <v>0.0001283458492937052</v>
+        <v>0.001114828780813704</v>
       </c>
       <c r="P24">
-        <v>0.01589408690991625</v>
+        <v>0.01101399423740751</v>
       </c>
       <c r="Q24">
-        <v>0.01330782102433667</v>
+        <v>0.0008957262791045821</v>
       </c>
       <c r="R24">
-        <v>0.0004390844251925254</v>
+        <v>0.001118419229770799</v>
       </c>
       <c r="S24">
-        <v>8.43155406299949E-06</v>
+        <v>2.409797316658533E-06</v>
       </c>
       <c r="T24">
-        <v>0.01277253931430547</v>
+        <v>0.003008522508988466</v>
       </c>
       <c r="U24">
-        <v>0.002601779668076135</v>
+        <v>0.0009974899036689821</v>
       </c>
       <c r="V24">
-        <v>32.29939036345457</v>
+        <v>12.68754559742243</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>0.0003788052119290279</v>
       </c>
       <c r="X24">
-        <v>1.720244355544051E-06</v>
+        <v>1.615711103527569E-06</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -1940,61 +1940,61 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.207483601687588E-06</v>
+        <v>4.985631498165835E-06</v>
       </c>
       <c r="C25">
-        <v>0.04742641933020481</v>
+        <v>0.04666144425086245</v>
       </c>
       <c r="D25">
-        <v>0.002187410678874877</v>
+        <v>0.003544741005366471</v>
       </c>
       <c r="E25">
-        <v>0.05223733638727807</v>
+        <v>0.04978433391273202</v>
       </c>
       <c r="F25">
-        <v>8.799638567799045</v>
+        <v>6.499638337726924</v>
       </c>
       <c r="K25">
-        <v>5.60001775704294</v>
+        <v>7.682201673499985</v>
       </c>
       <c r="L25">
-        <v>4.437284159339377</v>
+        <v>8.648833364518781</v>
       </c>
       <c r="M25">
-        <v>5.645490562654686</v>
+        <v>8.363456620137613</v>
       </c>
       <c r="N25">
-        <v>0.002726830943632996</v>
+        <v>0.01269064389900592</v>
       </c>
       <c r="O25">
-        <v>0.0001303123433435379</v>
+        <v>0.001128737266397574</v>
       </c>
       <c r="P25">
-        <v>0.01592767477856014</v>
+        <v>0.01114540031478807</v>
       </c>
       <c r="Q25">
-        <v>0.01330960698856179</v>
+        <v>0.0009086544368363734</v>
       </c>
       <c r="R25">
-        <v>0.000444677319622779</v>
+        <v>0.00113291285876371</v>
       </c>
       <c r="S25">
-        <v>8.463519120107466E-06</v>
+        <v>2.441304896172405E-06</v>
       </c>
       <c r="T25">
-        <v>0.01290462710191884</v>
+        <v>0.003034639815551057</v>
       </c>
       <c r="U25">
-        <v>0.00263441473095456</v>
+        <v>0.0010074462314175</v>
       </c>
       <c r="V25">
-        <v>32.49153179811915</v>
+        <v>12.74703657871277</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>0.000384300189993183</v>
       </c>
       <c r="X25">
-        <v>1.719999112147853E-06</v>
+        <v>1.615889916325001E-06</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -2002,61 +2002,61 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7.192714663492259E-06</v>
+        <v>4.973269531388424E-06</v>
       </c>
       <c r="C26">
-        <v>0.04802166944403809</v>
+        <v>0.04722876929356634</v>
       </c>
       <c r="D26">
-        <v>0.002221221491391423</v>
+        <v>0.003598170193427182</v>
       </c>
       <c r="E26">
-        <v>0.05294062591042396</v>
+        <v>0.05041834337951143</v>
       </c>
       <c r="F26">
-        <v>8.799621616182616</v>
+        <v>6.499621372144366</v>
       </c>
       <c r="K26">
-        <v>5.604982818919789</v>
+        <v>7.678610778851257</v>
       </c>
       <c r="L26">
-        <v>4.441409588236328</v>
+        <v>8.646015836886095</v>
       </c>
       <c r="M26">
-        <v>5.650936426243907</v>
+        <v>8.362878581615727</v>
       </c>
       <c r="N26">
-        <v>0.002760995662057857</v>
+        <v>0.01284277424943498</v>
       </c>
       <c r="O26">
-        <v>0.000132338456396532</v>
+        <v>0.001143059470036598</v>
       </c>
       <c r="P26">
-        <v>0.01596212303895485</v>
+        <v>0.01128009433949796</v>
       </c>
       <c r="Q26">
-        <v>0.01331145005780045</v>
+        <v>0.0009219606252812698</v>
       </c>
       <c r="R26">
-        <v>0.000450416974892551</v>
+        <v>0.001147787484472493</v>
       </c>
       <c r="S26">
-        <v>8.494617428828503E-06</v>
+        <v>2.473536788551308E-06</v>
       </c>
       <c r="T26">
-        <v>0.013039761475221</v>
+        <v>0.003061313415342288</v>
       </c>
       <c r="U26">
-        <v>0.002667943661057202</v>
+        <v>0.001017666332647928</v>
       </c>
       <c r="V26">
-        <v>32.68709287159729</v>
+        <v>12.80749603503346</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>0.000389945465470122</v>
       </c>
       <c r="X26">
-        <v>1.71975085905401E-06</v>
+        <v>1.616069461057437E-06</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -2064,61 +2064,61 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7.177551449673874E-06</v>
+        <v>4.960593420622153E-06</v>
       </c>
       <c r="C27">
-        <v>0.04863234208340672</v>
+        <v>0.04781051061490153</v>
       </c>
       <c r="D27">
-        <v>0.002256089943060564</v>
+        <v>0.003653250042226192</v>
       </c>
       <c r="E27">
-        <v>0.05366307928086694</v>
+        <v>0.05106896988355236</v>
       </c>
       <c r="F27">
-        <v>8.799604540049923</v>
+        <v>6.499604281590956</v>
       </c>
       <c r="K27">
-        <v>5.61000947363768</v>
+        <v>7.674992796800747</v>
       </c>
       <c r="L27">
-        <v>4.445634255624029</v>
+        <v>8.643167148007953</v>
       </c>
       <c r="M27">
-        <v>5.656452642232498</v>
+        <v>8.362306637492663</v>
       </c>
       <c r="N27">
-        <v>0.002796044424800008</v>
+        <v>0.01299877044649362</v>
       </c>
       <c r="O27">
-        <v>0.0001344272442976235</v>
+        <v>0.001157803702952039</v>
       </c>
       <c r="P27">
-        <v>0.01599746534537025</v>
+        <v>0.01141820278902085</v>
       </c>
       <c r="Q27">
-        <v>0.01331335337564406</v>
+        <v>0.0009356649996471141</v>
       </c>
       <c r="R27">
-        <v>0.0004563092729920673</v>
+        <v>0.001163058337108279</v>
       </c>
       <c r="S27">
-        <v>8.524746924625576E-06</v>
+        <v>2.506614456603616E-06</v>
       </c>
       <c r="T27">
-        <v>0.01317805237940985</v>
+        <v>0.003088562043111546</v>
       </c>
       <c r="U27">
-        <v>0.002702404678632902</v>
+        <v>0.001028153478109317</v>
       </c>
       <c r="V27">
-        <v>32.88618129777915</v>
+        <v>12.86895612529331</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>0.000395746035591015</v>
       </c>
       <c r="X27">
-        <v>1.719499526318116E-06</v>
+        <v>1.616250360159963E-06</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -2126,61 +2126,61 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7.16197811087101E-06</v>
+        <v>4.947591065442998E-06</v>
       </c>
       <c r="C28">
-        <v>0.0492590481934114</v>
+        <v>0.04840723035237011</v>
       </c>
       <c r="D28">
-        <v>0.002292065937899169</v>
+        <v>0.003710057808647881</v>
       </c>
       <c r="E28">
-        <v>0.05440548205188929</v>
+        <v>0.05173687326218868</v>
       </c>
       <c r="F28">
-        <v>8.799587336155378</v>
+        <v>6.499587062800416</v>
       </c>
       <c r="K28">
-        <v>5.615100150736723</v>
+        <v>7.671343323831899</v>
       </c>
       <c r="L28">
-        <v>4.449965854345669</v>
+        <v>8.640257633159958</v>
       </c>
       <c r="M28">
-        <v>5.662046828464968</v>
+        <v>8.361728046561103</v>
       </c>
       <c r="N28">
-        <v>0.002832012224536527</v>
+        <v>0.01315878351059554</v>
       </c>
       <c r="O28">
-        <v>0.0001365832072021189</v>
+        <v>0.001172980915494125</v>
       </c>
       <c r="P28">
-        <v>0.01603373712874492</v>
+        <v>0.01155985870509347</v>
       </c>
       <c r="Q28">
-        <v>0.01331529968735934</v>
+        <v>0.0009497894072964455</v>
       </c>
       <c r="R28">
-        <v>0.0004623604152362219</v>
+        <v>0.001178741468495464</v>
       </c>
       <c r="S28">
-        <v>8.553796497843657E-06</v>
+        <v>2.54064610503036E-06</v>
       </c>
       <c r="T28">
-        <v>0.01331961518617711</v>
+        <v>0.003116405402098062</v>
       </c>
       <c r="U28">
-        <v>0.002737838294763702</v>
+        <v>0.001038912178604947</v>
       </c>
       <c r="V28">
-        <v>33.0889098551923</v>
+        <v>12.93144658489111</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>0.0004017075300071743</v>
       </c>
       <c r="X28">
-        <v>1.719244992463164E-06</v>
+        <v>1.616432833808405E-06</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -2188,61 +2188,61 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7.145977922796273E-06</v>
+        <v>4.934249750942829E-06</v>
       </c>
       <c r="C29">
-        <v>0.04990243151198006</v>
+        <v>0.04901952038721562</v>
       </c>
       <c r="D29">
-        <v>0.002329202545213585</v>
+        <v>0.003768675604688516</v>
       </c>
       <c r="E29">
-        <v>0.05516866275415703</v>
+        <v>0.05242274850845259</v>
       </c>
       <c r="F29">
-        <v>8.799570001118337</v>
+        <v>6.49956971237051</v>
       </c>
       <c r="K29">
-        <v>5.620255916121184</v>
+        <v>7.667672811592865</v>
       </c>
       <c r="L29">
-        <v>4.454405042617998</v>
+        <v>8.637336511181962</v>
       </c>
       <c r="M29">
-        <v>5.667716287841425</v>
+        <v>8.361168563868292</v>
       </c>
       <c r="N29">
-        <v>0.002868935909705491</v>
+        <v>0.01332297258724076</v>
       </c>
       <c r="O29">
-        <v>0.000138808283460232</v>
+        <v>0.001188627535632553</v>
       </c>
       <c r="P29">
-        <v>0.016070975997805</v>
+        <v>0.01170520212013178</v>
       </c>
       <c r="Q29">
-        <v>0.01331731082668968</v>
+        <v>0.0009643467187032727</v>
       </c>
       <c r="R29">
-        <v>0.0004685769442600353</v>
+        <v>0.00119485380852821</v>
       </c>
       <c r="S29">
-        <v>8.581654157681934E-06</v>
+        <v>2.57552302436034E-06</v>
       </c>
       <c r="T29">
-        <v>0.01346457103400469</v>
+        <v>0.00314486421337879</v>
       </c>
       <c r="U29">
-        <v>0.002774287305545228</v>
+        <v>0.001049966644433748</v>
       </c>
       <c r="V29">
-        <v>33.29539662600666</v>
+        <v>12.99500501597219</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>0.0004078385747399545</v>
       </c>
       <c r="X29">
-        <v>1.718987204193941E-06</v>
+        <v>1.616616359420357E-06</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -2250,61 +2250,61 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7.129533262330331E-06</v>
+        <v>4.920556083741471E-06</v>
       </c>
       <c r="C30">
-        <v>0.05056317080318515</v>
+        <v>0.04964800434252849</v>
       </c>
       <c r="D30">
-        <v>0.002367556242495961</v>
+        <v>0.003829190797911437</v>
       </c>
       <c r="E30">
-        <v>0.05595349586571113</v>
+        <v>0.05312732809898412</v>
       </c>
       <c r="F30">
-        <v>8.799552531415468</v>
+        <v>6.499552226754499</v>
       </c>
       <c r="K30">
-        <v>5.625478583128351</v>
+        <v>7.663976699279469</v>
       </c>
       <c r="L30">
-        <v>4.458958036497179</v>
+        <v>8.634380020740156</v>
       </c>
       <c r="M30">
-        <v>5.67346691414973</v>
+        <v>8.360617692310232</v>
       </c>
       <c r="N30">
-        <v>0.002906854348958898</v>
+        <v>0.01349150515740199</v>
       </c>
       <c r="O30">
-        <v>0.0001411067218383433</v>
+        <v>0.001204758060284904</v>
       </c>
       <c r="P30">
-        <v>0.01610922134740383</v>
+        <v>0.01185438066737385</v>
       </c>
       <c r="Q30">
-        <v>0.01331935921076472</v>
+        <v>0.0009793599727382478</v>
       </c>
       <c r="R30">
-        <v>0.0004749657677336791</v>
+        <v>0.001211413229160207</v>
       </c>
       <c r="S30">
-        <v>8.608194889652027E-06</v>
+        <v>2.611346928623264E-06</v>
       </c>
       <c r="T30">
-        <v>0.01361304719689996</v>
+        <v>0.003173960012947471</v>
       </c>
       <c r="U30">
-        <v>0.002811797156596971</v>
+        <v>0.001061323733469662</v>
       </c>
       <c r="V30">
-        <v>33.50576536169885</v>
+        <v>13.0596671474781</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>0.000414145080195612</v>
       </c>
       <c r="X30">
-        <v>1.718726070843582E-06</v>
+        <v>1.616801165036026E-06</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -2312,61 +2312,61 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7.112625555140261E-06</v>
+        <v>4.906495975856163E-06</v>
       </c>
       <c r="C31">
-        <v>0.05124198227587091</v>
+        <v>0.05029333974456536</v>
       </c>
       <c r="D31">
-        <v>0.002407187188492505</v>
+        <v>0.003891696416882857</v>
       </c>
       <c r="E31">
-        <v>0.05676090500715297</v>
+        <v>0.05385138456102098</v>
       </c>
       <c r="F31">
-        <v>8.799534923372489</v>
+        <v>6.499534602253727</v>
       </c>
       <c r="K31">
-        <v>5.630769661348233</v>
+        <v>7.660246116896179</v>
       </c>
       <c r="L31">
-        <v>4.463624849738707</v>
+        <v>8.631370421008693</v>
       </c>
       <c r="M31">
-        <v>5.67929447582955</v>
+        <v>8.360064670007993</v>
       </c>
       <c r="N31">
-        <v>0.002945808540890174</v>
+        <v>0.01366455793341772</v>
       </c>
       <c r="O31">
-        <v>0.0001434804915927307</v>
+        <v>0.001221388696940323</v>
       </c>
       <c r="P31">
-        <v>0.01614851518031424</v>
+        <v>0.0120075499729321</v>
       </c>
       <c r="Q31">
-        <v>0.01332148961334819</v>
+        <v>0.0009948545801958678</v>
       </c>
       <c r="R31">
-        <v>0.0004815341842526091</v>
+        <v>0.001228438607783188</v>
       </c>
       <c r="S31">
-        <v>8.633289259307686E-06</v>
+        <v>2.648228456994771E-06</v>
       </c>
       <c r="T31">
-        <v>0.01376517747915775</v>
+        <v>0.003203715453503497</v>
       </c>
       <c r="U31">
-        <v>0.002850415980435651</v>
+        <v>0.001072990966531463</v>
       </c>
       <c r="V31">
-        <v>33.72014579303835</v>
+        <v>13.12546745696457</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>0.0004206340623533401</v>
       </c>
       <c r="X31">
-        <v>1.718461516932588E-06</v>
+        <v>1.616987694155191E-06</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -2374,61 +2374,61 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7.095235141576601E-06</v>
+        <v>4.892054579758766E-06</v>
       </c>
       <c r="C32">
-        <v>0.05193962220569061</v>
+        <v>0.05095622036353226</v>
       </c>
       <c r="D32">
-        <v>0.002448159545542124</v>
+        <v>0.003956291626509604</v>
       </c>
       <c r="E32">
-        <v>0.05759186633829353</v>
+        <v>0.05459573320245823</v>
       </c>
       <c r="F32">
-        <v>8.799517173155444</v>
+        <v>6.499516835008102</v>
       </c>
       <c r="K32">
-        <v>5.636131346998758</v>
+        <v>7.65649203874949</v>
       </c>
       <c r="L32">
-        <v>4.468415145289963</v>
+        <v>8.628345259805625</v>
       </c>
       <c r="M32">
-        <v>5.685209272839554</v>
+        <v>8.359532734767731</v>
       </c>
       <c r="N32">
-        <v>0.00298584179873728</v>
+        <v>0.01384231749393883</v>
       </c>
       <c r="O32">
-        <v>0.0001459355534034578</v>
+        <v>0.001238558132269838</v>
       </c>
       <c r="P32">
-        <v>0.01618890125984233</v>
+        <v>0.01216487419282833</v>
       </c>
       <c r="Q32">
-        <v>0.01332366128184499</v>
+        <v>0.001010847075408257</v>
       </c>
       <c r="R32">
-        <v>0.000488289911323942</v>
+        <v>0.001245949898916419</v>
       </c>
       <c r="S32">
-        <v>8.656783514094379E-06</v>
+        <v>2.686069622818156E-06</v>
       </c>
       <c r="T32">
-        <v>0.01392110264342521</v>
+        <v>0.003234154374745955</v>
       </c>
       <c r="U32">
-        <v>0.00289019503226738</v>
+        <v>0.001084993680900797</v>
       </c>
       <c r="V32">
-        <v>33.93867407704028</v>
+        <v>13.19244742490446</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>0.0004273143926562163</v>
       </c>
       <c r="X32">
-        <v>1.718193432650062E-06</v>
+        <v>1.617175398062525E-06</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -2436,61 +2436,61 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7.077341302398104E-06</v>
+        <v>4.877216258865608E-06</v>
       </c>
       <c r="C33">
-        <v>0.05265688978047537</v>
+        <v>0.05163737875102533</v>
       </c>
       <c r="D33">
-        <v>0.002490541784687735</v>
+        <v>0.004023082223489976</v>
       </c>
       <c r="E33">
-        <v>0.0584474123818903</v>
+        <v>0.05536123510459545</v>
       </c>
       <c r="F33">
-        <v>8.799499276761066</v>
+        <v>6.499498920986615</v>
       </c>
       <c r="K33">
-        <v>5.641564967647279</v>
+        <v>7.652699421016455</v>
       </c>
       <c r="L33">
-        <v>4.473327211591568</v>
+        <v>8.625256266921562</v>
       </c>
       <c r="M33">
-        <v>5.691205376418274</v>
+        <v>8.358994438490852</v>
       </c>
       <c r="N33">
-        <v>0.003026999860263857</v>
+        <v>0.01402498067309345</v>
       </c>
       <c r="O33">
-        <v>0.000148473785359899</v>
+        <v>0.001256273580656385</v>
       </c>
       <c r="P33">
-        <v>0.01623042647691475</v>
+        <v>0.01232652675974746</v>
       </c>
       <c r="Q33">
-        <v>0.0133259258000484</v>
+        <v>0.001027369369642502</v>
       </c>
       <c r="R33">
-        <v>0.0004952411160748094</v>
+        <v>0.001263968215282993</v>
       </c>
       <c r="S33">
-        <v>8.678530592642343E-06</v>
+        <v>2.725092713626508E-06</v>
       </c>
       <c r="T33">
-        <v>0.01408097086967387</v>
+        <v>0.003265301631178494</v>
       </c>
       <c r="U33">
-        <v>0.002931188632161098</v>
+        <v>0.001097332185573934</v>
       </c>
       <c r="V33">
-        <v>34.16149313479556</v>
+        <v>13.26064348200358</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>0.0004341934275520188</v>
       </c>
       <c r="X33">
-        <v>1.717921751617636E-06</v>
+        <v>1.617365028949177E-06</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -2498,61 +2498,61 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7.058922094476588E-06</v>
+        <v>4.861964503815498E-06</v>
       </c>
       <c r="C34">
-        <v>0.05339463019217813</v>
+        <v>0.05233758899407732</v>
       </c>
       <c r="D34">
-        <v>0.002534407077446678</v>
+        <v>0.0040921812174078</v>
       </c>
       <c r="E34">
-        <v>0.05932863601518068</v>
+        <v>0.05614880032315666</v>
       </c>
       <c r="F34">
-        <v>8.799481230006748</v>
+        <v>6.499480855977115</v>
       </c>
       <c r="K34">
-        <v>5.647073055551568</v>
+        <v>7.648886906617657</v>
       </c>
       <c r="L34">
-        <v>4.478371373532918</v>
+        <v>8.622149741542851</v>
       </c>
       <c r="M34">
-        <v>5.697292414822857</v>
+        <v>8.358480133545465</v>
       </c>
       <c r="N34">
-        <v>0.003069331126071269</v>
+        <v>0.014212755777394</v>
       </c>
       <c r="O34">
-        <v>0.0001511014303805141</v>
+        <v>0.001274583356558985</v>
       </c>
       <c r="P34">
-        <v>0.01627313972216279</v>
+        <v>0.01249269083901371</v>
       </c>
       <c r="Q34">
-        <v>0.01332824162346362</v>
+        <v>0.001044440540305558</v>
       </c>
       <c r="R34">
-        <v>0.000502396448214253</v>
+        <v>0.001282515908261954</v>
       </c>
       <c r="S34">
-        <v>8.698345536194975E-06</v>
+        <v>2.765155391049113E-06</v>
       </c>
       <c r="T34">
-        <v>0.01424493825551965</v>
+        <v>0.003297183534790325</v>
       </c>
       <c r="U34">
-        <v>0.002973454733261234</v>
+        <v>0.001110037386661091</v>
       </c>
       <c r="V34">
-        <v>34.38875316912669</v>
+        <v>13.33010076510979</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>0.0004412819564238689</v>
       </c>
       <c r="X34">
-        <v>1.717646347222421E-06</v>
+        <v>1.617555654669117E-06</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -2560,61 +2560,61 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7.03995433738323E-06</v>
+        <v>4.846281891569299E-06</v>
       </c>
       <c r="C35">
-        <v>0.05415373799986069</v>
+        <v>0.05305766970716194</v>
       </c>
       <c r="D35">
-        <v>0.002579833679181927</v>
+        <v>0.004163709437058665</v>
       </c>
       <c r="E35">
-        <v>0.06023669494738559</v>
+        <v>0.05695939140088288</v>
       </c>
       <c r="F35">
-        <v>8.799463028519529</v>
+        <v>6.49946263557532</v>
       </c>
       <c r="K35">
-        <v>5.652657521622582</v>
+        <v>7.645034260284578</v>
       </c>
       <c r="L35">
-        <v>4.483550000702859</v>
+        <v>8.61897927777194</v>
       </c>
       <c r="M35">
-        <v>5.703469735419526</v>
+        <v>8.357960358211619</v>
       </c>
       <c r="N35">
-        <v>0.003112886793171131</v>
+        <v>0.01440586282845123</v>
       </c>
       <c r="O35">
-        <v>0.0001538223132192912</v>
+        <v>0.001293497098179793</v>
       </c>
       <c r="P35">
-        <v>0.01631709342512845</v>
+        <v>0.01266356024645711</v>
       </c>
       <c r="Q35">
-        <v>0.0133306334118481</v>
+        <v>0.00106209720853803</v>
       </c>
       <c r="R35">
-        <v>0.000509765076612433</v>
+        <v>0.00130161666576749</v>
       </c>
       <c r="S35">
-        <v>8.716047177800555E-06</v>
+        <v>2.806507720727039E-06</v>
       </c>
       <c r="T35">
-        <v>0.01441316935286679</v>
+        <v>0.003329827507150464</v>
       </c>
       <c r="U35">
-        <v>0.003017054952914558</v>
+        <v>0.001123110276645576</v>
       </c>
       <c r="V35">
-        <v>34.62061210371961</v>
+        <v>13.40085950984425</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>0.0004485870277788087</v>
       </c>
       <c r="X35">
-        <v>1.717367123918871E-06</v>
+        <v>1.617748286985771E-06</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -2622,61 +2622,61 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7.020413445126132E-06</v>
+        <v>4.830150029049622E-06</v>
       </c>
       <c r="C36">
-        <v>0.05493516079259825</v>
+        <v>0.053798487287012</v>
       </c>
       <c r="D36">
-        <v>0.002626905398899368</v>
+        <v>0.004237796207424625</v>
       </c>
       <c r="E36">
-        <v>0.06117281645130434</v>
+        <v>0.05779402717131377</v>
       </c>
       <c r="F36">
-        <v>8.799444667724195</v>
+        <v>6.4994442551726</v>
       </c>
       <c r="K36">
-        <v>5.658320135502668</v>
+        <v>7.641157774140345</v>
       </c>
       <c r="L36">
-        <v>4.488867385204959</v>
+        <v>8.615785646697361</v>
       </c>
       <c r="M36">
-        <v>5.70973894446257</v>
+        <v>8.357462612370469</v>
       </c>
       <c r="N36">
-        <v>0.003157721103473431</v>
+        <v>0.01460453503648565</v>
       </c>
       <c r="O36">
-        <v>0.0001566410128093421</v>
+        <v>0.001313064105670276</v>
       </c>
       <c r="P36">
-        <v>0.01636234281926906</v>
+        <v>0.01283933998945589</v>
       </c>
       <c r="Q36">
-        <v>0.01333310260922449</v>
+        <v>0.001080361564210767</v>
       </c>
       <c r="R36">
-        <v>0.0005173567285735637</v>
+        <v>0.001321295607556078</v>
       </c>
       <c r="S36">
-        <v>8.731427837958691E-06</v>
+        <v>2.849027735960977E-06</v>
       </c>
       <c r="T36">
-        <v>0.01458583775286607</v>
+        <v>0.003363262616703568</v>
       </c>
       <c r="U36">
-        <v>0.003062055001810611</v>
+        <v>0.001136582389836448</v>
       </c>
       <c r="V36">
-        <v>34.85723611876672</v>
+        <v>13.47296797710579</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>0.0004561208737119243</v>
       </c>
       <c r="X36">
-        <v>1.717083993224867E-06</v>
+        <v>1.617942111292983E-06</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -2684,61 +2684,61 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7.000273412497897E-06</v>
+        <v>4.813549465633459E-06</v>
       </c>
       <c r="C37">
-        <v>0.05573990318327053</v>
+        <v>0.0545609594574672</v>
       </c>
       <c r="D37">
-        <v>0.002675712066901666</v>
+        <v>0.004314580118086698</v>
       </c>
       <c r="E37">
-        <v>0.06213830267462085</v>
+        <v>0.05865378687331686</v>
       </c>
       <c r="F37">
-        <v>8.799426142830665</v>
+        <v>6.499425709943291</v>
       </c>
       <c r="K37">
-        <v>5.664063308358838</v>
+        <v>7.637241309166968</v>
       </c>
       <c r="L37">
-        <v>4.494328225118373</v>
+        <v>8.612541573135269</v>
       </c>
       <c r="M37">
-        <v>5.716101839283933</v>
+        <v>8.35697012819791</v>
       </c>
       <c r="N37">
-        <v>0.003203891566406725</v>
+        <v>0.01480901920465204</v>
       </c>
       <c r="O37">
-        <v>0.0001595627013263914</v>
+        <v>0.001333306212103258</v>
       </c>
       <c r="P37">
-        <v>0.01640894651480821</v>
+        <v>0.01302024734984428</v>
       </c>
       <c r="Q37">
-        <v>0.01333567122593217</v>
+        <v>0.001099270435969839</v>
       </c>
       <c r="R37">
-        <v>0.0005251817332002654</v>
+        <v>0.001341579401091772</v>
       </c>
       <c r="S37">
-        <v>8.744267303354176E-06</v>
+        <v>2.89289056232085E-06</v>
       </c>
       <c r="T37">
-        <v>0.01476312671826692</v>
+        <v>0.003397519235578446</v>
       </c>
       <c r="U37">
-        <v>0.003108525018085819</v>
+        <v>0.001150463400946363</v>
       </c>
       <c r="V37">
-        <v>35.09880022736766</v>
+        <v>13.54647283081562</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>0.0004638920278323651</v>
       </c>
       <c r="X37">
-        <v>1.716796834582058E-06</v>
+        <v>1.618137934541652E-06</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -2746,61 +2746,61 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6.979506616598275E-06</v>
+        <v>4.796459640929659E-06</v>
       </c>
       <c r="C38">
-        <v>0.05656903116946378</v>
+        <v>0.05534605913464501</v>
       </c>
       <c r="D38">
-        <v>0.002726350110421862</v>
+        <v>0.004394209842396028</v>
       </c>
       <c r="E38">
-        <v>0.06313453625281185</v>
+        <v>0.05953981466402981</v>
       </c>
       <c r="F38">
-        <v>8.799407448820142</v>
+        <v>6.499406994830473</v>
       </c>
       <c r="K38">
-        <v>5.669889422281562</v>
+        <v>7.63329749561543</v>
       </c>
       <c r="L38">
-        <v>4.499941411530616</v>
+        <v>8.609257516212702</v>
       </c>
       <c r="M38">
-        <v>5.722565746508984</v>
+        <v>8.356492406249288</v>
       </c>
       <c r="N38">
-        <v>0.003251459204923605</v>
+        <v>0.01501957722016061</v>
       </c>
       <c r="O38">
-        <v>0.0001625942686471789</v>
+        <v>0.001354266577420177</v>
       </c>
       <c r="P38">
-        <v>0.01645696644119689</v>
+        <v>0.01320651261412356</v>
       </c>
       <c r="Q38">
-        <v>0.01333830814494702</v>
+        <v>0.001118856901973737</v>
       </c>
       <c r="R38">
-        <v>0.0005332510686049045</v>
+        <v>0.001362496377818794</v>
       </c>
       <c r="S38">
-        <v>8.754313847010115E-06</v>
+        <v>2.938101812650454E-06</v>
       </c>
       <c r="T38">
-        <v>0.01494522986983225</v>
+        <v>0.003432629482994572</v>
       </c>
       <c r="U38">
-        <v>0.003156539979781678</v>
+        <v>0.001164777693486094</v>
       </c>
       <c r="V38">
-        <v>35.34548891464748</v>
+        <v>13.62142492358908</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>0.0004719138237909237</v>
       </c>
       <c r="X38">
-        <v>1.716505528885922E-06</v>
+        <v>1.618335125219228E-06</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -2808,61 +2808,61 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6.958083775410795E-06</v>
+        <v>4.778858789223352E-06</v>
       </c>
       <c r="C39">
-        <v>0.05742367690055969</v>
+        <v>0.05615481864722038</v>
       </c>
       <c r="D39">
-        <v>0.002778923136951327</v>
+        <v>0.004476845075481573</v>
       </c>
       <c r="E39">
-        <v>0.06416298660468056</v>
+        <v>0.06045332450236907</v>
       </c>
       <c r="F39">
-        <v>8.799388580430231</v>
+        <v>6.499388104530839</v>
       </c>
       <c r="K39">
-        <v>5.675801116024777</v>
+        <v>7.629313539854915</v>
       </c>
       <c r="L39">
-        <v>4.505711857891487</v>
+        <v>8.60591395302697</v>
       </c>
       <c r="M39">
-        <v>5.729132343694012</v>
+        <v>8.356020555467794</v>
       </c>
       <c r="N39">
-        <v>0.003300488807086722</v>
+        <v>0.01523648691290253</v>
       </c>
       <c r="O39">
-        <v>0.0001657415409884495</v>
+        <v>0.001375976425328404</v>
       </c>
       <c r="P39">
-        <v>0.01650646895383578</v>
+        <v>0.01339838016511007</v>
       </c>
       <c r="Q39">
-        <v>0.01334102993135134</v>
+        <v>0.001139159688655562</v>
       </c>
       <c r="R39">
-        <v>0.000541576413918522</v>
+        <v>0.00138407666791413</v>
       </c>
       <c r="S39">
-        <v>8.761306254638973E-06</v>
+        <v>2.984793167153315E-06</v>
       </c>
       <c r="T39">
-        <v>0.01513235193157909</v>
+        <v>0.003468627130447087</v>
       </c>
       <c r="U39">
-        <v>0.003206180039912053</v>
+        <v>0.001179541544075777</v>
       </c>
       <c r="V39">
-        <v>35.59749679950433</v>
+        <v>13.69787575649583</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>0.0004801968013396222</v>
       </c>
       <c r="X39">
-        <v>1.716209944198761E-06</v>
+        <v>1.618534323007254E-06</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -2870,61 +2870,61 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6.935973770264444E-06</v>
+        <v>4.760723846523492E-06</v>
       </c>
       <c r="C40">
-        <v>0.05830504389674692</v>
+        <v>0.05698833434999036</v>
       </c>
       <c r="D40">
-        <v>0.002833542625508904</v>
+        <v>0.004562657569557589</v>
       </c>
       <c r="E40">
-        <v>0.06522521668092485</v>
+        <v>0.0613956054892691</v>
       </c>
       <c r="F40">
-        <v>8.799369532138876</v>
+        <v>6.499369033479139</v>
       </c>
       <c r="K40">
-        <v>5.681800605773476</v>
+        <v>7.625291956177299</v>
       </c>
       <c r="L40">
-        <v>4.511646305756788</v>
+        <v>8.602525593868991</v>
       </c>
       <c r="M40">
-        <v>5.735804971322172</v>
+        <v>8.355560932327869</v>
       </c>
       <c r="N40">
-        <v>0.003351049246862501</v>
+        <v>0.01546004353366985</v>
       </c>
       <c r="O40">
-        <v>0.0001690110907943701</v>
+        <v>0.001398481955651541</v>
       </c>
       <c r="P40">
-        <v>0.01655752442194037</v>
+        <v>0.01359610952763353</v>
       </c>
       <c r="Q40">
-        <v>0.01334383188983684</v>
+        <v>0.001160217725171321</v>
       </c>
       <c r="R40">
-        <v>0.0005501702059776169</v>
+        <v>0.001406352343313275</v>
       </c>
       <c r="S40">
-        <v>8.764952308788468E-06</v>
+        <v>3.033000366975926E-06</v>
       </c>
       <c r="T40">
-        <v>0.01532470954273501</v>
+        <v>0.00350554786571114</v>
       </c>
       <c r="U40">
-        <v>0.003257531022960979</v>
+        <v>0.001194780579331991</v>
       </c>
       <c r="V40">
-        <v>35.85502937291976</v>
+        <v>13.77588075497082</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>0.0004887537862356627</v>
       </c>
       <c r="X40">
-        <v>1.715909969711326E-06</v>
+        <v>1.618735402191135E-06</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -2932,61 +2932,61 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6.913143540217775E-06</v>
+        <v>4.742030380845709E-06</v>
       </c>
       <c r="C41">
-        <v>0.0592144127700459</v>
+        <v>0.05784777167425976</v>
       </c>
       <c r="D41">
-        <v>0.002890328667441286</v>
+        <v>0.004651832260173608</v>
       </c>
       <c r="E41">
-        <v>0.06632289043387933</v>
+        <v>0.06236802771894236</v>
       </c>
       <c r="F41">
-        <v>8.799350298146768</v>
+        <v>6.499349775829224</v>
       </c>
       <c r="K41">
-        <v>5.687890302630469</v>
+        <v>7.621236010662856</v>
       </c>
       <c r="L41">
-        <v>4.517747218800507</v>
+        <v>8.599086965085014</v>
       </c>
       <c r="M41">
-        <v>5.742581972500476</v>
+        <v>8.355114513498139</v>
       </c>
       <c r="N41">
-        <v>0.003403213806798045</v>
+        <v>0.01569056093658818</v>
       </c>
       <c r="O41">
-        <v>0.0001724086633857715</v>
+        <v>0.001421828656074258</v>
       </c>
       <c r="P41">
-        <v>0.01661020790607321</v>
+        <v>0.01379997660636242</v>
       </c>
       <c r="Q41">
-        <v>0.01334676222977985</v>
+        <v>0.001182074555734007</v>
       </c>
       <c r="R41">
-        <v>0.000559045701939401</v>
+        <v>0.001429357578443542</v>
       </c>
       <c r="S41">
-        <v>8.764937553716326E-06</v>
+        <v>3.082799275076079E-06</v>
       </c>
       <c r="T41">
-        <v>0.01552253214141983</v>
+        <v>0.003543429296635388</v>
       </c>
       <c r="U41">
-        <v>0.003310684899753925</v>
+        <v>0.001210518850623349</v>
       </c>
       <c r="V41">
-        <v>36.11830379185808</v>
+        <v>13.85549822649865</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>0.000497599447508815</v>
       </c>
       <c r="X41">
-        <v>1.715605484868477E-06</v>
+        <v>1.618938199466857E-06</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -2994,61 +2994,61 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6.889557884456841E-06</v>
+        <v>4.722752464475176E-06</v>
       </c>
       <c r="C42">
-        <v>0.06015314750508931</v>
+        <v>0.05873437066449452</v>
       </c>
       <c r="D42">
-        <v>0.002949410821342672</v>
+        <v>0.004744568565275323</v>
       </c>
       <c r="E42">
-        <v>0.0674577809124022</v>
+        <v>0.06337204863991029</v>
       </c>
       <c r="F42">
-        <v>8.799330872358539</v>
+        <v>6.49933032543595</v>
       </c>
       <c r="K42">
-        <v>5.694073422532483</v>
+        <v>7.61714519151993</v>
       </c>
       <c r="L42">
-        <v>4.524026238360503</v>
+        <v>8.595616955393856</v>
       </c>
       <c r="M42">
-        <v>5.74947301686687</v>
+        <v>8.354692007496006</v>
       </c>
       <c r="N42">
-        <v>0.003457060559188249</v>
+        <v>0.01592837314126341</v>
       </c>
       <c r="O42">
-        <v>0.0001759437870041214</v>
+        <v>0.0014460707667749</v>
       </c>
       <c r="P42">
-        <v>0.01666459866734477</v>
+        <v>0.01401027497387289</v>
       </c>
       <c r="Q42">
-        <v>0.01334978429729675</v>
+        <v>0.001204771649712615</v>
       </c>
       <c r="R42">
-        <v>0.0005682170480124957</v>
+        <v>0.001453128824763016</v>
       </c>
       <c r="S42">
-        <v>8.760902712853814E-06</v>
+        <v>3.134204870226488E-06</v>
       </c>
       <c r="T42">
-        <v>0.01572606292878093</v>
+        <v>0.003582311137402256</v>
       </c>
       <c r="U42">
-        <v>0.003365740513574975</v>
+        <v>0.0012267879760226</v>
       </c>
       <c r="V42">
-        <v>36.38754980512249</v>
+        <v>13.9367915949268</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>0.0005067481608762625</v>
       </c>
       <c r="X42">
-        <v>1.715296328873376E-06</v>
+        <v>1.619142740424003E-06</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -3056,61 +3056,61 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6.865179348108182E-06</v>
+        <v>4.702862568589452E-06</v>
       </c>
       <c r="C43">
-        <v>0.06112270236413586</v>
+        <v>0.05964945205600672</v>
       </c>
       <c r="D43">
-        <v>0.003010929033237334</v>
+        <v>0.004841081809034791</v>
       </c>
       <c r="E43">
-        <v>0.06863177924784147</v>
+        <v>0.06440922003820547</v>
       </c>
       <c r="F43">
-        <v>8.799311248361992</v>
+        <v>6.49931067583332</v>
       </c>
       <c r="K43">
-        <v>5.70035262953246</v>
+        <v>7.613012195599011</v>
       </c>
       <c r="L43">
-        <v>4.530489813607693</v>
+        <v>8.592057273770946</v>
       </c>
       <c r="M43">
-        <v>5.756480497126391</v>
+        <v>8.354265793118143</v>
       </c>
       <c r="N43">
-        <v>0.003512672707869336</v>
+        <v>0.01617383589337339</v>
       </c>
       <c r="O43">
-        <v>0.0001796242970677758</v>
+        <v>0.00147124125636269</v>
       </c>
       <c r="P43">
-        <v>0.01672078196175236</v>
+        <v>0.01422731740309594</v>
       </c>
       <c r="Q43">
-        <v>0.01335290439152496</v>
+        <v>0.001228369612674452</v>
       </c>
       <c r="R43">
-        <v>0.0005776993555599472</v>
+        <v>0.001477705004761199</v>
       </c>
       <c r="S43">
-        <v>8.752476371991741E-06</v>
+        <v>3.187513574145179E-06</v>
       </c>
       <c r="T43">
-        <v>0.01593555991886916</v>
+        <v>0.003622235258781573</v>
       </c>
       <c r="U43">
-        <v>0.003422804002708358</v>
+        <v>0.001243599542410569</v>
       </c>
       <c r="V43">
-        <v>36.66301068790402</v>
+        <v>14.0198221090646</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>0.00051621453522702</v>
       </c>
       <c r="X43">
-        <v>1.714982368523377E-06</v>
+        <v>1.619349390220049E-06</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -3118,61 +3118,61 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6.839967981110433E-06</v>
+        <v>4.682331451674645E-06</v>
       </c>
       <c r="C44">
-        <v>0.06212462949053065</v>
+        <v>0.06059442395681656</v>
       </c>
       <c r="D44">
-        <v>0.003075034708885534</v>
+        <v>0.004941604813484086</v>
       </c>
       <c r="E44">
-        <v>0.06984690439009288</v>
+        <v>0.06548119570810303</v>
       </c>
       <c r="F44">
-        <v>8.799291419405774</v>
+        <v>6.499290820212558</v>
       </c>
       <c r="K44">
-        <v>5.706730673418181</v>
+        <v>7.608836873925062</v>
       </c>
       <c r="L44">
-        <v>4.537143417309755</v>
+        <v>8.588462242543104</v>
       </c>
       <c r="M44">
-        <v>5.763605331810501</v>
+        <v>8.353864064844055</v>
       </c>
       <c r="N44">
-        <v>0.003570139059779707</v>
+        <v>0.01642732890435633</v>
       </c>
       <c r="O44">
-        <v>0.0001834582761007385</v>
+        <v>0.001497414328107961</v>
       </c>
       <c r="P44">
-        <v>0.01677884881641145</v>
+        <v>0.01445143719258597</v>
       </c>
       <c r="Q44">
-        <v>0.01335615085931882</v>
+        <v>0.001252911713112222</v>
       </c>
       <c r="R44">
-        <v>0.0005875087845114636</v>
+        <v>0.001503127720126493</v>
       </c>
       <c r="S44">
-        <v>8.739239302982912E-06</v>
+        <v>3.242624259868077E-06</v>
       </c>
       <c r="T44">
-        <v>0.01615129708983745</v>
+        <v>0.003663246219408658</v>
       </c>
       <c r="U44">
-        <v>0.003481989595323682</v>
+        <v>0.001260998858884338</v>
       </c>
       <c r="V44">
-        <v>36.94494430493137</v>
+        <v>14.10466008354748</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>0.000526015527069072</v>
       </c>
       <c r="X44">
-        <v>1.714663466329091E-06</v>
+        <v>1.619558156303747E-06</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -3180,61 +3180,61 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6.813881198393482E-06</v>
+        <v>4.661128019761421E-06</v>
       </c>
       <c r="C45">
-        <v>0.06316058729371742</v>
+        <v>0.06157078920494521</v>
       </c>
       <c r="D45">
-        <v>0.003141891872316323</v>
+        <v>0.005046389698939746</v>
       </c>
       <c r="E45">
-        <v>0.07110531395536873</v>
+        <v>0.066589739841178</v>
       </c>
       <c r="F45">
-        <v>8.799271378374899</v>
+        <v>6.499270751396425</v>
       </c>
       <c r="K45">
-        <v>5.713211086507881</v>
+        <v>7.604623654664174</v>
       </c>
       <c r="L45">
-        <v>4.543996935423213</v>
+        <v>8.584813837351145</v>
       </c>
       <c r="M45">
-        <v>5.770853752607023</v>
+        <v>8.353480315642667</v>
       </c>
       <c r="N45">
-        <v>0.003629554512124952</v>
+        <v>0.01668925723025542</v>
       </c>
       <c r="O45">
-        <v>0.0001874561883438157</v>
+        <v>0.001524646411987965</v>
       </c>
       <c r="P45">
-        <v>0.01683889614899203</v>
+        <v>0.01468299027117323</v>
       </c>
       <c r="Q45">
-        <v>0.01335951952315451</v>
+        <v>0.001278459729913955</v>
       </c>
       <c r="R45">
-        <v>0.0005976626361817879</v>
+        <v>0.001529441493738188</v>
       </c>
       <c r="S45">
-        <v>8.720725538929283E-06</v>
+        <v>3.299692986493406E-06</v>
       </c>
       <c r="T45">
-        <v>0.01637356564237278</v>
+        <v>0.003705390909944172</v>
       </c>
       <c r="U45">
-        <v>0.003543420434394079</v>
+        <v>0.001279013285806683</v>
       </c>
       <c r="V45">
-        <v>37.23362429132601</v>
+        <v>14.19137815318134</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>0.0005361694998451163</v>
       </c>
       <c r="X45">
-        <v>1.714339445674606E-06</v>
+        <v>1.619768817266791E-06</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -3242,61 +3242,61 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6.786873502646753E-06</v>
+        <v>4.639219184887667E-06</v>
       </c>
       <c r="C46">
-        <v>0.06423234971195671</v>
+        <v>0.06258015348183817</v>
       </c>
       <c r="D46">
-        <v>0.003211678515103549</v>
+        <v>0.005155709899664289</v>
       </c>
       <c r="E46">
-        <v>0.07240931601725011</v>
+        <v>0.0677367362686801</v>
       </c>
       <c r="F46">
-        <v>8.799251117763971</v>
+        <v>6.499250461813004</v>
       </c>
       <c r="K46">
-        <v>5.719797060427232</v>
+        <v>7.600359501044864</v>
       </c>
       <c r="L46">
-        <v>4.551059661256786</v>
+        <v>8.581090669995573</v>
       </c>
       <c r="M46">
-        <v>5.778230905094346</v>
+        <v>8.353104852441875</v>
       </c>
       <c r="N46">
-        <v>0.003691020553621044</v>
+        <v>0.0169600538520102</v>
       </c>
       <c r="O46">
-        <v>0.0001916288475455716</v>
+        <v>0.00155299437672342</v>
       </c>
       <c r="P46">
-        <v>0.01690102787445341</v>
+        <v>0.01492235688798143</v>
       </c>
       <c r="Q46">
-        <v>0.01336300839149704</v>
+        <v>0.001305079225299512</v>
       </c>
       <c r="R46">
-        <v>0.0006081794560146961</v>
+        <v>0.001556694025894469</v>
       </c>
       <c r="S46">
-        <v>8.696443379226174E-06</v>
+        <v>3.358920822438692E-06</v>
       </c>
       <c r="T46">
-        <v>0.01660267537822955</v>
+        <v>0.00374871908180377</v>
       </c>
       <c r="U46">
-        <v>0.003607229401052551</v>
+        <v>0.001297671247341885</v>
       </c>
       <c r="V46">
-        <v>37.52934133236649</v>
+        <v>14.28005134636636</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>0.0005466945488932606</v>
       </c>
       <c r="X46">
-        <v>1.714010146978638E-06</v>
+        <v>1.619982024947757E-06</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -3304,61 +3304,61 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6.758896288365412E-06</v>
+        <v>4.616569691709316E-06</v>
       </c>
       <c r="C47">
-        <v>0.06534181646099041</v>
+        <v>0.06362423427424133</v>
       </c>
       <c r="D47">
-        <v>0.003284588076792319</v>
+        <v>0.005269862452005231</v>
       </c>
       <c r="E47">
-        <v>0.07376138223882694</v>
+        <v>0.0689241985990599</v>
       </c>
       <c r="F47">
-        <v>8.799230629648047</v>
+        <v>6.499229943465267</v>
       </c>
       <c r="K47">
-        <v>5.726491814834236</v>
+        <v>7.596058991473797</v>
       </c>
       <c r="L47">
-        <v>4.558339395249156</v>
+        <v>8.577318239181892</v>
       </c>
       <c r="M47">
-        <v>5.785739029404962</v>
+        <v>8.352754266603656</v>
       </c>
       <c r="N47">
-        <v>0.003754645857367871</v>
+        <v>0.01724018220610632</v>
       </c>
       <c r="O47">
-        <v>0.0001959869501792075</v>
+        <v>0.001582542353305401</v>
       </c>
       <c r="P47">
-        <v>0.01696535550141626</v>
+        <v>0.01516994375457564</v>
       </c>
       <c r="Q47">
-        <v>0.0133666380095243</v>
+        <v>0.001332835044099227</v>
       </c>
       <c r="R47">
-        <v>0.0006190791471535228</v>
+        <v>0.001584936482350324</v>
       </c>
       <c r="S47">
-        <v>8.665820774401817E-06</v>
+        <v>3.420307317461172E-06</v>
       </c>
       <c r="T47">
-        <v>0.01683895621417822</v>
+        <v>0.003793283587884895</v>
       </c>
       <c r="U47">
-        <v>0.003673560070576179</v>
+        <v>0.001317018230397876</v>
       </c>
       <c r="V47">
-        <v>37.83240456750728</v>
+        <v>14.37076202201284</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>0.0005576126692923296</v>
       </c>
       <c r="X47">
-        <v>1.713675409258288E-06</v>
+        <v>1.62019705042631E-06</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -3366,61 +3366,61 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7.750291875075331E-06</v>
+        <v>5.543929512109243E-06</v>
       </c>
       <c r="C48">
-        <v>0.06649102439403112</v>
+        <v>0.06470487078946793</v>
       </c>
       <c r="D48">
-        <v>0.002800859900624504</v>
+        <v>0.00439872553041856</v>
       </c>
       <c r="E48">
-        <v>0.07171350031660677</v>
+        <v>0.06820360330058037</v>
       </c>
       <c r="F48">
-        <v>9.809230629648047</v>
+        <v>7.509229943465267</v>
       </c>
       <c r="K48">
-        <v>5.733302116628134</v>
+        <v>7.591704756871143</v>
       </c>
       <c r="L48">
-        <v>4.511907571860308</v>
+        <v>8.584520553164896</v>
       </c>
       <c r="M48">
-        <v>5.772512900605575</v>
+        <v>8.330646135518709</v>
       </c>
       <c r="N48">
-        <v>0.003820546948241735</v>
+        <v>0.01753013849967671</v>
       </c>
       <c r="O48">
-        <v>0.0001692654660818388</v>
+        <v>0.001365376264582233</v>
       </c>
       <c r="P48">
-        <v>0.01703199841793277</v>
+        <v>0.01542618650847336</v>
       </c>
       <c r="Q48">
-        <v>0.01335337650380324</v>
+        <v>0.001140530365711035</v>
       </c>
       <c r="R48">
-        <v>0.0006303830976420251</v>
+        <v>0.001614223818925006</v>
       </c>
       <c r="S48">
-        <v>1.359417463564825E-05</v>
+        <v>3.075839185344085E-06</v>
       </c>
       <c r="T48">
-        <v>0.01708275984646714</v>
+        <v>0.003839140353764285</v>
       </c>
       <c r="U48">
-        <v>0.003256766980954943</v>
+        <v>0.001167738950853414</v>
       </c>
       <c r="V48">
-        <v>37.99832281437222</v>
+        <v>14.41311156282974</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>0.0005689467972511613</v>
       </c>
       <c r="X48">
-        <v>1.713334894168593E-06</v>
+        <v>1.620414762156443E-06</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -3428,61 +3428,61 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7.721855201508521E-06</v>
+        <v>5.519802444108908E-06</v>
       </c>
       <c r="C49">
-        <v>0.06769272561088785</v>
+        <v>0.06584272258680848</v>
       </c>
       <c r="D49">
-        <v>0.002864295871266954</v>
+        <v>0.004497161327949843</v>
       </c>
       <c r="E49">
-        <v>0.07307914657667053</v>
+        <v>0.06944598940113041</v>
       </c>
       <c r="F49">
-        <v>9.809230629648047</v>
+        <v>7.509229943465267</v>
       </c>
       <c r="K49">
-        <v>5.740294904142142</v>
+        <v>7.587563723818619</v>
       </c>
       <c r="L49">
-        <v>4.519438242199532</v>
+        <v>8.573235496366078</v>
       </c>
       <c r="M49">
-        <v>5.77990842817166</v>
+        <v>8.326571172269604</v>
       </c>
       <c r="N49">
-        <v>0.003889439051678714</v>
+        <v>0.01783513401354641</v>
       </c>
       <c r="O49">
-        <v>0.0001735057132563976</v>
+        <v>0.001389984534093377</v>
       </c>
       <c r="P49">
-        <v>0.01710140637857673</v>
+        <v>0.01569572719041227</v>
       </c>
       <c r="Q49">
-        <v>0.01335996797265459</v>
+        <v>0.001167138143176943</v>
       </c>
       <c r="R49">
-        <v>0.000642020624491202</v>
+        <v>0.00164462283741066</v>
       </c>
       <c r="S49">
-        <v>1.518697586729639E-05</v>
+        <v>3.175848382705762E-06</v>
       </c>
       <c r="T49">
-        <v>0.01734362763638247</v>
+        <v>0.003889544153819207</v>
       </c>
       <c r="U49">
-        <v>0.00331828355816634</v>
+        <v>0.001183800399826629</v>
       </c>
       <c r="V49">
-        <v>38.17528423352006</v>
+        <v>14.45838480947852</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>0.0005807402919471821</v>
       </c>
       <c r="X49">
-        <v>1.712985254792893E-06</v>
+        <v>1.620621813809069E-06</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -3490,61 +3490,61 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7.692341451212916E-06</v>
+        <v>5.494798865330843E-06</v>
       </c>
       <c r="C50">
-        <v>0.06893942618280363</v>
+        <v>0.06702244491870959</v>
       </c>
       <c r="D50">
-        <v>0.002930658323741673</v>
+        <v>0.004600126140432722</v>
       </c>
       <c r="E50">
-        <v>0.07449772023821864</v>
+        <v>0.07073504999398708</v>
       </c>
       <c r="F50">
-        <v>9.809230629648047</v>
+        <v>7.509229943465267</v>
       </c>
       <c r="K50">
-        <v>5.747411790452141</v>
+        <v>7.583412778651899</v>
       </c>
       <c r="L50">
-        <v>4.526585317090936</v>
+        <v>8.568967918893698</v>
       </c>
       <c r="M50">
-        <v>5.787625819581318</v>
+        <v>8.32607166664207</v>
       </c>
       <c r="N50">
-        <v>0.003960899308186836</v>
+        <v>0.01815138688815128</v>
       </c>
       <c r="O50">
-        <v>0.0001775536258599499</v>
+        <v>0.001417184678405415</v>
       </c>
       <c r="P50">
-        <v>0.01717335711715215</v>
+        <v>0.01597512313362833</v>
       </c>
       <c r="Q50">
-        <v>0.01336377331889073</v>
+        <v>0.001192757345900934</v>
       </c>
       <c r="R50">
-        <v>0.0006540751177339694</v>
+        <v>0.001676189125661198</v>
       </c>
       <c r="S50">
-        <v>1.539006970903334E-05</v>
+        <v>3.235997426562143E-06</v>
       </c>
       <c r="T50">
-        <v>0.01761334579173278</v>
+        <v>0.003941577687549834</v>
       </c>
       <c r="U50">
-        <v>0.003382001926046987</v>
+        <v>0.001202675070219153</v>
       </c>
       <c r="V50">
-        <v>38.36324228968994</v>
+        <v>14.50720716864917</v>
       </c>
       <c r="W50">
-        <v>0</v>
+        <v>0.0005930023739528503</v>
       </c>
       <c r="X50">
-        <v>1.712629410477393E-06</v>
+        <v>1.620829361067405E-06</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -3552,61 +3552,61 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7.661688850176324E-06</v>
+        <v>5.468870422061388E-06</v>
       </c>
       <c r="C51">
-        <v>0.0702337157486676</v>
+        <v>0.06824641195357778</v>
       </c>
       <c r="D51">
-        <v>0.003000152455472977</v>
+        <v>0.004707937522261195</v>
       </c>
       <c r="E51">
-        <v>0.07597232584254109</v>
+        <v>0.07207345365100853</v>
       </c>
       <c r="F51">
-        <v>9.809230629648047</v>
+        <v>7.509229943465267</v>
       </c>
       <c r="K51">
-        <v>5.754656414950706</v>
+        <v>7.579209263589211</v>
       </c>
       <c r="L51">
-        <v>4.533980668001351</v>
+        <v>8.564628805224341</v>
       </c>
       <c r="M51">
-        <v>5.795494560097567</v>
+        <v>8.3255528255523</v>
       </c>
       <c r="N51">
-        <v>0.004035082556859912</v>
+        <v>0.01847950850010708</v>
       </c>
       <c r="O51">
-        <v>0.0001817973135433915</v>
+        <v>0.001445623690338171</v>
       </c>
       <c r="P51">
-        <v>0.01724805483868669</v>
+        <v>0.01626497344319161</v>
       </c>
       <c r="Q51">
-        <v>0.01336774269170554</v>
+        <v>0.001219561394103585</v>
       </c>
       <c r="R51">
-        <v>0.0006665983539697525</v>
+        <v>0.001708992128175603</v>
       </c>
       <c r="S51">
-        <v>1.55995337315224E-05</v>
+        <v>3.298925521948777E-06</v>
       </c>
       <c r="T51">
-        <v>0.01789239174988348</v>
+        <v>0.003995281660438671</v>
       </c>
       <c r="U51">
-        <v>0.003448416976181126</v>
+        <v>0.001222281066931614</v>
       </c>
       <c r="V51">
-        <v>38.56229284896162</v>
+        <v>14.55957062585176</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>0.0006057553544010785</v>
       </c>
       <c r="X51">
-        <v>1.712267179252465E-06</v>
+        <v>1.62103953682054E-06</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -3614,61 +3614,61 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7.629830870012372E-06</v>
+        <v>5.441965171875047E-06</v>
       </c>
       <c r="C52">
-        <v>0.07157838701453149</v>
+        <v>0.0695171814422041</v>
       </c>
       <c r="D52">
-        <v>0.003073002918367199</v>
+        <v>0.004820943171701695</v>
       </c>
       <c r="E52">
-        <v>0.07750631253803761</v>
+        <v>0.07346407461071125</v>
       </c>
       <c r="F52">
-        <v>9.809230629648047</v>
+        <v>7.509229943465267</v>
       </c>
       <c r="K52">
-        <v>5.76203242271032</v>
+        <v>7.574958304304416</v>
       </c>
       <c r="L52">
-        <v>4.541623231310544</v>
+        <v>8.560218379022951</v>
       </c>
       <c r="M52">
-        <v>5.803512628966907</v>
+        <v>8.325055614012895</v>
       </c>
       <c r="N52">
-        <v>0.004112148261726243</v>
+        <v>0.01882018619630246</v>
       </c>
       <c r="O52">
-        <v>0.0001862438132518106</v>
+        <v>0.001475367349456471</v>
       </c>
       <c r="P52">
-        <v>0.01732566108162631</v>
+        <v>0.01656588168417338</v>
       </c>
       <c r="Q52">
-        <v>0.01337191069818443</v>
+        <v>0.001247606721332115</v>
       </c>
       <c r="R52">
-        <v>0.0006796183303745171</v>
+        <v>0.001743105992228676</v>
       </c>
       <c r="S52">
-        <v>1.581460249244269E-05</v>
+        <v>3.364382860794616E-06</v>
       </c>
       <c r="T52">
-        <v>0.01818127124535753</v>
+        <v>0.004050741672308812</v>
       </c>
       <c r="U52">
-        <v>0.003517707415244166</v>
+        <v>0.001242689651772023</v>
       </c>
       <c r="V52">
-        <v>38.77257335378562</v>
+        <v>14.61548737261894</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>0.0006190297019973566</v>
       </c>
       <c r="X52">
-        <v>1.711898378864484E-06</v>
+        <v>1.621252084784779E-06</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -3676,61 +3676,61 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7.5959933056488E-06</v>
+        <v>5.41334801036646E-06</v>
       </c>
       <c r="C53">
-        <v>0.07297645607771854</v>
+        <v>0.07083751283547966</v>
       </c>
       <c r="D53">
-        <v>0.00314971140621344</v>
+        <v>0.00494006655465269</v>
       </c>
       <c r="E53">
-        <v>0.07910268523581021</v>
+        <v>0.07490945288303323</v>
       </c>
       <c r="F53">
-        <v>9.808468024397666</v>
+        <v>7.508466574526852</v>
       </c>
       <c r="K53">
-        <v>5.769545509382338</v>
+        <v>7.570653934666916</v>
       </c>
       <c r="L53">
-        <v>4.549553308542017</v>
+        <v>8.555677164161924</v>
       </c>
       <c r="M53">
-        <v>5.811687052643458</v>
+        <v>8.324568244526541</v>
       </c>
       <c r="N53">
-        <v>0.0041922687606747</v>
+        <v>0.01917416209113605</v>
       </c>
       <c r="O53">
-        <v>0.0001909240975200008</v>
+        <v>0.001506622438057137</v>
       </c>
       <c r="P53">
-        <v>0.01740634986496186</v>
+        <v>0.01687849954055789</v>
       </c>
       <c r="Q53">
-        <v>0.01337627997037823</v>
+        <v>0.001277111728156706</v>
       </c>
       <c r="R53">
-        <v>0.0006931653452292534</v>
+        <v>0.001778610923032102</v>
       </c>
       <c r="S53">
-        <v>1.603777755739957E-05</v>
+        <v>3.433040914288871E-06</v>
       </c>
       <c r="T53">
-        <v>0.01848052765005372</v>
+        <v>0.0041080488564014</v>
       </c>
       <c r="U53">
-        <v>0.003590312148656094</v>
+        <v>0.001264030302115361</v>
       </c>
       <c r="V53">
-        <v>38.99432893380553</v>
+        <v>14.67500354935585</v>
       </c>
       <c r="W53">
-        <v>0</v>
+        <v>0.0006328570020452607</v>
       </c>
       <c r="X53">
-        <v>1.711522724530883E-06</v>
+        <v>1.621467303266654E-06</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -3738,61 +3738,61 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7.561486928957667E-06</v>
+        <v>5.384301477866233E-06</v>
       </c>
       <c r="C54">
-        <v>0.07443117992504156</v>
+        <v>0.07221037629966356</v>
       </c>
       <c r="D54">
-        <v>0.003230051672578494</v>
+        <v>0.005064671256404305</v>
       </c>
       <c r="E54">
-        <v>0.08076653898070597</v>
+        <v>0.07641400911816343</v>
       </c>
       <c r="F54">
-        <v>9.80844903928657</v>
+        <v>7.50844755404635</v>
       </c>
       <c r="K54">
-        <v>5.777200453041608</v>
+        <v>7.566302364594202</v>
       </c>
       <c r="L54">
-        <v>4.557734208404427</v>
+        <v>8.551119337458406</v>
       </c>
       <c r="M54">
-        <v>5.820029526358522</v>
+        <v>8.324115214563795</v>
       </c>
       <c r="N54">
-        <v>0.004275630107823757</v>
+        <v>0.01954223583390853</v>
       </c>
       <c r="O54">
-        <v>0.0001958252226171119</v>
+        <v>0.001539266645914143</v>
       </c>
       <c r="P54">
-        <v>0.01749030965443235</v>
+        <v>0.01720352845331625</v>
       </c>
       <c r="Q54">
-        <v>0.01338083918398767</v>
+        <v>0.001307923057846062</v>
       </c>
       <c r="R54">
-        <v>0.0007072721695557504</v>
+        <v>0.001815593795576223</v>
       </c>
       <c r="S54">
-        <v>1.626401753762034E-05</v>
+        <v>3.504104638705271E-06</v>
       </c>
       <c r="T54">
-        <v>0.0187907404729995</v>
+        <v>0.004167299242949026</v>
       </c>
       <c r="U54">
-        <v>0.003665968251188075</v>
+        <v>0.001286205820458998</v>
       </c>
       <c r="V54">
-        <v>39.2277167117978</v>
+        <v>14.73813611918784</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>0.0006472734268285742</v>
       </c>
       <c r="X54">
-        <v>1.71113997734792E-06</v>
+        <v>1.62168488177029E-06</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -3800,61 +3800,61 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7.525542067062189E-06</v>
+        <v>5.354097275446502E-06</v>
       </c>
       <c r="C55">
-        <v>0.07594609754743438</v>
+        <v>0.07363900832186057</v>
       </c>
       <c r="D55">
-        <v>0.003314564963534659</v>
+        <v>0.005195734924325381</v>
       </c>
       <c r="E55">
-        <v>0.0825015429542983</v>
+        <v>0.07798084796009921</v>
       </c>
       <c r="F55">
-        <v>9.808429790283443</v>
+        <v>7.50842826788843</v>
       </c>
       <c r="K55">
-        <v>5.785002631648039</v>
+        <v>7.561895230167234</v>
       </c>
       <c r="L55">
-        <v>4.566203647865364</v>
+        <v>8.546460624249617</v>
       </c>
       <c r="M55">
-        <v>5.828542434522664</v>
+        <v>8.323678437647144</v>
       </c>
       <c r="N55">
-        <v>0.004362434467083473</v>
+        <v>0.01992527773152543</v>
       </c>
       <c r="O55">
-        <v>0.0002009792154413108</v>
+        <v>0.00157351610263573</v>
       </c>
       <c r="P55">
-        <v>0.01757774519635671</v>
+        <v>0.01754173282343264</v>
       </c>
       <c r="Q55">
-        <v>0.01338562718582957</v>
+        <v>0.001340274641481045</v>
       </c>
       <c r="R55">
-        <v>0.0007219744706625192</v>
+        <v>0.001854148895383404</v>
       </c>
       <c r="S55">
-        <v>1.649726634512073E-05</v>
+        <v>3.578336850501389E-06</v>
       </c>
       <c r="T55">
-        <v>0.01911254413729337</v>
+        <v>0.004228599103002005</v>
       </c>
       <c r="U55">
-        <v>0.003745143183719039</v>
+        <v>0.001309348282579692</v>
       </c>
       <c r="V55">
-        <v>39.47300346059946</v>
+        <v>14.8049350574848</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>0.0006623158222073841</v>
       </c>
       <c r="X55">
-        <v>1.710749868417598E-06</v>
+        <v>1.621905238491638E-06</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -3862,61 +3862,61 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7.488067999287712E-06</v>
+        <v>5.322665475517454E-06</v>
       </c>
       <c r="C56">
-        <v>0.07752504390795395</v>
+        <v>0.07512690556963308</v>
       </c>
       <c r="D56">
-        <v>0.003403580989248839</v>
+        <v>0.005333768061140393</v>
       </c>
       <c r="E56">
-        <v>0.08431229809584651</v>
+        <v>0.07961389133023941</v>
       </c>
       <c r="F56">
-        <v>9.808410265831226</v>
+        <v>7.508408704366672</v>
       </c>
       <c r="K56">
-        <v>5.792958290865508</v>
+        <v>7.557428475471255</v>
       </c>
       <c r="L56">
-        <v>4.574978638922214</v>
+        <v>8.541696986518099</v>
       </c>
       <c r="M56">
-        <v>5.83723594957184</v>
+        <v>8.323256280740456</v>
       </c>
       <c r="N56">
-        <v>0.004452900885597433</v>
+        <v>0.02032422907128391</v>
       </c>
       <c r="O56">
-        <v>0.0002064067425389632</v>
+        <v>0.001609489607567943</v>
       </c>
       <c r="P56">
-        <v>0.01766887819658556</v>
+        <v>0.01789393843608376</v>
       </c>
       <c r="Q56">
-        <v>0.01339064127646448</v>
+        <v>0.001374285483390062</v>
       </c>
       <c r="R56">
-        <v>0.0007373109316259408</v>
+        <v>0.00189437869013412</v>
       </c>
       <c r="S56">
-        <v>1.673701553040863E-05</v>
+        <v>3.655976301351011E-06</v>
       </c>
       <c r="T56">
-        <v>0.01944661807106672</v>
+        <v>0.004292061077359012</v>
       </c>
       <c r="U56">
-        <v>0.003828093596990442</v>
+        <v>0.001333522841736512</v>
       </c>
       <c r="V56">
-        <v>39.73050193199643</v>
+        <v>14.8754633025409</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>0.0006780249549605667</v>
       </c>
       <c r="X56">
-        <v>1.710352085456725E-06</v>
+        <v>1.622128576226437E-06</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -3924,61 +3924,61 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7.448966407641499E-06</v>
+        <v>5.289930531340313E-06</v>
       </c>
       <c r="C57">
-        <v>0.07917218752836962</v>
+        <v>0.07667786418093293</v>
       </c>
       <c r="D57">
-        <v>0.003497464705225791</v>
+        <v>0.00547933581447957</v>
       </c>
       <c r="E57">
-        <v>0.08620380470884077</v>
+        <v>0.08131739394237575</v>
       </c>
       <c r="F57">
-        <v>9.80839045357704</v>
+        <v>7.508388850986997</v>
       </c>
       <c r="K57">
-        <v>5.801072927958469</v>
+        <v>7.55290433198511</v>
       </c>
       <c r="L57">
-        <v>4.58407312638114</v>
+        <v>8.536858487807059</v>
       </c>
       <c r="M57">
-        <v>5.846115162798573</v>
+        <v>8.32286947113421</v>
       </c>
       <c r="N57">
-        <v>0.004547267422109843</v>
+        <v>0.0207401121704776</v>
       </c>
       <c r="O57">
-        <v>0.0002121288234688248</v>
+        <v>0.001647337015879247</v>
       </c>
       <c r="P57">
-        <v>0.0177639501281438</v>
+        <v>0.01826104183503251</v>
       </c>
       <c r="Q57">
-        <v>0.0133959134817027</v>
+        <v>0.001410077548616807</v>
       </c>
       <c r="R57">
-        <v>0.0007533236853169526</v>
+        <v>0.001936394750441515</v>
       </c>
       <c r="S57">
-        <v>1.6983525479107E-05</v>
+        <v>3.737108132268922E-06</v>
       </c>
       <c r="T57">
-        <v>0.01979369639271286</v>
+        <v>0.004357806371483957</v>
       </c>
       <c r="U57">
-        <v>0.003915102043284577</v>
+        <v>0.001358815454127418</v>
       </c>
       <c r="V57">
-        <v>40.00057323193329</v>
+        <v>14.94980080299159</v>
       </c>
       <c r="W57">
-        <v>0</v>
+        <v>0.0006944468334100085</v>
       </c>
       <c r="X57">
-        <v>1.709946353602076E-06</v>
+        <v>1.622354783400744E-06</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -3986,61 +3986,61 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7.40813048369865E-06</v>
+        <v>5.255810667147105E-06</v>
       </c>
       <c r="C58">
-        <v>0.08089206759253198</v>
+        <v>0.07829601255289778</v>
       </c>
       <c r="D58">
-        <v>0.003596621141845856</v>
+        <v>0.005633065456007187</v>
       </c>
       <c r="E58">
-        <v>0.08818150596477714</v>
+        <v>0.08309597888463215</v>
       </c>
       <c r="F58">
-        <v>9.808370340298664</v>
+        <v>7.508368694371739</v>
       </c>
       <c r="K58">
-        <v>5.809353318726082</v>
+        <v>7.548318256256311</v>
       </c>
       <c r="L58">
-        <v>4.593504284918621</v>
+        <v>8.53190849715577</v>
       </c>
       <c r="M58">
-        <v>5.855188665402068</v>
+        <v>8.322502302841583</v>
       </c>
       <c r="N58">
-        <v>0.004645793299351685</v>
+        <v>0.02117403887853665</v>
       </c>
       <c r="O58">
-        <v>0.0002181700358646836</v>
+        <v>0.001687196154535384</v>
       </c>
       <c r="P58">
-        <v>0.01786322368829019</v>
+        <v>0.01864401829608741</v>
       </c>
       <c r="Q58">
-        <v>0.01340146512870593</v>
+        <v>0.001447804545219899</v>
       </c>
       <c r="R58">
-        <v>0.000770058688949631</v>
+        <v>0.001980318787766725</v>
       </c>
       <c r="S58">
-        <v>1.723706887130041E-05</v>
+        <v>3.822151078887052E-06</v>
       </c>
       <c r="T58">
-        <v>0.02015457353701805</v>
+        <v>0.004425965255969333</v>
       </c>
       <c r="U58">
-        <v>0.004006480142243749</v>
+        <v>0.001385296013639856</v>
       </c>
       <c r="V58">
-        <v>40.28362972388143</v>
+        <v>15.02803907744977</v>
       </c>
       <c r="W58">
-        <v>0</v>
+        <v>0.0007116294644724842</v>
       </c>
       <c r="X58">
-        <v>1.709532334063696E-06</v>
+        <v>1.622584087187184E-06</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -4048,61 +4048,61 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7.365444083947917E-06</v>
+        <v>5.22021729993038E-06</v>
       </c>
       <c r="C59">
-        <v>0.08268963611464096</v>
+        <v>0.07998584853189523</v>
       </c>
       <c r="D59">
-        <v>0.003701500971911774</v>
+        <v>0.00579565501044623</v>
       </c>
       <c r="E59">
-        <v>0.09025133727443579</v>
+        <v>0.08495467790411343</v>
       </c>
       <c r="F59">
-        <v>9.808349911820255</v>
+        <v>7.508348220173856</v>
       </c>
       <c r="K59">
-        <v>5.817805722742264</v>
+        <v>7.543667196933618</v>
       </c>
       <c r="L59">
-        <v>4.603289121533495</v>
+        <v>8.526849080071887</v>
       </c>
       <c r="M59">
-        <v>5.864462279381245</v>
+        <v>8.322159934966976</v>
       </c>
       <c r="N59">
-        <v>0.004748761282223476</v>
+        <v>0.02162722126746691</v>
       </c>
       <c r="O59">
-        <v>0.0002245561589592877</v>
+        <v>0.001729235311509494</v>
       </c>
       <c r="P59">
-        <v>0.01796698551525727</v>
+        <v>0.01904393024378201</v>
       </c>
       <c r="Q59">
-        <v>0.01340732586338844</v>
+        <v>0.001487625465634009</v>
       </c>
       <c r="R59">
-        <v>0.0007875661684863363</v>
+        <v>0.002026283825829233</v>
       </c>
       <c r="S59">
-        <v>1.749793503337233E-05</v>
+        <v>3.91137865324905E-06</v>
       </c>
       <c r="T59">
-        <v>0.02053011059271048</v>
+        <v>0.004496678494163042</v>
       </c>
       <c r="U59">
-        <v>0.004102572391237937</v>
+        <v>0.001413055739926034</v>
       </c>
       <c r="V59">
-        <v>40.58013855232545</v>
+        <v>15.11028536873691</v>
       </c>
       <c r="W59">
-        <v>0</v>
+        <v>0.0007296264698559602</v>
       </c>
       <c r="X59">
-        <v>1.709109713862887E-06</v>
+        <v>1.622816640153319E-06</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -4110,61 +4110,61 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7.320780659775876E-06</v>
+        <v>5.18305430324675E-06</v>
       </c>
       <c r="C60">
-        <v>0.08457030599899165</v>
+        <v>0.08175228171097734</v>
       </c>
       <c r="D60">
-        <v>0.003812607077637779</v>
+        <v>0.005967883438333271</v>
       </c>
       <c r="E60">
-        <v>0.09241978218016253</v>
+        <v>0.08689897693997711</v>
       </c>
       <c r="F60">
-        <v>9.808329152919129</v>
+        <v>7.50832741298186</v>
       </c>
       <c r="K60">
-        <v>5.82643815056357</v>
+        <v>7.538946705580847</v>
       </c>
       <c r="L60">
-        <v>4.613450918557882</v>
+        <v>8.521671221716165</v>
       </c>
       <c r="M60">
-        <v>5.87395010145914</v>
+        <v>8.321843695833788</v>
       </c>
       <c r="N60">
-        <v>0.004856480451825003</v>
+        <v>0.02210098283784685</v>
       </c>
       <c r="O60">
-        <v>0.000231319417020329</v>
+        <v>0.001773638904874274</v>
       </c>
       <c r="P60">
-        <v>0.01807554884030176</v>
+        <v>0.01946193750040457</v>
       </c>
       <c r="Q60">
-        <v>0.0134135001001661</v>
+        <v>0.001529719478495121</v>
       </c>
       <c r="R60">
-        <v>0.0008059011264256924</v>
+        <v>0.002074435550761994</v>
       </c>
       <c r="S60">
-        <v>1.776639938023768E-05</v>
+        <v>4.005129164368148E-06</v>
       </c>
       <c r="T60">
-        <v>0.02092124245465029</v>
+        <v>0.004570098083549636</v>
       </c>
       <c r="U60">
-        <v>0.004203760660284869</v>
+        <v>0.001442192674304891</v>
       </c>
       <c r="V60">
-        <v>40.8906258753581</v>
+        <v>15.19666293129536</v>
       </c>
       <c r="W60">
-        <v>0</v>
+        <v>0.0007484965080685062</v>
       </c>
       <c r="X60">
-        <v>1.708678092471821E-06</v>
+        <v>1.623052664720958E-06</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -4172,61 +4172,61 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7.274002124395318E-06</v>
+        <v>5.144217208476244E-06</v>
       </c>
       <c r="C61">
-        <v>0.0865400059726832</v>
+        <v>0.08360068166884671</v>
       </c>
       <c r="D61">
-        <v>0.003930502237678237</v>
+        <v>0.00615062258199721</v>
       </c>
       <c r="E61">
-        <v>0.09469393597358958</v>
+        <v>0.08893486781787539</v>
       </c>
       <c r="F61">
-        <v>9.808308047219624</v>
+        <v>7.508306256212293</v>
       </c>
       <c r="K61">
-        <v>5.83525782861119</v>
+        <v>7.534157202076434</v>
       </c>
       <c r="L61">
-        <v>4.624008233832732</v>
+        <v>8.516396687106953</v>
       </c>
       <c r="M61">
-        <v>5.883657981740623</v>
+        <v>8.321568360528127</v>
       </c>
       <c r="N61">
-        <v>0.004969289257551946</v>
+        <v>0.02259677171426081</v>
       </c>
       <c r="O61">
-        <v>0.0002384918572255111</v>
+        <v>0.001820624084007383</v>
       </c>
       <c r="P61">
-        <v>0.01818925734615873</v>
+        <v>0.01989930867167066</v>
       </c>
       <c r="Q61">
-        <v>0.01342003473786912</v>
+        <v>0.001574280993505623</v>
       </c>
       <c r="R61">
-        <v>0.0008251239246463133</v>
+        <v>0.00212493385372779</v>
       </c>
       <c r="S61">
-        <v>1.804279143858777E-05</v>
+        <v>4.103655672998608E-06</v>
       </c>
       <c r="T61">
-        <v>0.02132898591304945</v>
+        <v>0.004646388459384873</v>
       </c>
       <c r="U61">
-        <v>0.004310469299463891</v>
+        <v>0.001472823977979263</v>
       </c>
       <c r="V61">
-        <v>41.21568186668193</v>
+        <v>15.28731416169823</v>
       </c>
       <c r="W61">
-        <v>0</v>
+        <v>0.0007683042102748036</v>
       </c>
       <c r="X61">
-        <v>1.70823710856944E-06</v>
+        <v>1.623292139896178E-06</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -4234,61 +4234,61 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7.224957537836058E-06</v>
+        <v>5.103592347413684E-06</v>
       </c>
       <c r="C62">
-        <v>0.08860524356605833</v>
+        <v>0.08553693314601794</v>
       </c>
       <c r="D62">
-        <v>0.004055818215729799</v>
+        <v>0.006344851224456519</v>
       </c>
       <c r="E62">
-        <v>0.09708157818344354</v>
+        <v>0.09106890709733627</v>
       </c>
       <c r="F62">
-        <v>9.80828657707454</v>
+        <v>7.50828473198623</v>
       </c>
       <c r="K62">
-        <v>5.844273110837507</v>
+        <v>7.529295234170386</v>
       </c>
       <c r="L62">
-        <v>4.63498519732723</v>
+        <v>8.510995584100446</v>
       </c>
       <c r="M62">
-        <v>5.893598306126037</v>
+        <v>8.321324538019404</v>
       </c>
       <c r="N62">
-        <v>0.005087559192560108</v>
+        <v>0.02311617540501715</v>
       </c>
       <c r="O62">
-        <v>0.0002461118901447618</v>
+        <v>0.001870413448439739</v>
       </c>
       <c r="P62">
-        <v>0.01830848791136597</v>
+        <v>0.02035743436362479</v>
       </c>
       <c r="Q62">
-        <v>0.01342693929532887</v>
+        <v>0.001621540353082333</v>
       </c>
       <c r="R62">
-        <v>0.0008453009529765064</v>
+        <v>0.00217795460867916</v>
       </c>
       <c r="S62">
-        <v>1.832744018027295E-05</v>
+        <v>4.207479769492903E-06</v>
       </c>
       <c r="T62">
-        <v>0.02175444882838909</v>
+        <v>0.004725727571420014</v>
       </c>
       <c r="U62">
-        <v>0.004423171301488473</v>
+        <v>0.001505062490409496</v>
       </c>
       <c r="V62">
-        <v>41.55596664108313</v>
+        <v>15.38239803696756</v>
       </c>
       <c r="W62">
-        <v>0</v>
+        <v>0.0007891206522268827</v>
       </c>
       <c r="X62">
-        <v>1.707786344458125E-06</v>
+        <v>1.623535238291481E-06</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -4296,61 +4296,61 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7.173481625230661E-06</v>
+        <v>5.061055806522589E-06</v>
       </c>
       <c r="C63">
-        <v>0.09077317754940008</v>
+        <v>0.08756749934913491</v>
       </c>
       <c r="D63">
-        <v>0.004189266532761184</v>
+        <v>0.006551671844521006</v>
       </c>
       <c r="E63">
-        <v>0.0995912554088124</v>
+        <v>0.09330828312433158</v>
       </c>
       <c r="F63">
-        <v>9.808264723429451</v>
+        <v>7.508262820993683</v>
       </c>
       <c r="K63">
-        <v>5.853492626556576</v>
+        <v>7.524349221950113</v>
       </c>
       <c r="L63">
-        <v>4.646405822613815</v>
+        <v>8.505440128984699</v>
       </c>
       <c r="M63">
-        <v>5.903780347930297</v>
+        <v>8.321105791103687</v>
       </c>
       <c r="N63">
-        <v>0.005211698866981014</v>
+        <v>0.02366093853210888</v>
       </c>
       <c r="O63">
-        <v>0.0002542214989736081</v>
+        <v>0.001923259505997149</v>
       </c>
       <c r="P63">
-        <v>0.01843365582459769</v>
+        <v>0.02083784190235664</v>
       </c>
       <c r="Q63">
-        <v>0.01343427809629096</v>
+        <v>0.001671754369501087</v>
       </c>
       <c r="R63">
-        <v>0.0008665054020225637</v>
+        <v>0.002233691714548639</v>
       </c>
       <c r="S63">
-        <v>1.862070099369398E-05</v>
+        <v>4.31716057037991E-06</v>
       </c>
       <c r="T63">
-        <v>0.02219884055984808</v>
+        <v>0.00480830872734336</v>
       </c>
       <c r="U63">
-        <v>0.004542395359076408</v>
+        <v>0.001539036569425795</v>
       </c>
       <c r="V63">
-        <v>41.91221720132405</v>
+        <v>15.48209228434268</v>
       </c>
       <c r="W63">
-        <v>0</v>
+        <v>0.0008110221943360286</v>
       </c>
       <c r="X63">
-        <v>1.707325368672171E-06</v>
+        <v>1.623782538902494E-06</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -4358,61 +4358,61 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7.119393089688615E-06</v>
+        <v>5.016472353906951E-06</v>
       </c>
       <c r="C64">
-        <v>0.09305170152352216</v>
+        <v>0.08969949480978265</v>
       </c>
       <c r="D64">
-        <v>0.004331651303047437</v>
+        <v>0.006772330461277802</v>
       </c>
       <c r="E64">
-        <v>0.1022323762359256</v>
+        <v>0.09566089281219882</v>
       </c>
       <c r="F64">
-        <v>9.808242465670467</v>
+        <v>7.508240502334654</v>
       </c>
       <c r="K64">
-        <v>5.862925854860221</v>
+        <v>7.519320930021035</v>
       </c>
       <c r="L64">
-        <v>4.658299111802675</v>
+        <v>8.499751947196327</v>
       </c>
       <c r="M64">
-        <v>5.914218220166272</v>
+        <v>8.320929132018138</v>
       </c>
       <c r="N64">
-        <v>0.005342158797718051</v>
+        <v>0.02423298271700656</v>
       </c>
       <c r="O64">
-        <v>0.0002628692600244148</v>
+        <v>0.001979466745640618</v>
       </c>
       <c r="P64">
-        <v>0.01856521839639523</v>
+        <v>0.02134221262690548</v>
       </c>
       <c r="Q64">
-        <v>0.01344205631731608</v>
+        <v>0.001725200304645966</v>
       </c>
       <c r="R64">
-        <v>0.0008888181573127972</v>
+        <v>0.00229235946596912</v>
       </c>
       <c r="S64">
-        <v>1.892294802674793E-05</v>
+        <v>4.43307400080304E-06</v>
       </c>
       <c r="T64">
-        <v>0.02266348385460522</v>
+        <v>0.004894342205183296</v>
       </c>
       <c r="U64">
-        <v>0.004668734381131271</v>
+        <v>0.001574905504929257</v>
       </c>
       <c r="V64">
-        <v>42.28525561739875</v>
+        <v>15.58659877236206</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>0.0008340963141285189</v>
       </c>
       <c r="X64">
-        <v>1.706853707256989E-06</v>
+        <v>1.624033953498948E-06</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -4420,61 +4420,61 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7.062492646290445E-06</v>
+        <v>4.969694141239681E-06</v>
       </c>
       <c r="C65">
-        <v>0.09544954071867012</v>
+        <v>0.0919407695219044</v>
       </c>
       <c r="D65">
-        <v>0.004483884627307018</v>
+        <v>0.007008240486019576</v>
       </c>
       <c r="E65">
-        <v>0.1050153202056264</v>
+        <v>0.09813542961153038</v>
       </c>
       <c r="F65">
-        <v>9.808219781449111</v>
+        <v>7.508217753341556</v>
       </c>
       <c r="K65">
-        <v>5.872582652509179</v>
+        <v>7.5142066119166</v>
       </c>
       <c r="L65">
-        <v>4.670693831664576</v>
+        <v>8.493911666786358</v>
       </c>
       <c r="M65">
-        <v>5.924923760154672</v>
+        <v>8.320792036261491</v>
       </c>
       <c r="N65">
-        <v>0.005479436893331392</v>
+        <v>0.02483442909461104</v>
       </c>
       <c r="O65">
-        <v>0.0002721091666120612</v>
+        <v>0.002039361985746945</v>
       </c>
       <c r="P65">
-        <v>0.01870368223637035</v>
+        <v>0.02187240214912871</v>
       </c>
       <c r="Q65">
-        <v>0.01345032898921321</v>
+        <v>0.001782202954550216</v>
       </c>
       <c r="R65">
-        <v>0.0009123288386448527</v>
+        <v>0.002354195314400695</v>
       </c>
       <c r="S65">
-        <v>1.923459383714836E-05</v>
+        <v>4.555869728936553E-06</v>
       </c>
       <c r="T65">
-        <v>0.02314982843496938</v>
+        <v>0.004984056710595567</v>
       </c>
       <c r="U65">
-        <v>0.004802855424555748</v>
+        <v>0.001612832950609224</v>
       </c>
       <c r="V65">
-        <v>42.67599861327455</v>
+        <v>15.69614258015306</v>
       </c>
       <c r="W65">
-        <v>0</v>
+        <v>0.0008584388068375297</v>
       </c>
       <c r="X65">
-        <v>1.706370867374541E-06</v>
+        <v>1.62428966940417E-06</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -4482,61 +4482,61 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7.002560925241393E-06</v>
+        <v>4.920559295721421E-06</v>
       </c>
       <c r="C66">
-        <v>0.09797636449898577</v>
+        <v>0.09430000643956787</v>
       </c>
       <c r="D66">
-        <v>0.004647005043059966</v>
+        <v>0.007261011357272269</v>
       </c>
       <c r="E66">
-        <v>0.1079515635634773</v>
+        <v>0.1007414847491218</v>
       </c>
       <c r="F66">
-        <v>9.808196646482337</v>
+        <v>7.508194549375142</v>
       </c>
       <c r="K66">
-        <v>5.882473378249125</v>
+        <v>7.508999758990506</v>
       </c>
       <c r="L66">
-        <v>4.68361998433207</v>
+        <v>8.487907808885643</v>
       </c>
       <c r="M66">
-        <v>5.93590840590339</v>
+        <v>8.320696747089558</v>
       </c>
       <c r="N66">
-        <v>0.005624084885740263</v>
+        <v>0.0254676254031906</v>
       </c>
       <c r="O66">
-        <v>0.000282002034141545</v>
+        <v>0.002103321393964356</v>
       </c>
       <c r="P66">
-        <v>0.01884960871545804</v>
+        <v>0.022430463237867</v>
       </c>
       <c r="Q66">
-        <v>0.01345916768405984</v>
+        <v>0.001843129774529532</v>
       </c>
       <c r="R66">
-        <v>0.0009371370121117335</v>
+        <v>0.002419463076752689</v>
       </c>
       <c r="S66">
-        <v>1.955609324216761E-05</v>
+        <v>4.686227060465196E-06</v>
       </c>
       <c r="T66">
-        <v>0.02365946657414754</v>
+        <v>0.005077701815039633</v>
       </c>
       <c r="U66">
-        <v>0.004945511602396136</v>
+        <v>0.001653006368286585</v>
       </c>
       <c r="V66">
-        <v>43.0854688355499</v>
+        <v>15.8109753439363</v>
       </c>
       <c r="W66">
-        <v>0</v>
+        <v>0.0008841559397385248</v>
       </c>
       <c r="X66">
-        <v>1.705876331087544E-06</v>
+        <v>1.624550012050475E-06</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -4544,61 +4544,61 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6.93935582557469E-06</v>
+        <v>4.868890279322917E-06</v>
       </c>
       <c r="C67">
-        <v>0.1006429176262979</v>
+        <v>0.09678683487049061</v>
       </c>
       <c r="D67">
-        <v>0.004822199995299468</v>
+        <v>0.007532483246662018</v>
       </c>
       <c r="E67">
-        <v>0.1110538242158316</v>
+        <v>0.1034896639343528</v>
       </c>
       <c r="F67">
-        <v>9.808173034325444</v>
+        <v>7.508170863588943</v>
       </c>
       <c r="K67">
-        <v>5.89260988392632</v>
+        <v>7.5036928653366</v>
       </c>
       <c r="L67">
-        <v>4.697115850628152</v>
+        <v>8.481721601875222</v>
       </c>
       <c r="M67">
-        <v>5.947189772458408</v>
+        <v>8.320642281873138</v>
       </c>
       <c r="N67">
-        <v>0.005776715824357369</v>
+        <v>0.02613517694631135</v>
       </c>
       <c r="O67">
-        <v>0.0002926197597028864</v>
+        <v>0.002171769734547455</v>
       </c>
       <c r="P67">
-        <v>0.01900362131635513</v>
+        <v>0.02301867276539093</v>
       </c>
       <c r="Q67">
-        <v>0.01346860971975269</v>
+        <v>0.001908401114334844</v>
       </c>
       <c r="R67">
-        <v>0.000963353609793721</v>
+        <v>0.00248845670102961</v>
       </c>
       <c r="S67">
-        <v>1.988791657823454E-05</v>
+        <v>4.82496097067069E-06</v>
       </c>
       <c r="T67">
-        <v>0.02419415100191186</v>
+        <v>0.005175550256375434</v>
       </c>
       <c r="U67">
-        <v>0.005097556441185906</v>
+        <v>0.001695634230343917</v>
       </c>
       <c r="V67">
-        <v>43.51480814557878</v>
+        <v>15.93137770541224</v>
       </c>
       <c r="W67">
-        <v>0</v>
+        <v>0.0009113655301376296</v>
       </c>
       <c r="X67">
-        <v>1.705369505803684E-06</v>
+        <v>1.62481535673317E-06</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -4606,61 +4606,61 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6.872609777368837E-06</v>
+        <v>4.814492137000578E-06</v>
       </c>
       <c r="C68">
-        <v>0.1034611740272097</v>
+        <v>0.09941196285942676</v>
       </c>
       <c r="D68">
-        <v>0.005010833031197333</v>
+        <v>0.007824769158526836</v>
       </c>
       <c r="E68">
-        <v>0.1143362301199895</v>
+        <v>0.1063917225535349</v>
       </c>
       <c r="F68">
-        <v>9.808148916106424</v>
+        <v>7.508146666658895</v>
       </c>
       <c r="K68">
-        <v>5.903003894923584</v>
+        <v>7.498280887274374</v>
       </c>
       <c r="L68">
-        <v>4.711217312909527</v>
+        <v>8.475339503533958</v>
       </c>
       <c r="M68">
-        <v>5.95878102132998</v>
+        <v>8.320633844845519</v>
       </c>
       <c r="N68">
-        <v>0.005938012767435442</v>
+        <v>0.026839983040775</v>
       </c>
       <c r="O68">
-        <v>0.0003040417324505686</v>
+        <v>0.002245199793546691</v>
       </c>
       <c r="P68">
-        <v>0.01916641577507874</v>
+        <v>0.02363956310806905</v>
       </c>
       <c r="Q68">
-        <v>0.01347873129122746</v>
+        <v>0.001978496260217992</v>
       </c>
       <c r="R68">
-        <v>0.000991102600770647</v>
+        <v>0.002561504693384285</v>
       </c>
       <c r="S68">
-        <v>2.02306321583582E-05</v>
+        <v>4.972927799721664E-06</v>
       </c>
       <c r="T68">
-        <v>0.02475581554781557</v>
+        <v>0.005277900727729302</v>
       </c>
       <c r="U68">
-        <v>0.005259960951503242</v>
+        <v>0.001740956681139932</v>
       </c>
       <c r="V68">
-        <v>43.96529329104046</v>
+        <v>16.0576637703979</v>
       </c>
       <c r="W68">
-        <v>0</v>
+        <v>0.0009402004136880249</v>
       </c>
       <c r="X68">
-        <v>1.704849805253821E-06</v>
+        <v>1.625085955636281E-06</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -4668,61 +4668,61 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6.802026332893098E-06</v>
+        <v>4.757150385970364E-06</v>
       </c>
       <c r="C69">
-        <v>0.1064445176937555</v>
+        <v>0.1021873323655146</v>
       </c>
       <c r="D69">
-        <v>0.005214477280318939</v>
+        <v>0.008140306647295242</v>
       </c>
       <c r="E69">
-        <v>0.1178145146549292</v>
+        <v>0.1094607224220145</v>
       </c>
       <c r="F69">
-        <v>9.808124260222575</v>
+        <v>7.508121926471565</v>
       </c>
       <c r="K69">
-        <v>5.913669058149856</v>
+        <v>7.492759686651093</v>
       </c>
       <c r="L69">
-        <v>4.725970085962156</v>
+        <v>8.468761008316717</v>
       </c>
       <c r="M69">
-        <v>5.970702563047139</v>
+        <v>8.320681009208183</v>
       </c>
       <c r="N69">
-        <v>0.006108739162434983</v>
+        <v>0.02758527950281222</v>
       </c>
       <c r="O69">
-        <v>0.0003163628997455121</v>
+        <v>0.002324180329835355</v>
       </c>
       <c r="P69">
-        <v>0.01933876985034696</v>
+        <v>0.02429595907315544</v>
       </c>
       <c r="Q69">
-        <v>0.01348958715675782</v>
+        <v>0.00205396255902846</v>
       </c>
       <c r="R69">
-        <v>0.001020522963455868</v>
+        <v>0.002638975352947453</v>
       </c>
       <c r="S69">
-        <v>2.058482206219008E-05</v>
+        <v>5.131068747863699E-06</v>
       </c>
       <c r="T69">
-        <v>0.0253465990204311</v>
+        <v>0.005385080850353223</v>
       </c>
       <c r="U69">
-        <v>0.005433834533930894</v>
+        <v>0.001789249288571165</v>
       </c>
       <c r="V69">
-        <v>44.43835450227377</v>
+        <v>16.19018594704162</v>
       </c>
       <c r="W69">
-        <v>0</v>
+        <v>0.0009708097628441428</v>
       </c>
       <c r="X69">
-        <v>1.704316547092507E-06</v>
+        <v>1.625362015667445E-06</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -4730,61 +4730,61 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6.727276467539544E-06</v>
+        <v>4.696628752792961E-06</v>
       </c>
       <c r="C70">
-        <v>0.1096079564566754</v>
+        <v>0.105126301919209</v>
       </c>
       <c r="D70">
-        <v>0.005434956620638403</v>
+        <v>0.008481921381068187</v>
       </c>
       <c r="E70">
-        <v>0.1215062447987939</v>
+        <v>0.1127112145188344</v>
       </c>
       <c r="F70">
-        <v>9.808099031986282</v>
+        <v>7.508096607758763</v>
       </c>
       <c r="K70">
-        <v>5.924619021388229</v>
+        <v>7.487121063932338</v>
       </c>
       <c r="L70">
-        <v>4.741419007543128</v>
+        <v>8.46195721501315</v>
       </c>
       <c r="M70">
-        <v>5.982970042444637</v>
+        <v>8.320780627131736</v>
       </c>
       <c r="N70">
-        <v>0.006289750920644029</v>
+        <v>0.02837468885196775</v>
       </c>
       <c r="O70">
-        <v>0.0003296895942638696</v>
+        <v>0.002409358078533128</v>
       </c>
       <c r="P70">
-        <v>0.01952155680952162</v>
+        <v>0.02499102146422191</v>
       </c>
       <c r="Q70">
-        <v>0.0135012789567419</v>
+        <v>0.00213544397461451</v>
       </c>
       <c r="R70">
-        <v>0.00105177103037442</v>
+        <v>0.002721282986828691</v>
       </c>
       <c r="S70">
-        <v>2.095120540184168E-05</v>
+        <v>5.300635101184394E-06</v>
       </c>
       <c r="T70">
-        <v>0.02596887291063423</v>
+        <v>0.005497450586658913</v>
       </c>
       <c r="U70">
-        <v>0.005620450220467182</v>
+        <v>0.001840815579717625</v>
       </c>
       <c r="V70">
-        <v>44.93559759700845</v>
+        <v>16.32933784762686</v>
       </c>
       <c r="W70">
-        <v>0</v>
+        <v>0.001003360495242842</v>
       </c>
       <c r="X70">
-        <v>1.703769048930589E-06</v>
+        <v>1.625643946803383E-06</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -4792,61 +4792,61 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6.647994158415681E-06</v>
+        <v>4.632666597112518E-06</v>
       </c>
       <c r="C71">
-        <v>0.112968375806225</v>
+        <v>0.1082438625817297</v>
       </c>
       <c r="D71">
-        <v>0.005674396928642942</v>
+        <v>0.008852906036805152</v>
       </c>
       <c r="E71">
-        <v>0.1254310878307071</v>
+        <v>0.1161594525676346</v>
       </c>
       <c r="F71">
-        <v>9.808073193212653</v>
+        <v>7.508070671675377</v>
       </c>
       <c r="K71">
-        <v>5.935869269898183</v>
+        <v>7.481354819747576</v>
       </c>
       <c r="L71">
-        <v>4.757617826808039</v>
+        <v>8.45490708390003</v>
       </c>
       <c r="M71">
-        <v>5.995605207563884</v>
+        <v>8.320937357280267</v>
       </c>
       <c r="N71">
-        <v>0.006482010963430487</v>
+        <v>0.02921228016723984</v>
       </c>
       <c r="O71">
-        <v>0.0003441486014271525</v>
+        <v>0.002501490502218865</v>
       </c>
       <c r="P71">
-        <v>0.01971575932090161</v>
+        <v>0.02572829815743505</v>
       </c>
       <c r="Q71">
-        <v>0.0135139040062659</v>
+        <v>0.002223683011262565</v>
       </c>
       <c r="R71">
-        <v>0.001085023282792891</v>
+        <v>0.002808895320755385</v>
       </c>
       <c r="S71">
-        <v>2.133059856742731E-05</v>
+        <v>5.482977538565838E-06</v>
       </c>
       <c r="T71">
-        <v>0.0266252736425751</v>
+        <v>0.00561540655462476</v>
       </c>
       <c r="U71">
-        <v>0.005821275820366493</v>
+        <v>0.001896009183254224</v>
       </c>
       <c r="V71">
-        <v>45.45883042446767</v>
+        <v>16.47556137361184</v>
       </c>
       <c r="W71">
-        <v>0</v>
+        <v>0.001038041169760772</v>
       </c>
       <c r="X71">
-        <v>1.703206536505091E-06</v>
+        <v>1.625932259012621E-06</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -4854,61 +4854,61 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6.563771433777768E-06</v>
+        <v>4.564975999291132E-06</v>
       </c>
       <c r="C72">
-        <v>0.1165448417688111</v>
+        <v>0.1115568944665605</v>
       </c>
       <c r="D72">
-        <v>0.005935290141703278</v>
+        <v>0.009257118923027231</v>
       </c>
       <c r="E72">
-        <v>0.1296111246918455</v>
+        <v>0.1198236435337104</v>
       </c>
       <c r="F72">
-        <v>9.808046701735185</v>
+        <v>7.508044075298945</v>
       </c>
       <c r="K72">
-        <v>5.947435812066622</v>
+        <v>7.475454318747586</v>
       </c>
       <c r="L72">
-        <v>4.77462282012314</v>
+        <v>8.447587261472108</v>
       </c>
       <c r="M72">
-        <v>6.008627885484232</v>
+        <v>8.321156264208582</v>
       </c>
       <c r="N72">
-        <v>0.006686606375497265</v>
+        <v>0.03010263982274054</v>
       </c>
       <c r="O72">
-        <v>0.0003598859291835903</v>
+        <v>0.002601463201897906</v>
       </c>
       <c r="P72">
-        <v>0.01992248783138947</v>
+        <v>0.02651178532897414</v>
       </c>
       <c r="Q72">
-        <v>0.01352759391212047</v>
+        <v>0.002319548793647152</v>
       </c>
       <c r="R72">
-        <v>0.001120479705600406</v>
+        <v>0.002902342398862612</v>
       </c>
       <c r="S72">
-        <v>2.172398068964211E-05</v>
+        <v>5.679675164487108E-06</v>
       </c>
       <c r="T72">
-        <v>0.02731874023664872</v>
+        <v>0.005739386467003778</v>
       </c>
       <c r="U72">
-        <v>0.00603801216937836</v>
+        <v>0.001955236379038811</v>
       </c>
       <c r="V72">
-        <v>46.01009462278729</v>
+        <v>16.62935370506396</v>
       </c>
       <c r="W72">
-        <v>0</v>
+        <v>0.001075066288353524</v>
       </c>
       <c r="X72">
-        <v>1.702628209396669E-06</v>
+        <v>1.626227284062621E-06</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -4916,61 +4916,61 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7.960596925061823E-06</v>
+        <v>5.872814901328803E-06</v>
       </c>
       <c r="C73">
-        <v>0.1203589642387113</v>
+        <v>0.1150844729335788</v>
       </c>
       <c r="D73">
-        <v>0.004937788474832542</v>
+        <v>0.007422029803289368</v>
       </c>
       <c r="E73">
-        <v>0.1297242765680315</v>
+        <v>0.1214675746145513</v>
       </c>
       <c r="F73">
-        <v>11.30804670173518</v>
+        <v>9.008044075298944</v>
       </c>
       <c r="K73">
-        <v>5.959341470175603</v>
+        <v>7.469411282453427</v>
       </c>
       <c r="L73">
-        <v>4.711624569247897</v>
+        <v>8.476435641176954</v>
       </c>
       <c r="M73">
-        <v>6.006126551246689</v>
+        <v>8.306569972819901</v>
       </c>
       <c r="N73">
-        <v>0.006904769149508078</v>
+        <v>0.031050956257942</v>
       </c>
       <c r="O73">
-        <v>0.0003047984035760662</v>
+        <v>0.002175745148124138</v>
       </c>
       <c r="P73">
-        <v>0.02014300141481253</v>
+        <v>0.02734600038191644</v>
       </c>
       <c r="Q73">
-        <v>0.01350133114811357</v>
+        <v>0.001915719274269084</v>
       </c>
       <c r="R73">
-        <v>0.001158367834045604</v>
+        <v>0.003002227320369443</v>
       </c>
       <c r="S73">
-        <v>2.438469508105176E-05</v>
+        <v>4.744545651569148E-06</v>
       </c>
       <c r="T73">
-        <v>0.02805255844586493</v>
+        <v>0.005869874401071533</v>
       </c>
       <c r="U73">
-        <v>0.005214734070248387</v>
+        <v>0.00169340478753409</v>
       </c>
       <c r="V73">
-        <v>46.38583829550205</v>
+        <v>16.72792232691224</v>
       </c>
       <c r="W73">
-        <v>0</v>
+        <v>0.001114687115005668</v>
       </c>
       <c r="X73">
-        <v>1.70203292649122E-06</v>
+        <v>1.626529435877329E-06</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -4978,61 +4978,61 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7.866299349332947E-06</v>
+        <v>5.793517303547775E-06</v>
       </c>
       <c r="C74">
-        <v>0.1244811490874213</v>
+        <v>0.118929560188232</v>
       </c>
       <c r="D74">
-        <v>0.005172921582904767</v>
+        <v>0.007775372263655024</v>
       </c>
       <c r="E74">
-        <v>0.1343530793027592</v>
+        <v>0.1256371036896383</v>
       </c>
       <c r="F74">
-        <v>11.30804670173518</v>
+        <v>9.008044075298944</v>
       </c>
       <c r="K74">
-        <v>5.971770163953289</v>
+        <v>7.463572531297376</v>
       </c>
       <c r="L74">
-        <v>4.729629015021906</v>
+        <v>8.458976730543663</v>
       </c>
       <c r="M74">
-        <v>6.019059520202813</v>
+        <v>8.302538518201994</v>
       </c>
       <c r="N74">
-        <v>0.007140482390434221</v>
+        <v>0.03208221379757835</v>
       </c>
       <c r="O74">
-        <v>0.0003202366103635577</v>
+        <v>0.002264001430444744</v>
       </c>
       <c r="P74">
-        <v>0.02038020392433749</v>
+        <v>0.02825422470718956</v>
       </c>
       <c r="Q74">
-        <v>0.01352755813310635</v>
+        <v>0.002005751189186682</v>
       </c>
       <c r="R74">
-        <v>0.001198867231865767</v>
+        <v>0.003109280276609367</v>
       </c>
       <c r="S74">
-        <v>2.785409234309095E-05</v>
+        <v>4.995439652165176E-06</v>
       </c>
       <c r="T74">
-        <v>0.02886819503070838</v>
+        <v>0.006019034030126441</v>
       </c>
       <c r="U74">
-        <v>0.005422217835487224</v>
+        <v>0.001747001858279257</v>
       </c>
       <c r="V74">
-        <v>46.79111029272821</v>
+        <v>16.83407740512373</v>
       </c>
       <c r="W74">
-        <v>0</v>
+        <v>0.001157196046568925</v>
       </c>
       <c r="X74">
-        <v>1.701411491802335E-06</v>
+        <v>1.626821373435131E-06</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -5040,61 +5040,61 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7.76536337632103E-06</v>
+        <v>5.708879591173009E-06</v>
       </c>
       <c r="C75">
-        <v>0.1288999723283293</v>
+        <v>0.1230463819632164</v>
       </c>
       <c r="D75">
-        <v>0.005431143854643739</v>
+        <v>0.008163606079694321</v>
       </c>
       <c r="E75">
-        <v>0.1393194155383947</v>
+        <v>0.1301024970758817</v>
       </c>
       <c r="F75">
-        <v>11.30804670173518</v>
+        <v>9.008044075298944</v>
       </c>
       <c r="K75">
-        <v>5.984598322771379</v>
+        <v>7.457626123401393</v>
       </c>
       <c r="L75">
-        <v>4.747756047892296</v>
+        <v>8.451118530446065</v>
       </c>
       <c r="M75">
-        <v>6.033218843226325</v>
+        <v>8.3027536325319</v>
       </c>
       <c r="N75">
-        <v>0.007393084085992393</v>
+        <v>0.03318659203339811</v>
       </c>
       <c r="O75">
-        <v>0.0003361328558432118</v>
+        <v>0.002362212113439941</v>
       </c>
       <c r="P75">
-        <v>0.02063400562030902</v>
+        <v>0.02922639039304152</v>
       </c>
       <c r="Q75">
-        <v>0.01354333369032006</v>
+        <v>0.00209945616236542</v>
       </c>
       <c r="R75">
-        <v>0.001242238088885125</v>
+        <v>0.003224253789089263</v>
       </c>
       <c r="S75">
-        <v>2.873588721887631E-05</v>
+        <v>5.186375850664546E-06</v>
       </c>
       <c r="T75">
-        <v>0.02973656455645731</v>
+        <v>0.00617725744389856</v>
       </c>
       <c r="U75">
-        <v>0.005646998427940553</v>
+        <v>0.001808815434481862</v>
       </c>
       <c r="V75">
-        <v>47.22798846409506</v>
+        <v>16.94906707603456</v>
       </c>
       <c r="W75">
-        <v>0</v>
+        <v>0.001202900853305341</v>
       </c>
       <c r="X75">
-        <v>1.700770083861431E-06</v>
+        <v>1.62711869382993E-06</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -5102,61 +5102,61 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7.65708242142041E-06</v>
+        <v>5.618360960310748E-06</v>
       </c>
       <c r="C76">
-        <v>0.133648773423471</v>
+        <v>0.1274649502664288</v>
       </c>
       <c r="D76">
-        <v>0.005715963821210039</v>
+        <v>0.008592064330742501</v>
       </c>
       <c r="E76">
-        <v>0.1446607450810909</v>
+        <v>0.134895881191868</v>
       </c>
       <c r="F76">
-        <v>11.30804670173518</v>
+        <v>9.008044075298944</v>
       </c>
       <c r="K76">
-        <v>5.997840274416505</v>
+        <v>7.451518053850677</v>
       </c>
       <c r="L76">
-        <v>4.76693572324942</v>
+        <v>8.443019567889531</v>
       </c>
       <c r="M76">
-        <v>6.047881613337568</v>
+        <v>8.303038447282754</v>
       </c>
       <c r="N76">
-        <v>0.007664505287151978</v>
+        <v>0.03437214510724266</v>
       </c>
       <c r="O76">
-        <v>0.0003536514543909122</v>
+        <v>0.002470111561843505</v>
       </c>
       <c r="P76">
-        <v>0.02090672377146244</v>
+        <v>0.0302697340172983</v>
       </c>
       <c r="Q76">
-        <v>0.01356063152873323</v>
+        <v>0.002202490990348036</v>
       </c>
       <c r="R76">
-        <v>0.001288911250487673</v>
+        <v>0.003348064074213825</v>
       </c>
       <c r="S76">
-        <v>2.968594934682161E-05</v>
+        <v>5.39473242442529E-06</v>
       </c>
       <c r="T76">
-        <v>0.03066308633063103</v>
+        <v>0.00634527444426074</v>
       </c>
       <c r="U76">
-        <v>0.005892593707802567</v>
+        <v>0.001875949087757143</v>
       </c>
       <c r="V76">
-        <v>47.69909702377408</v>
+        <v>17.0735318172683</v>
       </c>
       <c r="W76">
-        <v>0</v>
+        <v>0.001252164208350213</v>
       </c>
       <c r="X76">
-        <v>1.700107986279175E-06</v>
+        <v>1.627424097307466E-06</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -5164,61 +5164,61 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7.539656037920033E-06</v>
+        <v>5.520390940159207E-06</v>
       </c>
       <c r="C77">
-        <v>0.1387660858075615</v>
+        <v>0.1322198657038562</v>
       </c>
       <c r="D77">
-        <v>0.006032322823099606</v>
+        <v>0.009068579126648778</v>
       </c>
       <c r="E77">
-        <v>0.1504184790004514</v>
+        <v>0.14005262426236</v>
       </c>
       <c r="F77">
-        <v>11.30694144969642</v>
+        <v>9.006936647509919</v>
       </c>
       <c r="K77">
-        <v>6.011521728410277</v>
+        <v>7.445228921401839</v>
       </c>
       <c r="L77">
-        <v>4.787280998718169</v>
+        <v>8.434499777740799</v>
       </c>
       <c r="M77">
-        <v>6.063068202841499</v>
+        <v>8.303404327036082</v>
       </c>
       <c r="N77">
-        <v>0.007956939440462421</v>
+        <v>0.03564822644905863</v>
       </c>
       <c r="O77">
-        <v>0.0003730657202645444</v>
+        <v>0.002589417692420402</v>
       </c>
       <c r="P77">
-        <v>0.02120056746117161</v>
+        <v>0.03139242373837631</v>
       </c>
       <c r="Q77">
-        <v>0.01357981081768598</v>
+        <v>0.00231660014279218</v>
       </c>
       <c r="R77">
-        <v>0.001339280262533308</v>
+        <v>0.003481770847885401</v>
       </c>
       <c r="S77">
-        <v>3.071643267308967E-05</v>
+        <v>5.623820406953897E-06</v>
       </c>
       <c r="T77">
-        <v>0.03165390603554417</v>
+        <v>0.006524047458520884</v>
       </c>
       <c r="U77">
-        <v>0.00616267599270406</v>
+        <v>0.001949334491906435</v>
       </c>
       <c r="V77">
-        <v>48.20759908048463</v>
+        <v>17.20825015606873</v>
       </c>
       <c r="W77">
-        <v>0</v>
+        <v>0.001305413883963194</v>
       </c>
       <c r="X77">
-        <v>1.699423913579486E-06</v>
+        <v>1.627738553929908E-06</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -5226,61 +5226,61 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7.414128918919796E-06</v>
+        <v>5.416173185422984E-06</v>
       </c>
       <c r="C78">
-        <v>0.1442966592652474</v>
+        <v>0.1373511693112399</v>
       </c>
       <c r="D78">
-        <v>0.006384074042136778</v>
+        <v>0.009598414503198675</v>
       </c>
       <c r="E78">
-        <v>0.156645496189221</v>
+        <v>0.1456179729929939</v>
       </c>
       <c r="F78">
-        <v>11.30691514745113</v>
+        <v>9.006910200095369</v>
       </c>
       <c r="K78">
-        <v>6.025672641755459</v>
+        <v>7.438744326627248</v>
       </c>
       <c r="L78">
-        <v>4.808827121492142</v>
+        <v>8.425656732684452</v>
       </c>
       <c r="M78">
-        <v>6.078831712978817</v>
+        <v>8.303879953618296</v>
       </c>
       <c r="N78">
-        <v>0.008272934178804</v>
+        <v>0.03702567681391855</v>
       </c>
       <c r="O78">
-        <v>0.0003946069546411119</v>
+        <v>0.002721370022670189</v>
       </c>
       <c r="P78">
-        <v>0.02151809898798351</v>
+        <v>0.03260391638819232</v>
       </c>
       <c r="Q78">
-        <v>0.0136010034993101</v>
+        <v>0.002442949650748108</v>
       </c>
       <c r="R78">
-        <v>0.00139380375544415</v>
+        <v>0.00362661030736367</v>
       </c>
       <c r="S78">
-        <v>3.182517699805329E-05</v>
+        <v>5.874758590052482E-06</v>
       </c>
       <c r="T78">
-        <v>0.03271604062066251</v>
+        <v>0.006714660498796487</v>
       </c>
       <c r="U78">
-        <v>0.006459758898591865</v>
+        <v>0.002029511566551541</v>
       </c>
       <c r="V78">
-        <v>48.75695080577925</v>
+        <v>17.35405842104127</v>
       </c>
       <c r="W78">
-        <v>0</v>
+        <v>0.001363151210901042</v>
       </c>
       <c r="X78">
-        <v>1.698716367912227E-06</v>
+        <v>1.628062783668638E-06</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -5288,61 +5288,61 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7.278464318067134E-06</v>
+        <v>5.303976050797979E-06</v>
       </c>
       <c r="C79">
-        <v>0.1502928586227739</v>
+        <v>0.1429056369115895</v>
       </c>
       <c r="D79">
-        <v>0.006778247753745558</v>
+        <v>0.01019256643262872</v>
       </c>
       <c r="E79">
-        <v>0.1633980395463036</v>
+        <v>0.1516397884494527</v>
       </c>
       <c r="F79">
-        <v>11.30688790970639</v>
+        <v>9.006882802473697</v>
       </c>
       <c r="K79">
-        <v>6.040324858097749</v>
+        <v>7.432048931760423</v>
       </c>
       <c r="L79">
-        <v>4.831738836152278</v>
+        <v>8.416384451504141</v>
       </c>
       <c r="M79">
-        <v>6.095207872145386</v>
+        <v>8.304467744117488</v>
       </c>
       <c r="N79">
-        <v>0.008615470145071951</v>
+        <v>0.03851716841353806</v>
       </c>
       <c r="O79">
-        <v>0.0004186878116857905</v>
+        <v>0.002868475536131027</v>
       </c>
       <c r="P79">
-        <v>0.02186232053096931</v>
+        <v>0.0339152627680812</v>
       </c>
       <c r="Q79">
-        <v>0.01362464172457745</v>
+        <v>0.002584015393454829</v>
       </c>
       <c r="R79">
-        <v>0.001453020215376589</v>
+        <v>0.003784033592092958</v>
       </c>
       <c r="S79">
-        <v>3.303415237683563E-05</v>
+        <v>6.152350652589074E-06</v>
       </c>
       <c r="T79">
-        <v>0.03385761808683949</v>
+        <v>0.006918362626285398</v>
       </c>
       <c r="U79">
-        <v>0.006788903315530867</v>
+        <v>0.002117717635566425</v>
       </c>
       <c r="V79">
-        <v>49.35134021024238</v>
+        <v>17.51197231041152</v>
       </c>
       <c r="W79">
-        <v>0</v>
+        <v>0.001425964766239708</v>
       </c>
       <c r="X79">
-        <v>1.697983757095112E-06</v>
+        <v>1.628397553411979E-06</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -5350,61 +5350,61 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7.131437430586181E-06</v>
+        <v>5.182898025940472E-06</v>
       </c>
       <c r="C80">
-        <v>0.1568162500259116</v>
+        <v>0.1489380492060877</v>
       </c>
       <c r="D80">
-        <v>0.007222807522558317</v>
+        <v>0.01086316786014865</v>
       </c>
       <c r="E80">
-        <v>0.1707434421901516</v>
+        <v>0.1581752852275596</v>
       </c>
       <c r="F80">
-        <v>11.30685964708922</v>
+        <v>9.006854363052481</v>
       </c>
       <c r="K80">
-        <v>6.055513628019898</v>
+        <v>7.425118380931817</v>
       </c>
       <c r="L80">
-        <v>4.856163491406538</v>
+        <v>8.40659465145592</v>
       </c>
       <c r="M80">
-        <v>6.112244310259859</v>
+        <v>8.30517130099946</v>
       </c>
       <c r="N80">
-        <v>0.008988051160225868</v>
+        <v>0.04013756354432928</v>
       </c>
       <c r="O80">
-        <v>0.0004457739115277564</v>
+        <v>0.003033484382302993</v>
       </c>
       <c r="P80">
-        <v>0.02223676047671439</v>
+        <v>0.03533941037601876</v>
       </c>
       <c r="Q80">
-        <v>0.01365115948299022</v>
+        <v>0.00274251433192504</v>
       </c>
       <c r="R80">
-        <v>0.001517565036422033</v>
+        <v>0.003955755466703884</v>
       </c>
       <c r="S80">
-        <v>3.43581783489561E-05</v>
+        <v>6.46145893536701E-06</v>
       </c>
       <c r="T80">
-        <v>0.03508801421280807</v>
+        <v>0.007136573762227169</v>
       </c>
       <c r="U80">
-        <v>0.007155620419414365</v>
+        <v>0.002215243351958584</v>
       </c>
       <c r="V80">
-        <v>49.99572068475089</v>
+        <v>17.68318499767582</v>
       </c>
       <c r="W80">
-        <v>0</v>
+        <v>0.001494548478027592</v>
       </c>
       <c r="X80">
-        <v>1.697224318599005E-06</v>
+        <v>1.628744080953409E-06</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -5412,61 +5412,61 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6.971630842555395E-06</v>
+        <v>5.051910241319023E-06</v>
       </c>
       <c r="C81">
-        <v>0.1639397472879761</v>
+        <v>0.1555130435558943</v>
       </c>
       <c r="D81">
-        <v>0.007727797171523932</v>
+        <v>0.01162552238866689</v>
       </c>
       <c r="E81">
-        <v>0.1787606514763132</v>
+        <v>0.1652913926555164</v>
       </c>
       <c r="F81">
-        <v>11.30683025684644</v>
+        <v>9.006824776402613</v>
       </c>
       <c r="K81">
-        <v>6.071277836844582</v>
+        <v>7.417931713157656</v>
       </c>
       <c r="L81">
-        <v>4.882273872993197</v>
+        <v>8.396245182360836</v>
       </c>
       <c r="M81">
-        <v>6.129993138771762</v>
+        <v>8.306012748925717</v>
       </c>
       <c r="N81">
-        <v>0.009394826267306731</v>
+        <v>0.04190442445680672</v>
       </c>
       <c r="O81">
-        <v>0.0004764515647069888</v>
+        <v>0.003219874968559577</v>
       </c>
       <c r="P81">
-        <v>0.02264559861927269</v>
+        <v>0.0368916435209756</v>
       </c>
       <c r="Q81">
-        <v>0.01368113333031385</v>
+        <v>0.002921851661352166</v>
       </c>
       <c r="R81">
-        <v>0.001588193934425512</v>
+        <v>0.004143817086121433</v>
       </c>
       <c r="S81">
-        <v>3.581814674012506E-05</v>
+        <v>6.807926870113994E-06</v>
       </c>
       <c r="T81">
-        <v>0.03641812820296968</v>
+        <v>0.007370922829382816</v>
       </c>
       <c r="U81">
-        <v>0.00756674921455435</v>
+        <v>0.002323690498640707</v>
       </c>
       <c r="V81">
-        <v>50.69599571675552</v>
+        <v>17.86911052991056</v>
       </c>
       <c r="W81">
-        <v>0</v>
+        <v>0.001569731360434351</v>
       </c>
       <c r="X81">
-        <v>1.696436108157771E-06</v>
+        <v>1.629103414342117E-06</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -5474,61 +5474,61 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6.797399224727823E-06</v>
+        <v>4.909837845114765E-06</v>
       </c>
       <c r="C82">
-        <v>0.1717503447937987</v>
+        <v>0.1627074196142557</v>
       </c>
       <c r="D82">
-        <v>0.008306053274424931</v>
+        <v>0.0124991830731904</v>
       </c>
       <c r="E82">
-        <v>0.1875427519668823</v>
+        <v>0.1730668494409772</v>
       </c>
       <c r="F82">
-        <v>11.30679962006572</v>
+        <v>9.006793920356492</v>
       </c>
       <c r="K82">
-        <v>6.075725369754295</v>
+        <v>7.410459424697629</v>
       </c>
       <c r="L82">
-        <v>4.91036800989302</v>
+        <v>8.385223645661254</v>
       </c>
       <c r="M82">
-        <v>6.148581091183352</v>
+        <v>8.306997368498052</v>
       </c>
       <c r="N82">
-        <v>0.009840745002436719</v>
+        <v>0.04383865193121908</v>
       </c>
       <c r="O82">
-        <v>0.0005112098921997709</v>
+        <v>0.003432050245957225</v>
       </c>
       <c r="P82">
-        <v>0.02309382188372063</v>
+        <v>0.03859013311395677</v>
       </c>
       <c r="Q82">
-        <v>0.01370554146480016</v>
+        <v>0.003126386499476644</v>
       </c>
       <c r="R82">
-        <v>0.001665812723809782</v>
+        <v>0.004350667544083999</v>
       </c>
       <c r="S82">
-        <v>3.743964581808205E-05</v>
+        <v>7.199505042241979E-06</v>
       </c>
       <c r="T82">
-        <v>0.03786069715239045</v>
+        <v>0.007623284445919923</v>
       </c>
       <c r="U82">
-        <v>0.008033705400551275</v>
+        <v>0.002445026197145811</v>
       </c>
       <c r="V82">
-        <v>51.45975189762427</v>
+        <v>18.07143338816118</v>
       </c>
       <c r="W82">
-        <v>4.645258570130645E-05</v>
+        <v>0.001652507084076877</v>
       </c>
       <c r="X82">
-        <v>1.696213731512285E-06</v>
+        <v>1.629477028765118E-06</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -5536,61 +5536,61 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6.606827734027655E-06</v>
+        <v>4.755340514937712E-06</v>
       </c>
       <c r="C83">
-        <v>0.1803526759263973</v>
+        <v>0.1706131162743118</v>
       </c>
       <c r="D83">
-        <v>0.008974226130236214</v>
+        <v>0.01350949002332051</v>
       </c>
       <c r="E83">
-        <v>0.197200150221285</v>
+        <v>0.1815948517293457</v>
       </c>
       <c r="F83">
-        <v>11.30676759814298</v>
+        <v>9.006761652313457</v>
       </c>
       <c r="K83">
-        <v>6.078667716519742</v>
+        <v>7.40266852009306</v>
       </c>
       <c r="L83">
-        <v>4.940615613425213</v>
+        <v>8.373422920262135</v>
       </c>
       <c r="M83">
-        <v>6.168023137365921</v>
+        <v>8.308142245839591</v>
       </c>
       <c r="N83">
-        <v>0.0103317731661334</v>
+        <v>0.04596531517781181</v>
       </c>
       <c r="O83">
-        <v>0.0005511725524166657</v>
+        <v>0.003675701915626326</v>
       </c>
       <c r="P83">
-        <v>0.02358794190576908</v>
+        <v>0.04045664609366625</v>
       </c>
       <c r="Q83">
-        <v>0.01373299736054806</v>
+        <v>0.003361739858588158</v>
       </c>
       <c r="R83">
-        <v>0.001751516570019871</v>
+        <v>0.004579271125086197</v>
       </c>
       <c r="S83">
-        <v>3.924915525336839E-05</v>
+        <v>7.64601822592116E-06</v>
       </c>
       <c r="T83">
-        <v>0.03943053882353988</v>
+        <v>0.007895824353750139</v>
       </c>
       <c r="U83">
-        <v>0.008565094189970245</v>
+        <v>0.002581729557851704</v>
       </c>
       <c r="V83">
-        <v>52.29567607808828</v>
+        <v>18.29217947897702</v>
       </c>
       <c r="W83">
-        <v>0.000104398595025009</v>
+        <v>0.001744079533807683</v>
       </c>
       <c r="X83">
-        <v>1.696066614174013E-06</v>
+        <v>1.629866573995347E-06</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -5598,61 +5598,61 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6.39768363335017E-06</v>
+        <v>4.586893593837384E-06</v>
       </c>
       <c r="C84">
-        <v>0.1898737009150729</v>
+        <v>0.179341095510478</v>
       </c>
       <c r="D84">
-        <v>0.009754274233342245</v>
+        <v>0.01468980458000726</v>
       </c>
       <c r="E84">
-        <v>0.2078646254011614</v>
+        <v>0.1909864307515362</v>
       </c>
       <c r="F84">
-        <v>11.306734028236</v>
+        <v>9.006727804472767</v>
       </c>
       <c r="K84">
-        <v>6.081789332134338</v>
+        <v>7.39452067424696</v>
       </c>
       <c r="L84">
-        <v>4.973293530499957</v>
+        <v>8.360714091261036</v>
       </c>
       <c r="M84">
-        <v>6.188373177040584</v>
+        <v>8.309465906226347</v>
       </c>
       <c r="N84">
-        <v>0.01087513986689544</v>
+        <v>0.04831473813682211</v>
       </c>
       <c r="O84">
-        <v>0.0005976235174311266</v>
+        <v>0.003958294507152895</v>
       </c>
       <c r="P84">
-        <v>0.02413543882494803</v>
+        <v>0.04251747421783726</v>
       </c>
       <c r="Q84">
-        <v>0.01376624170944699</v>
+        <v>0.003635299444294981</v>
       </c>
       <c r="R84">
-        <v>0.001846642537506899</v>
+        <v>0.004833250297689546</v>
       </c>
       <c r="S84">
-        <v>4.130187053452101E-05</v>
+        <v>8.160358043692627E-06</v>
       </c>
       <c r="T84">
-        <v>0.04114528574762708</v>
+        <v>0.008191051842411165</v>
       </c>
       <c r="U84">
-        <v>0.009174507767123922</v>
+        <v>0.002736947734853787</v>
       </c>
       <c r="V84">
-        <v>53.2143309244387</v>
+        <v>18.5338083372187</v>
       </c>
       <c r="W84">
-        <v>0.0001683230592807824</v>
+        <v>0.001845921311684434</v>
       </c>
       <c r="X84">
-        <v>1.695910533393283E-06</v>
+        <v>1.630273966287652E-06</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -5660,61 +5660,61 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6.167362132282723E-06</v>
+        <v>4.402773493861019E-06</v>
       </c>
       <c r="C85">
-        <v>0.2004689613081159</v>
+        <v>0.1890264655652116</v>
       </c>
       <c r="D85">
-        <v>0.01067570341959614</v>
+        <v>0.01608482285312542</v>
       </c>
       <c r="E85">
-        <v>0.2196945256592739</v>
+        <v>0.2013748063988883</v>
       </c>
       <c r="F85">
-        <v>11.30669871734267</v>
+        <v>9.006692177608308</v>
       </c>
       <c r="K85">
-        <v>6.085108229984295</v>
+        <v>7.385967235546245</v>
       </c>
       <c r="L85">
-        <v>5.008755998461174</v>
+        <v>8.346903183101926</v>
       </c>
       <c r="M85">
-        <v>6.209704879971866</v>
+        <v>8.310979737794536</v>
       </c>
       <c r="N85">
-        <v>0.01147969965215805</v>
+        <v>0.05092394070327325</v>
       </c>
       <c r="O85">
-        <v>0.0006522345158943455</v>
+        <v>0.004289772382797638</v>
       </c>
       <c r="P85">
-        <v>0.02474539159644809</v>
+        <v>0.04480466096922211</v>
       </c>
       <c r="Q85">
-        <v>0.01380708425135883</v>
+        <v>0.00395694750576563</v>
       </c>
       <c r="R85">
-        <v>0.001952839047328804</v>
+        <v>0.005117079117668714</v>
       </c>
       <c r="S85">
-        <v>4.366519490159265E-05</v>
+        <v>8.759933177051884E-06</v>
       </c>
       <c r="T85">
-        <v>0.04302591974648021</v>
+        <v>0.008511881495796894</v>
       </c>
       <c r="U85">
-        <v>0.009880222504499348</v>
+        <v>0.00291471998012217</v>
       </c>
       <c r="V85">
-        <v>54.22882457427324</v>
+        <v>18.79933611465052</v>
       </c>
       <c r="W85">
-        <v>0.0002392012732308092</v>
+        <v>0.001959851548432679</v>
       </c>
       <c r="X85">
-        <v>1.695744588500785E-06</v>
+        <v>1.630701638222688E-06</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -5722,61 +5722,61 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.912828972433119E-06</v>
+        <v>4.201054228531195E-06</v>
       </c>
       <c r="C86">
-        <v>0.2123310399261483</v>
+        <v>0.1998353182347169</v>
       </c>
       <c r="D86">
-        <v>0.01177901189851757</v>
+        <v>0.01775560072697087</v>
       </c>
       <c r="E86">
-        <v>0.2328814970419752</v>
+        <v>0.2129210677969671</v>
       </c>
       <c r="F86">
-        <v>11.30666143447127</v>
+        <v>9.006654532819933</v>
       </c>
       <c r="K86">
-        <v>6.088645170768652</v>
+        <v>7.376954735956329</v>
       </c>
       <c r="L86">
-        <v>5.047436521576673</v>
+        <v>8.331804974591842</v>
       </c>
       <c r="M86">
-        <v>6.232094727599634</v>
+        <v>8.31271125928518</v>
       </c>
       <c r="N86">
-        <v>0.01215641622317453</v>
+        <v>0.05383857622330294</v>
       </c>
       <c r="O86">
-        <v>0.0007172863730356658</v>
+        <v>0.004683689057493369</v>
       </c>
       <c r="P86">
-        <v>0.02542903580551615</v>
+        <v>0.04735764306068811</v>
       </c>
       <c r="Q86">
-        <v>0.01385809930858671</v>
+        <v>0.00434014079840171</v>
       </c>
       <c r="R86">
-        <v>0.002072162413105504</v>
+        <v>0.005436349066699439</v>
       </c>
       <c r="S86">
-        <v>4.643320183327157E-05</v>
+        <v>9.468128061484236E-06</v>
       </c>
       <c r="T86">
-        <v>0.04509752582410399</v>
+        <v>0.008861704090526558</v>
       </c>
       <c r="U86">
-        <v>0.01070653567205571</v>
+        <v>0.003120333217753516</v>
       </c>
       <c r="V86">
-        <v>55.35565335929559</v>
+        <v>19.09250849817163</v>
       </c>
       <c r="W86">
-        <v>0.0003182351795464153</v>
+        <v>0.002088146357128374</v>
       </c>
       <c r="X86">
-        <v>1.695567741461567E-06</v>
+        <v>1.631152263202183E-06</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -5784,61 +5784,61 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5.630567573520109E-06</v>
+        <v>3.97962832064056E-06</v>
       </c>
       <c r="C87">
-        <v>0.2257011751279903</v>
+        <v>0.2119739660685666</v>
       </c>
       <c r="D87">
-        <v>0.01312114912683373</v>
+        <v>0.01978735674675374</v>
       </c>
       <c r="E87">
-        <v>0.2476592977010298</v>
+        <v>0.2258216981910219</v>
       </c>
       <c r="F87">
-        <v>11.30662190012472</v>
+        <v>9.00661458041016</v>
       </c>
       <c r="K87">
-        <v>6.092423321103855</v>
+        <v>7.367410172392302</v>
       </c>
       <c r="L87">
-        <v>5.089876534062239</v>
+        <v>8.31514756739054</v>
       </c>
       <c r="M87">
-        <v>6.25562195450407</v>
+        <v>8.314680271062898</v>
       </c>
       <c r="N87">
-        <v>0.01291902487985045</v>
+        <v>0.05711556870102358</v>
       </c>
       <c r="O87">
-        <v>0.0007959715604940248</v>
+        <v>0.005158871235045054</v>
       </c>
       <c r="P87">
-        <v>0.02620043157197812</v>
+        <v>0.05022547654484053</v>
       </c>
       <c r="Q87">
-        <v>0.01392302200625823</v>
+        <v>0.004803633442216303</v>
       </c>
       <c r="R87">
-        <v>0.002207211027190319</v>
+        <v>0.005798141129275303</v>
       </c>
       <c r="S87">
-        <v>4.974386062181436E-05</v>
+        <v>1.031772832588695E-05</v>
       </c>
       <c r="T87">
-        <v>0.04739025850090721</v>
+        <v>0.009244462148711429</v>
       </c>
       <c r="U87">
-        <v>0.01168636999336557</v>
+        <v>0.003360773877713785</v>
       </c>
       <c r="V87">
-        <v>56.61591006415313</v>
+        <v>19.4180351761074</v>
       </c>
       <c r="W87">
-        <v>0.0004069222776865451</v>
+        <v>0.002233689754938607</v>
       </c>
       <c r="X87">
-        <v>1.695378833944807E-06</v>
+        <v>1.631629491380385E-06</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -5846,61 +5846,61 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.003749421722258E-05</v>
+        <v>8.179489685742546E-06</v>
       </c>
       <c r="C88">
-        <v>0.2408854626995015</v>
+        <v>0.2257015810201247</v>
       </c>
       <c r="D88">
-        <v>0.008110822704837489</v>
+        <v>0.01092768648002598</v>
       </c>
       <c r="E88">
-        <v>0.2665626830118978</v>
+        <v>0.2447918906987617</v>
       </c>
       <c r="F88">
-        <v>16.50662190012472</v>
+        <v>14.20661458041016</v>
       </c>
       <c r="K88">
-        <v>6.096457044013156</v>
+        <v>7.357258046333072</v>
       </c>
       <c r="L88">
-        <v>4.921643265358172</v>
+        <v>8.522953987346645</v>
       </c>
       <c r="M88">
-        <v>6.283969941356881</v>
+        <v>8.32649281562758</v>
       </c>
       <c r="N88">
-        <v>0.01378495725980448</v>
+        <v>0.0608267613771649</v>
       </c>
       <c r="O88">
-        <v>0.0005201619728936443</v>
+        <v>0.003227165615733703</v>
       </c>
       <c r="P88">
-        <v>0.02707738939810097</v>
+        <v>0.05346989390931369</v>
       </c>
       <c r="Q88">
-        <v>0.01360328497710236</v>
+        <v>0.002831434658341183</v>
       </c>
       <c r="R88">
-        <v>0.002361315824802355</v>
+        <v>0.006211557086485975</v>
       </c>
       <c r="S88">
-        <v>2.786022703758645E-05</v>
+        <v>5.341262372509656E-06</v>
       </c>
       <c r="T88">
-        <v>0.0499405362514459</v>
+        <v>0.009664725596639832</v>
       </c>
       <c r="U88">
-        <v>0.007757353163255305</v>
+        <v>0.002331480835060356</v>
       </c>
       <c r="V88">
-        <v>57.21444299640851</v>
+        <v>19.57031497845134</v>
       </c>
       <c r="W88">
-        <v>0.0005073032743805151</v>
+        <v>0.002400230783270296</v>
       </c>
       <c r="X88">
-        <v>1.695177147799342E-06</v>
+        <v>1.632137097683346E-06</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -5908,61 +5908,61 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>9.626621573000758E-06</v>
+        <v>7.828932817415425E-06</v>
       </c>
       <c r="C89">
-        <v>0.2587912042375526</v>
+        <v>0.2422226498309015</v>
       </c>
       <c r="D89">
-        <v>0.009093877942709206</v>
+        <v>0.0122469963482497</v>
       </c>
       <c r="E89">
-        <v>0.2870091845634085</v>
+        <v>0.26311280384584</v>
       </c>
       <c r="F89">
-        <v>16.50533535257901</v>
+        <v>14.20532491053986</v>
       </c>
       <c r="K89">
-        <v>6.101394886347685</v>
+        <v>7.347178341150193</v>
       </c>
       <c r="L89">
-        <v>4.965740930200065</v>
+        <v>8.476519737201075</v>
       </c>
       <c r="M89">
-        <v>6.303674577218738</v>
+        <v>8.316902044564046</v>
       </c>
       <c r="N89">
-        <v>0.01480532612802839</v>
+        <v>0.06525749951265962</v>
       </c>
       <c r="O89">
-        <v>0.0005871835372089989</v>
+        <v>0.00355132313638431</v>
       </c>
       <c r="P89">
-        <v>0.02811385896894702</v>
+        <v>0.05736516000554235</v>
       </c>
       <c r="Q89">
-        <v>0.01380036661642141</v>
+        <v>0.003164870198888669</v>
       </c>
       <c r="R89">
-        <v>0.002540812409245799</v>
+        <v>0.006688958303725473</v>
       </c>
       <c r="S89">
-        <v>4.154673644002507E-05</v>
+        <v>6.068272308075786E-06</v>
       </c>
       <c r="T89">
-        <v>0.05318539648899902</v>
+        <v>0.01022882134753056</v>
       </c>
       <c r="U89">
-        <v>0.008578433252703532</v>
+        <v>0.002513681120108246</v>
       </c>
       <c r="V89">
-        <v>57.9301019203542</v>
+        <v>19.74814306021708</v>
       </c>
       <c r="W89">
-        <v>0.0006225330509392783</v>
+        <v>0.002592451746509332</v>
       </c>
       <c r="X89">
-        <v>1.694930255682616E-06</v>
+        <v>1.63264108294249E-06</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -5970,61 +5970,61 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>9.155826561356701E-06</v>
+        <v>7.428790625828853E-06</v>
       </c>
       <c r="C90">
-        <v>0.2795993147621229</v>
+        <v>0.2613872876211226</v>
       </c>
       <c r="D90">
-        <v>0.0103328974225153</v>
+        <v>0.01390997233832867</v>
       </c>
       <c r="E90">
-        <v>0.3106700932220071</v>
+        <v>0.2842769846682991</v>
       </c>
       <c r="F90">
-        <v>16.50529405309105</v>
+        <v>14.20528325823707</v>
       </c>
       <c r="K90">
-        <v>6.107066059889017</v>
+        <v>7.336583566521512</v>
       </c>
       <c r="L90">
-        <v>5.014775705848993</v>
+        <v>8.461902833441622</v>
       </c>
       <c r="M90">
-        <v>6.333028943803505</v>
+        <v>8.319869454846021</v>
       </c>
       <c r="N90">
-        <v>0.01599017134393001</v>
+        <v>0.07039968087734923</v>
       </c>
       <c r="O90">
-        <v>0.0006631596129229578</v>
+        <v>0.003962462180492288</v>
       </c>
       <c r="P90">
-        <v>0.02930664999832416</v>
+        <v>0.06188185082276349</v>
       </c>
       <c r="Q90">
-        <v>0.01386533464023263</v>
+        <v>0.003551835840342431</v>
       </c>
       <c r="R90">
-        <v>0.00274908454864628</v>
+        <v>0.007245865806343591</v>
       </c>
       <c r="S90">
-        <v>4.492837948741905E-05</v>
+        <v>6.652052635679307E-06</v>
       </c>
       <c r="T90">
-        <v>0.05690264342535699</v>
+        <v>0.01087174969981576</v>
       </c>
       <c r="U90">
-        <v>0.00958383171474899</v>
+        <v>0.002756481578744678</v>
       </c>
       <c r="V90">
-        <v>58.78795545108446</v>
+        <v>19.9601983449314</v>
       </c>
       <c r="W90">
-        <v>0.0007554028125310808</v>
+        <v>0.002816988138802018</v>
       </c>
       <c r="X90">
-        <v>1.694646697005549E-06</v>
+        <v>1.633170821673924E-06</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -6032,61 +6032,61 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>8.610700439857999E-06</v>
+        <v>6.96739246691312E-06</v>
       </c>
       <c r="C91">
-        <v>0.3040780799748146</v>
+        <v>0.2838852253741038</v>
       </c>
       <c r="D91">
-        <v>0.01193948073807309</v>
+        <v>0.01606684037008964</v>
       </c>
       <c r="E91">
-        <v>0.3383118364301435</v>
+        <v>0.3089605676376412</v>
       </c>
       <c r="F91">
-        <v>16.50524917646299</v>
+        <v>14.20523795563361</v>
       </c>
       <c r="K91">
-        <v>6.113329429439117</v>
+        <v>7.325120393425824</v>
       </c>
       <c r="L91">
-        <v>5.070176172827683</v>
+        <v>8.444700136149864</v>
       </c>
       <c r="M91">
-        <v>6.364359835395667</v>
+        <v>8.323239476643487</v>
       </c>
       <c r="N91">
-        <v>0.01738353604674884</v>
+        <v>0.07643942803160896</v>
       </c>
       <c r="O91">
-        <v>0.0007606069189573867</v>
+        <v>0.004487259034312067</v>
       </c>
       <c r="P91">
-        <v>0.03071040593996884</v>
+        <v>0.06718457945752905</v>
       </c>
       <c r="Q91">
-        <v>0.01395453898651705</v>
+        <v>0.004048360037757387</v>
       </c>
       <c r="R91">
-        <v>0.002994916927660723</v>
+        <v>0.007903976147589765</v>
       </c>
       <c r="S91">
-        <v>4.917101006923773E-05</v>
+        <v>7.392663669062016E-06</v>
       </c>
       <c r="T91">
-        <v>0.06120435358086681</v>
+        <v>0.01160950134718585</v>
       </c>
       <c r="U91">
-        <v>0.01085794808543291</v>
+        <v>0.003057955527557244</v>
       </c>
       <c r="V91">
-        <v>59.82509717523909</v>
+        <v>20.21447408439444</v>
       </c>
       <c r="W91">
-        <v>0.0009100709355432732</v>
+        <v>0.003082619825116001</v>
       </c>
       <c r="X91">
-        <v>1.694333528528044E-06</v>
+        <v>1.633743980328709E-06</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -6094,61 +6094,61 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7.974507489127685E-06</v>
+        <v>6.431703493709326E-06</v>
       </c>
       <c r="C92">
-        <v>0.3332919398984887</v>
+        <v>0.3106670638745053</v>
       </c>
       <c r="D92">
-        <v>0.01409613784837702</v>
+        <v>0.01896244060869098</v>
       </c>
       <c r="E92">
-        <v>0.3709525087679291</v>
+        <v>0.338064469682928</v>
       </c>
       <c r="F92">
-        <v>16.50519996287472</v>
+        <v>14.20518821866498</v>
       </c>
       <c r="K92">
-        <v>6.120284922307249</v>
+        <v>7.31259833820137</v>
       </c>
       <c r="L92">
-        <v>5.133476135691803</v>
+        <v>8.423806511353973</v>
       </c>
       <c r="M92">
-        <v>6.397820532776861</v>
+        <v>8.327149440031672</v>
       </c>
       <c r="N92">
-        <v>0.01904582895952798</v>
+        <v>0.08363464493133865</v>
       </c>
       <c r="O92">
-        <v>0.00088958283435017</v>
+        <v>0.00517947468600585</v>
       </c>
       <c r="P92">
-        <v>0.03238599263531403</v>
+        <v>0.07349820139950622</v>
       </c>
       <c r="Q92">
-        <v>0.01408120939019631</v>
+        <v>0.004707260076114679</v>
       </c>
       <c r="R92">
-        <v>0.003289491519419872</v>
+        <v>0.008693634495981836</v>
       </c>
       <c r="S92">
-        <v>5.469069483062631E-05</v>
+        <v>8.363051070018587E-06</v>
       </c>
       <c r="T92">
-        <v>0.06623899413041021</v>
+        <v>0.01246465592914872</v>
       </c>
       <c r="U92">
-        <v>0.01252147940938855</v>
+        <v>0.00344292327656369</v>
       </c>
       <c r="V92">
-        <v>61.09557355798307</v>
+        <v>20.5224336881696</v>
       </c>
       <c r="W92">
-        <v>0.001092485460313336</v>
+        <v>0.003401716676427762</v>
       </c>
       <c r="X92">
-        <v>1.693985753884637E-06</v>
+        <v>1.634370083089932E-06</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -6156,61 +6156,61 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7.226544095728763E-06</v>
+        <v>5.806219483497994E-06</v>
       </c>
       <c r="C93">
-        <v>0.3687581401262789</v>
+        <v>0.343078688681818</v>
       </c>
       <c r="D93">
-        <v>0.01712351808403258</v>
+        <v>0.02302476340524613</v>
       </c>
       <c r="E93">
-        <v>0.4099611641420339</v>
+        <v>0.3728071545263129</v>
       </c>
       <c r="F93">
-        <v>16.50514538901829</v>
+        <v>14.20513298810096</v>
       </c>
       <c r="K93">
-        <v>6.128049769878119</v>
+        <v>7.298759481647655</v>
       </c>
       <c r="L93">
-        <v>5.206969167913992</v>
+        <v>8.397590272938343</v>
       </c>
       <c r="M93">
-        <v>6.433493148891054</v>
+        <v>8.331686710565307</v>
       </c>
       <c r="N93">
-        <v>0.0210631896401033</v>
+        <v>0.09235188606970897</v>
       </c>
       <c r="O93">
-        <v>0.0010677006236578</v>
+        <v>0.006132623319006585</v>
       </c>
       <c r="P93">
-        <v>0.03441985744032711</v>
+        <v>0.08114163932432751</v>
       </c>
       <c r="Q93">
-        <v>0.01426968297866863</v>
+        <v>0.005620845619521623</v>
       </c>
       <c r="R93">
-        <v>0.003648913833263121</v>
+        <v>0.009658664656527595</v>
       </c>
       <c r="S93">
-        <v>6.229411737877084E-05</v>
+        <v>9.692415975452691E-06</v>
       </c>
       <c r="T93">
-        <v>0.0722076068771904</v>
+        <v>0.01346707066832483</v>
       </c>
       <c r="U93">
-        <v>0.01477662880093134</v>
+        <v>0.003951940130890836</v>
       </c>
       <c r="V93">
-        <v>62.68187543376423</v>
+        <v>20.90121846518853</v>
       </c>
       <c r="W93">
-        <v>0.001311055985992061</v>
+        <v>0.003792158303940623</v>
       </c>
       <c r="X93">
-        <v>1.693597511506094E-06</v>
+        <v>1.635062025917617E-06</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -6218,61 +6218,61 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6.342452539382571E-06</v>
+        <v>5.074138192937765E-06</v>
       </c>
       <c r="C94">
-        <v>0.4127124678815598</v>
+        <v>0.3830854293413895</v>
       </c>
       <c r="D94">
-        <v>0.02163336546690889</v>
+        <v>0.02906092104107763</v>
       </c>
       <c r="E94">
-        <v>0.4572162027398855</v>
+        <v>0.4148775860763491</v>
       </c>
       <c r="F94">
-        <v>16.50508403324604</v>
+        <v>14.20507078680208</v>
       </c>
       <c r="K94">
-        <v>6.136752649216527</v>
+        <v>7.283233087564333</v>
       </c>
       <c r="L94">
-        <v>5.294094137200008</v>
+        <v>8.363616260033071</v>
       </c>
       <c r="M94">
-        <v>6.471282092173325</v>
+        <v>8.33697534037918</v>
       </c>
       <c r="N94">
-        <v>0.02356262576715899</v>
+        <v>0.1031292939135468</v>
       </c>
       <c r="O94">
-        <v>0.001328072252420978</v>
+        <v>0.007521704088514331</v>
       </c>
       <c r="P94">
-        <v>0.03693862924803443</v>
+        <v>0.09058173853742826</v>
       </c>
       <c r="Q94">
-        <v>0.01456642609446559</v>
+        <v>0.006962572477896049</v>
       </c>
       <c r="R94">
-        <v>0.004097241297748666</v>
+        <v>0.01086478618659661</v>
       </c>
       <c r="S94">
-        <v>7.361630337833135E-05</v>
+        <v>1.162183262360709E-05</v>
       </c>
       <c r="T94">
-        <v>0.0793864791367228</v>
+        <v>0.01465646198550408</v>
       </c>
       <c r="U94">
-        <v>0.01798496928991423</v>
+        <v>0.004655594964782937</v>
       </c>
       <c r="V94">
-        <v>64.7174187594333</v>
+        <v>21.37786709514966</v>
       </c>
       <c r="W94">
-        <v>0.001578134682715649</v>
+        <v>0.004280785414325128</v>
       </c>
       <c r="X94">
-        <v>1.693162367539173E-06</v>
+        <v>1.635838345621783E-06</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -6280,61 +6280,61 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5.296212615207372E-06</v>
+        <v>4.220845836082104E-06</v>
       </c>
       <c r="C95">
-        <v>0.4685809110836529</v>
+        <v>0.433660359098577</v>
       </c>
       <c r="D95">
-        <v>0.02893113657298385</v>
+        <v>0.038750634099303</v>
       </c>
       <c r="E95">
-        <v>0.5153611381289349</v>
+        <v>0.4666953033394503</v>
       </c>
       <c r="F95">
-        <v>16.50281584860141</v>
+        <v>14.20279183972963</v>
       </c>
       <c r="K95">
-        <v>6.14651331555537</v>
+        <v>7.265464792926955</v>
       </c>
       <c r="L95">
-        <v>5.40035538983676</v>
+        <v>8.318184741104384</v>
       </c>
       <c r="M95">
-        <v>6.510663298781731</v>
+        <v>8.343191340578738</v>
       </c>
       <c r="N95">
-        <v>0.02673899055497871</v>
+        <v>0.1167875210314086</v>
       </c>
       <c r="O95">
-        <v>0.001740240917647898</v>
+        <v>0.009708528334744813</v>
       </c>
       <c r="P95">
-        <v>0.04013465826997285</v>
+        <v>0.10252733368879</v>
       </c>
       <c r="Q95">
-        <v>0.0150686850785329</v>
+        <v>0.009092394748168</v>
       </c>
       <c r="R95">
-        <v>0.004672044868373</v>
+        <v>0.01241523823716419</v>
       </c>
       <c r="S95">
-        <v>9.241195742231787E-05</v>
+        <v>1.464705873817822E-05</v>
       </c>
       <c r="T95">
-        <v>0.0881581234005526</v>
+        <v>0.01608515727417853</v>
       </c>
       <c r="U95">
-        <v>0.02284966653142469</v>
+        <v>0.005685527823929974</v>
       </c>
       <c r="V95">
-        <v>67.43475130211796</v>
+        <v>21.99788904457449</v>
       </c>
       <c r="W95">
-        <v>0.001912725950778605</v>
+        <v>0.004909808672007581</v>
       </c>
       <c r="X95">
-        <v>1.692674334222231E-06</v>
+        <v>1.636726760353652E-06</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -6342,61 +6342,61 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4.081534373459716E-06</v>
+        <v>3.256187101639459E-06</v>
       </c>
       <c r="C96">
-        <v>0.541855873502098</v>
+        <v>0.4994786465984561</v>
       </c>
       <c r="D96">
-        <v>0.04216022388984746</v>
+        <v>0.05588970949150811</v>
       </c>
       <c r="E96">
-        <v>0.588440868331657</v>
+        <v>0.5320470908641537</v>
       </c>
       <c r="F96">
-        <v>16.50262144926781</v>
+        <v>14.2025937497335</v>
       </c>
       <c r="K96">
-        <v>6.157382831402439</v>
+        <v>7.244553177378092</v>
       </c>
       <c r="L96">
-        <v>5.534631195435423</v>
+        <v>8.257296206494303</v>
       </c>
       <c r="M96">
-        <v>6.550479616686756</v>
+        <v>8.350837797699343</v>
       </c>
       <c r="N96">
-        <v>0.03090544882786718</v>
+        <v>0.1346340198141859</v>
       </c>
       <c r="O96">
-        <v>0.002468921020702447</v>
+        <v>0.01350647799609042</v>
       </c>
       <c r="P96">
-        <v>0.04431232046854619</v>
+        <v>0.1180998235122271</v>
       </c>
       <c r="Q96">
-        <v>0.01599482022268097</v>
+        <v>0.0128205716299821</v>
       </c>
       <c r="R96">
-        <v>0.005435317020198116</v>
+        <v>0.01448200343356853</v>
       </c>
       <c r="S96">
-        <v>0.0001282567141341037</v>
+        <v>1.984470954550531E-05</v>
       </c>
       <c r="T96">
-        <v>0.09904286621207394</v>
+        <v>0.01781842884921996</v>
       </c>
       <c r="U96">
-        <v>0.03082374824308055</v>
+        <v>0.007291106510118049</v>
       </c>
       <c r="V96">
-        <v>71.2709279898199</v>
+        <v>22.84165540529753</v>
       </c>
       <c r="W96">
-        <v>0.00234584920222948</v>
+        <v>0.005749652371184111</v>
       </c>
       <c r="X96">
-        <v>1.692130858429878E-06</v>
+        <v>1.637772341131095E-06</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -6404,19 +6404,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2.754025687518222E-06</v>
+        <v>2.246711873265104E-06</v>
       </c>
       <c r="C97">
-        <v>0.6417950034245468</v>
+        <v>0.5881964340198446</v>
       </c>
       <c r="D97">
-        <v>0.07015837375145928</v>
+        <v>0.08978377823633084</v>
       </c>
       <c r="E97">
-        <v>0.6835487340880408</v>
+        <v>0.617565778733886</v>
       </c>
       <c r="F97">
-        <v>16.50238689605692</v>
+        <v>14.20235378181996</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -6428,31 +6428,31 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>0.03659275438930006</v>
+        <v>0.1588595281778047</v>
       </c>
       <c r="O97">
         <v>0</v>
       </c>
       <c r="P97">
-        <v>0.04997582051771914</v>
+        <v>0.1391556738886758</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
-        <v>0.006496729081410907</v>
+        <v>0.0173744351783731</v>
       </c>
       <c r="S97">
         <v>0</v>
       </c>
       <c r="T97">
-        <v>0.1126866898058724</v>
+        <v>0.01992389331704031</v>
       </c>
       <c r="U97">
         <v>0</v>
       </c>
       <c r="V97">
-        <v>70.52852248992596</v>
+        <v>22.60372149482568</v>
       </c>
       <c r="W97">
         <v>0</v>

--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport_3.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport_3.xlsx
@@ -85,7 +85,7 @@
     <t>SI_Armp_CaPhosphate</t>
   </si>
   <si>
-    <t>NH4+ Permeability</t>
+    <t>d_CaPhosphate</t>
   </si>
 </sst>
 </file>
@@ -502,73 +502,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.20403021735768E-06</v>
+        <v>5.802751371833575E-06</v>
       </c>
       <c r="C2">
-        <v>0.03662643346750398</v>
+        <v>0.02536422822239543</v>
       </c>
       <c r="D2">
-        <v>0.002644902114585823</v>
+        <v>0.001665319433323416</v>
       </c>
       <c r="E2">
-        <v>0.03865785482588319</v>
+        <v>0.02694903117131025</v>
       </c>
       <c r="F2">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="G2">
-        <v>17.87113365670209</v>
+        <v>20.25578311793908</v>
       </c>
       <c r="H2">
-        <v>18.49581889360094</v>
+        <v>21.2602908650948</v>
       </c>
       <c r="I2">
-        <v>18.31306780726143</v>
+        <v>22.38154863834486</v>
       </c>
       <c r="J2">
-        <v>20.67854816773141</v>
+        <v>27.81876978707108</v>
       </c>
       <c r="K2">
-        <v>7.758695883553461</v>
+        <v>8.300107966209065</v>
       </c>
       <c r="L2">
-        <v>8.664053155390611</v>
+        <v>7.127209352905276</v>
       </c>
       <c r="M2">
-        <v>8.351382229908241</v>
+        <v>8.299401259719453</v>
       </c>
       <c r="N2">
-        <v>0.00999931209698373</v>
+        <v>0.008848677791240865</v>
       </c>
       <c r="O2">
-        <v>0.0008719187562413619</v>
+        <v>0.000558143194510691</v>
       </c>
       <c r="P2">
-        <v>0.008761383067956034</v>
+        <v>0.008758638047320003</v>
       </c>
       <c r="Q2">
-        <v>0.0006877596380641979</v>
+        <v>0.0006477570650370246</v>
       </c>
       <c r="R2">
-        <v>0.0008728328121917295</v>
+        <v>3.231701206480607E-06</v>
       </c>
       <c r="S2">
-        <v>2.081444696078623E-06</v>
+        <v>9.00325747910273E-09</v>
       </c>
       <c r="T2">
-        <v>0.002544947262742507</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0008162161018768905</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>11.43600380339711</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.000286490885574113</v>
+        <v>-1.463018087418334</v>
       </c>
       <c r="X2">
-        <v>1.612065205822327E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -576,61 +576,61 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.196684775412985E-06</v>
+        <v>5.796857645133119E-06</v>
       </c>
       <c r="C3">
-        <v>0.0369696812589476</v>
+        <v>0.02560361113945676</v>
       </c>
       <c r="D3">
-        <v>0.002674257283614216</v>
+        <v>0.001683428192187351</v>
       </c>
       <c r="E3">
-        <v>0.03903551346178084</v>
+        <v>0.02721611680002061</v>
       </c>
       <c r="F3">
-        <v>6.499985236928875</v>
+        <v>6.899985241785025</v>
       </c>
       <c r="K3">
-        <v>7.755719182743845</v>
+        <v>8.300795700211252</v>
       </c>
       <c r="L3">
-        <v>8.703755295935776</v>
+        <v>7.128442262329313</v>
       </c>
       <c r="M3">
-        <v>8.377552477346311</v>
+        <v>8.300100524187993</v>
       </c>
       <c r="N3">
-        <v>0.01009150798931446</v>
+        <v>0.00893242056494521</v>
       </c>
       <c r="O3">
-        <v>0.0008923483479226655</v>
+        <v>0.0005641483622710015</v>
       </c>
       <c r="P3">
-        <v>0.008842934819773125</v>
+        <v>0.008840566138050135</v>
       </c>
       <c r="Q3">
-        <v>0.0006899463405858008</v>
+        <v>0.000654448971455029</v>
       </c>
       <c r="R3">
-        <v>0.0008816282805502714</v>
+        <v>3.264253711015976E-06</v>
       </c>
       <c r="S3">
-        <v>1.89132252717822E-06</v>
+        <v>9.071370654555392E-09</v>
       </c>
       <c r="T3">
-        <v>0.002562409193660342</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0008337778918179458</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>11.55903292282918</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0002897797263974646</v>
+        <v>-1.446360142556898</v>
       </c>
       <c r="X3">
-        <v>1.612214040862808E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -638,61 +638,61 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.189071890556392E-06</v>
+        <v>5.791339153676106E-06</v>
       </c>
       <c r="C4">
-        <v>0.03731963456481834</v>
+        <v>0.0258476946389187</v>
       </c>
       <c r="D4">
-        <v>0.002704338020382712</v>
+        <v>0.001701815282635968</v>
       </c>
       <c r="E4">
-        <v>0.03942072840272404</v>
+        <v>0.02748881025556651</v>
       </c>
       <c r="F4">
-        <v>6.499970398548582</v>
+        <v>6.899970408385139</v>
       </c>
       <c r="K4">
-        <v>7.752579765467971</v>
+        <v>8.301479089137608</v>
       </c>
       <c r="L4">
-        <v>8.701714286020781</v>
+        <v>7.129680070158179</v>
       </c>
       <c r="M4">
-        <v>8.376722077213989</v>
+        <v>8.300803742376868</v>
       </c>
       <c r="N4">
-        <v>0.01018537696524703</v>
+        <v>0.009017811097625559</v>
       </c>
       <c r="O4">
-        <v>0.0009007440535716293</v>
+        <v>0.0005702190500206351</v>
       </c>
       <c r="P4">
-        <v>0.008926128579764832</v>
+        <v>0.008924097945872532</v>
       </c>
       <c r="Q4">
-        <v>0.0006976233611045361</v>
+        <v>0.000661210645845494</v>
       </c>
       <c r="R4">
-        <v>0.0008906051882852009</v>
+        <v>3.297469857346194E-06</v>
       </c>
       <c r="S4">
-        <v>1.912344935582338E-06</v>
+        <v>9.138493618358267E-09</v>
       </c>
       <c r="T4">
-        <v>0.002580048288577101</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0008399618459180473</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>11.62892375627204</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0002931249050273905</v>
+        <v>-1.429578523450378</v>
       </c>
       <c r="X4">
-        <v>1.612371011726601E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -700,61 +700,61 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.181307935332481E-06</v>
+        <v>5.785708756472497E-06</v>
       </c>
       <c r="C5">
-        <v>0.03767649329208057</v>
+        <v>0.02609662123022058</v>
       </c>
       <c r="D5">
-        <v>0.002735113921077197</v>
+        <v>0.001720615619227198</v>
       </c>
       <c r="E5">
-        <v>0.03981378336983601</v>
+        <v>0.02776713800197483</v>
       </c>
       <c r="F5">
-        <v>6.499955483403649</v>
+        <v>6.899955498349214</v>
       </c>
       <c r="K5">
-        <v>7.749415612372903</v>
+        <v>8.302162276317372</v>
       </c>
       <c r="L5">
-        <v>8.699415939837785</v>
+        <v>7.130930299107124</v>
       </c>
       <c r="M5">
-        <v>8.376049104564993</v>
+        <v>8.301510273393136</v>
       </c>
       <c r="N5">
-        <v>0.01028109483031585</v>
+        <v>0.00910489967543592</v>
       </c>
       <c r="O5">
-        <v>0.0009091857183969978</v>
+        <v>0.0005764253855027595</v>
       </c>
       <c r="P5">
-        <v>0.009010958530472669</v>
+        <v>0.009009282351027451</v>
       </c>
       <c r="Q5">
-        <v>0.0007054137387459429</v>
+        <v>0.0006681212638349354</v>
       </c>
       <c r="R5">
-        <v>0.0008997669701754032</v>
+        <v>3.331370180683595E-06</v>
       </c>
       <c r="S5">
-        <v>1.932565661438334E-06</v>
+        <v>9.206928481646477E-09</v>
       </c>
       <c r="T5">
-        <v>0.002597987324068431</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0008463382119830434</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>11.68620398922763</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0002965410122424603</v>
+        <v>-1.412662812135935</v>
       </c>
       <c r="X5">
-        <v>1.612529219381355E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -762,61 +762,61 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.173388342283643E-06</v>
+        <v>5.779962998129053E-06</v>
       </c>
       <c r="C6">
-        <v>0.03804046599386186</v>
+        <v>0.02635053795533509</v>
       </c>
       <c r="D6">
-        <v>0.00276660934119717</v>
+        <v>0.001739843302822899</v>
       </c>
       <c r="E6">
-        <v>0.04021492046993205</v>
+        <v>0.02805127687911541</v>
       </c>
       <c r="F6">
-        <v>6.499940489993135</v>
+        <v>6.899940510180825</v>
       </c>
       <c r="K6">
-        <v>7.746246026821221</v>
+        <v>8.302840811401431</v>
       </c>
       <c r="L6">
-        <v>8.697122069144321</v>
+        <v>7.132184498048511</v>
       </c>
       <c r="M6">
-        <v>8.375391493438984</v>
+        <v>8.302209333454737</v>
       </c>
       <c r="N6">
-        <v>0.010378718883565</v>
+        <v>0.009193737949289391</v>
       </c>
       <c r="O6">
-        <v>0.0009178252948548267</v>
+        <v>0.000582771851450335</v>
       </c>
       <c r="P6">
-        <v>0.009097474622053155</v>
+        <v>0.009096169445685707</v>
       </c>
       <c r="Q6">
-        <v>0.00071337897016688</v>
+        <v>0.0006751879925948073</v>
       </c>
       <c r="R6">
-        <v>0.0009091194118890903</v>
+        <v>3.365976047894031E-06</v>
       </c>
       <c r="S6">
-        <v>1.953113701147825E-06</v>
+        <v>9.276946841445541E-09</v>
       </c>
       <c r="T6">
-        <v>0.002616233668985988</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0008528480912493164</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>11.73881411268094</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0003000318683737714</v>
+        <v>-1.395618708053878</v>
       </c>
       <c r="X6">
-        <v>1.612687698658939E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -824,61 +824,61 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.165308385795589E-06</v>
+        <v>5.77409827358742E-06</v>
       </c>
       <c r="C7">
-        <v>0.03841176974810044</v>
+        <v>0.02660959789904575</v>
       </c>
       <c r="D7">
-        <v>0.002798849770066248</v>
+        <v>0.001759513083327109</v>
       </c>
       <c r="E7">
-        <v>0.04062439186296329</v>
+        <v>0.02834141119110718</v>
       </c>
       <c r="F7">
-        <v>6.499925416768648</v>
+        <v>6.899925442336344</v>
       </c>
       <c r="K7">
-        <v>7.743055047985112</v>
+        <v>8.303516867573629</v>
       </c>
       <c r="L7">
-        <v>8.694814518921843</v>
+        <v>7.133447765412873</v>
       </c>
       <c r="M7">
-        <v>8.374740554164044</v>
+        <v>8.302907072281776</v>
       </c>
       <c r="N7">
-        <v>0.01047830723713037</v>
+        <v>0.009284379697687696</v>
       </c>
       <c r="O7">
-        <v>0.0009266628543334209</v>
+        <v>0.0005892631934716439</v>
       </c>
       <c r="P7">
-        <v>0.009185728260494064</v>
+        <v>0.009184811355718244</v>
       </c>
       <c r="Q7">
-        <v>0.0007215264886469845</v>
+        <v>0.0006824147258235125</v>
       </c>
       <c r="R7">
-        <v>0.0009186685308173845</v>
+        <v>3.401309722641954E-06</v>
       </c>
       <c r="S7">
-        <v>1.974057696847137E-06</v>
+        <v>9.348467245245091E-09</v>
       </c>
       <c r="T7">
-        <v>0.002634795622435847</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.0008594917655918534</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>11.78940161518536</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.0003035990457173507</v>
+        <v>-1.378439893145881</v>
       </c>
       <c r="X7">
-        <v>1.612847247600744E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -886,61 +886,61 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.157063107764957E-06</v>
+        <v>5.76811082623711E-06</v>
       </c>
       <c r="C8">
-        <v>0.03879063059893059</v>
+        <v>0.02687396050346829</v>
       </c>
       <c r="D8">
-        <v>0.002831861929202123</v>
+        <v>0.001779640395709113</v>
       </c>
       <c r="E8">
-        <v>0.04104246025827687</v>
+        <v>0.02863773310449674</v>
       </c>
       <c r="F8">
-        <v>6.499910262132372</v>
+        <v>6.899910293222901</v>
       </c>
       <c r="K8">
-        <v>7.739842140670618</v>
+        <v>8.304189184508342</v>
       </c>
       <c r="L8">
-        <v>8.692467756142056</v>
+        <v>7.134718961010545</v>
       </c>
       <c r="M8">
-        <v>8.374081931900504</v>
+        <v>8.3036017083171</v>
       </c>
       <c r="N8">
-        <v>0.01057992047524524</v>
+        <v>0.00937688093709425</v>
       </c>
       <c r="O8">
-        <v>0.0009356971275420717</v>
+        <v>0.0005959044406122039</v>
       </c>
       <c r="P8">
-        <v>0.009275772960194564</v>
+        <v>0.009275262383695845</v>
       </c>
       <c r="Q8">
-        <v>0.0007298655129750112</v>
+        <v>0.0006898073420369755</v>
       </c>
       <c r="R8">
-        <v>0.000928420599680369</v>
+        <v>3.437394416848302E-06</v>
       </c>
       <c r="S8">
-        <v>1.995477593357299E-06</v>
+        <v>9.42157838394249E-09</v>
       </c>
       <c r="T8">
-        <v>0.002653681833678868</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.0008662671524243808</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>11.83909696624717</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.0003072442816649673</v>
+        <v>-1.361125840220332</v>
       </c>
       <c r="X8">
-        <v>1.613007892966469E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -948,61 +948,61 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.148647376210389E-06</v>
+        <v>5.761996746676434E-06</v>
       </c>
       <c r="C9">
-        <v>0.03917728402548681</v>
+        <v>0.02714379190247645</v>
       </c>
       <c r="D9">
-        <v>0.002865673812887041</v>
+        <v>0.001800241398228642</v>
       </c>
       <c r="E9">
-        <v>0.04146939950047387</v>
+        <v>0.02894044307228849</v>
       </c>
       <c r="F9">
-        <v>6.499895024434823</v>
+        <v>6.89989506119619</v>
       </c>
       <c r="K9">
-        <v>7.736612898341979</v>
+        <v>8.304857989103489</v>
       </c>
       <c r="L9">
-        <v>8.690098053340312</v>
+        <v>7.135994047695971</v>
       </c>
       <c r="M9">
-        <v>8.373425267781464</v>
+        <v>8.304288468632491</v>
       </c>
       <c r="N9">
-        <v>0.01068362180156462</v>
+        <v>0.009471300039206961</v>
       </c>
       <c r="O9">
-        <v>0.000944940572272661</v>
+        <v>0.0006027009742517494</v>
       </c>
       <c r="P9">
-        <v>0.009367664438121657</v>
+        <v>0.009367579104573897</v>
       </c>
       <c r="Q9">
-        <v>0.0007384010216015474</v>
+        <v>0.0006973727742866712</v>
       </c>
       <c r="R9">
-        <v>0.0009383821601329175</v>
+        <v>3.474254339842542E-06</v>
       </c>
       <c r="S9">
-        <v>2.017343419843062E-06</v>
+        <v>9.496434735572044E-09</v>
       </c>
       <c r="T9">
-        <v>0.002672901346380529</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.0008731827729769543</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>11.88848032448878</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.0003109712193208354</v>
+        <v>-1.343672701710318</v>
       </c>
       <c r="X9">
-        <v>1.613169355082901E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1010,61 +1010,61 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.140055829401038E-06</v>
+        <v>5.755751943793466E-06</v>
       </c>
       <c r="C10">
-        <v>0.03957197544084114</v>
+        <v>0.02741926527752262</v>
       </c>
       <c r="D10">
-        <v>0.002900314787682692</v>
+        <v>0.001821333020991203</v>
       </c>
       <c r="E10">
-        <v>0.04190549514227834</v>
+        <v>0.02924975027861901</v>
       </c>
       <c r="F10">
-        <v>6.499879701972652</v>
+        <v>6.899879744558306</v>
       </c>
       <c r="K10">
-        <v>7.733369013578857</v>
+        <v>8.305524927615711</v>
       </c>
       <c r="L10">
-        <v>8.687717715424977</v>
+        <v>7.137281484387395</v>
       </c>
       <c r="M10">
-        <v>8.372778432171321</v>
+        <v>8.304975704935394</v>
       </c>
       <c r="N10">
-        <v>0.0107894770323178</v>
+        <v>0.009567697855130385</v>
       </c>
       <c r="O10">
-        <v>0.0009544048908848785</v>
+        <v>0.0006096583032999092</v>
       </c>
       <c r="P10">
-        <v>0.009461460779605571</v>
+        <v>0.009461820477729192</v>
       </c>
       <c r="Q10">
-        <v>0.0007471384434592384</v>
+        <v>0.0007051152341890284</v>
       </c>
       <c r="R10">
-        <v>0.0009485600385754509</v>
+        <v>3.511914751854574E-06</v>
       </c>
       <c r="S10">
-        <v>2.039632837351694E-06</v>
+        <v>9.572907852603603E-09</v>
       </c>
       <c r="T10">
-        <v>0.00269246350478709</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0.0008802465419979826</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>11.93788632176044</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.0003147826111616385</v>
+        <v>-1.326075286714193</v>
       </c>
       <c r="X10">
-        <v>1.613331549321057E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1072,61 +1072,61 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.131282889804544E-06</v>
+        <v>5.749372164795661E-06</v>
       </c>
       <c r="C11">
-        <v>0.03997496072274399</v>
+        <v>0.0277005612363856</v>
       </c>
       <c r="D11">
-        <v>0.00293581566398257</v>
+        <v>0.001842933003946331</v>
       </c>
       <c r="E11">
-        <v>0.04235104508369459</v>
+        <v>0.02956587312553787</v>
       </c>
       <c r="F11">
-        <v>6.499864292986074</v>
+        <v>6.899864341555195</v>
       </c>
       <c r="K11">
-        <v>7.730096873935408</v>
+        <v>8.30618680333385</v>
       </c>
       <c r="L11">
-        <v>8.685305890073948</v>
+        <v>7.138580706820584</v>
       </c>
       <c r="M11">
-        <v>8.372129724440546</v>
+        <v>8.305662708790825</v>
       </c>
       <c r="N11">
-        <v>0.01089755474815772</v>
+        <v>0.009666137850205444</v>
       </c>
       <c r="O11">
-        <v>0.0009640910229351296</v>
+        <v>0.0006167818934389264</v>
       </c>
       <c r="P11">
-        <v>0.009557222563519267</v>
+        <v>0.009558048007877986</v>
       </c>
       <c r="Q11">
-        <v>0.0007560872802148449</v>
+        <v>0.0007130408142679327</v>
       </c>
       <c r="R11">
-        <v>0.0009589613617154299</v>
+        <v>3.550402024865585E-06</v>
       </c>
       <c r="S11">
-        <v>2.062417587743168E-06</v>
+        <v>9.651068297912135E-09</v>
       </c>
       <c r="T11">
-        <v>0.002712377976905652</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.000887458187561199</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>11.9875153561764</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.0003186800787274196</v>
+        <v>-1.308336367311249</v>
       </c>
       <c r="X11">
-        <v>1.613495156303229E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1134,61 +1134,61 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.122322723504897E-06</v>
+        <v>5.742852962255335E-06</v>
       </c>
       <c r="C12">
-        <v>0.04038650677895245</v>
+        <v>0.02798786821674604</v>
       </c>
       <c r="D12">
-        <v>0.002972208800432866</v>
+        <v>0.00186505995268398</v>
       </c>
       <c r="E12">
-        <v>0.04280636023282038</v>
+        <v>0.0298890397382805</v>
       </c>
       <c r="F12">
-        <v>6.499848795656574</v>
+        <v>6.899848850374251</v>
       </c>
       <c r="K12">
-        <v>7.726818471197587</v>
+        <v>8.306844993038068</v>
       </c>
       <c r="L12">
-        <v>8.682880355652353</v>
+        <v>7.139890940100821</v>
       </c>
       <c r="M12">
-        <v>8.371489508971553</v>
+        <v>8.306348511490265</v>
       </c>
       <c r="N12">
-        <v>0.01100792656732686</v>
+        <v>0.009766686249725074</v>
       </c>
       <c r="O12">
-        <v>0.0009740135141365494</v>
+        <v>0.0006240778386402981</v>
       </c>
       <c r="P12">
-        <v>0.009655012955555983</v>
+        <v>0.009656325865584766</v>
       </c>
       <c r="Q12">
-        <v>0.000765253834304462</v>
+        <v>0.0007211563732583479</v>
       </c>
       <c r="R12">
-        <v>0.0009695935722057376</v>
+        <v>3.589743702160781E-06</v>
       </c>
       <c r="S12">
-        <v>2.085663452316145E-06</v>
+        <v>9.730998426874106E-09</v>
       </c>
       <c r="T12">
-        <v>0.002732654863453924</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>0.0008948269916747031</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>12.0375067765562</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>0.000322668405788006</v>
+        <v>-1.290449741279165</v>
       </c>
       <c r="X12">
-        <v>1.613659076440121E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1196,61 +1196,61 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.113169267450443E-06</v>
+        <v>5.736189688812394E-06</v>
       </c>
       <c r="C13">
-        <v>0.04080689214949761</v>
+        <v>0.02828138291634224</v>
       </c>
       <c r="D13">
-        <v>0.003009528180617834</v>
+        <v>0.001887733390077991</v>
       </c>
       <c r="E13">
-        <v>0.04327176523624621</v>
+        <v>0.03021948851146009</v>
       </c>
       <c r="F13">
-        <v>6.49983320810392</v>
+        <v>6.899833269141602</v>
       </c>
       <c r="K13">
-        <v>7.723513882848521</v>
+        <v>8.307500633838767</v>
       </c>
       <c r="L13">
-        <v>8.680428260924833</v>
+        <v>7.141209927427457</v>
       </c>
       <c r="M13">
-        <v>8.370851195284132</v>
+        <v>8.307029077555997</v>
       </c>
       <c r="N13">
-        <v>0.01112066716343012</v>
+        <v>0.009869412186928272</v>
       </c>
       <c r="O13">
-        <v>0.0009841765429606662</v>
+        <v>0.0006315530953896379</v>
       </c>
       <c r="P13">
-        <v>0.00975489788950263</v>
+        <v>0.009756721028419894</v>
       </c>
       <c r="Q13">
-        <v>0.0007746469696147397</v>
+        <v>0.000729470440718854</v>
       </c>
       <c r="R13">
-        <v>0.0009804644475849896</v>
+        <v>3.629968564000488E-06</v>
       </c>
       <c r="S13">
-        <v>2.109419873387726E-06</v>
+        <v>9.812846258142359E-09</v>
       </c>
       <c r="T13">
-        <v>0.002753304614822229</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>0.0009023554187335473</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>12.0879563594995</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>0.0003267488461265099</v>
+        <v>-1.272410974062232</v>
       </c>
       <c r="X13">
-        <v>1.613824305857574E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1258,61 +1258,61 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.103816180186934E-06</v>
+        <v>5.729377493945937E-06</v>
       </c>
       <c r="C14">
-        <v>0.04123640764914397</v>
+        <v>0.02858131075186797</v>
       </c>
       <c r="D14">
-        <v>0.003047809535349103</v>
+        <v>0.00191097381101716</v>
       </c>
       <c r="E14">
-        <v>0.043747599228292</v>
+        <v>0.03055746869422441</v>
       </c>
       <c r="F14">
-        <v>6.499817528383692</v>
+        <v>6.89981759591927</v>
       </c>
       <c r="K14">
-        <v>7.720184497124857</v>
+        <v>8.308153148898761</v>
       </c>
       <c r="L14">
-        <v>8.677924365387602</v>
+        <v>7.142532714827486</v>
       </c>
       <c r="M14">
-        <v>8.370200474305046</v>
+        <v>8.307700631489368</v>
       </c>
       <c r="N14">
-        <v>0.01123585455684454</v>
+        <v>0.00997438785842303</v>
       </c>
       <c r="O14">
-        <v>0.0009945812683454546</v>
+        <v>0.0006392141099151696</v>
       </c>
       <c r="P14">
-        <v>0.009856946195410447</v>
+        <v>0.009859303421461952</v>
       </c>
       <c r="Q14">
-        <v>0.0007842790195115311</v>
+        <v>0.0007379909110619481</v>
       </c>
       <c r="R14">
-        <v>0.0009915821183544397</v>
+        <v>3.671106697156651E-06</v>
       </c>
       <c r="S14">
-        <v>2.133776620658215E-06</v>
+        <v>9.896764894420328E-09</v>
       </c>
       <c r="T14">
-        <v>0.002774338128414147</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>0.0009100422624720454</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>12.13892911180691</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>0.0003309250612750773</v>
+        <v>-1.254217453998912</v>
       </c>
       <c r="X14">
-        <v>1.613990775143757E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1320,61 +1320,61 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.094256853225082E-06</v>
+        <v>5.722411307855091E-06</v>
       </c>
       <c r="C15">
-        <v>0.04167535705275081</v>
+        <v>0.02888786634888925</v>
       </c>
       <c r="D15">
-        <v>0.003087090441338142</v>
+        <v>0.001934802744774987</v>
       </c>
       <c r="E15">
-        <v>0.04423421665094694</v>
+        <v>0.03090324101052448</v>
       </c>
       <c r="F15">
-        <v>6.499801754483742</v>
+        <v>6.899801828702123</v>
       </c>
       <c r="K15">
-        <v>7.716843014305568</v>
+        <v>8.30880183147608</v>
       </c>
       <c r="L15">
-        <v>8.675429116024123</v>
+        <v>7.143884033884327</v>
       </c>
       <c r="M15">
-        <v>8.369572223979786</v>
+        <v>8.308386660041899</v>
       </c>
       <c r="N15">
-        <v>0.01135357034176982</v>
+        <v>0.01008168870610703</v>
       </c>
       <c r="O15">
-        <v>0.001005256529030747</v>
+        <v>0.0006470669864643868</v>
       </c>
       <c r="P15">
-        <v>0.009961229726167906</v>
+        <v>0.009964146093995284</v>
       </c>
       <c r="Q15">
-        <v>0.0007941507900628787</v>
+        <v>0.0007467190328894883</v>
       </c>
       <c r="R15">
-        <v>0.001002955087799656</v>
+        <v>3.713189569941274E-06</v>
       </c>
       <c r="S15">
-        <v>2.158576336262634E-06</v>
+        <v>9.982290222984677E-09</v>
       </c>
       <c r="T15">
-        <v>0.002795766816528424</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>0.000917908970940133</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>12.19049293180943</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>0.0003352015402910065</v>
+        <v>-1.235867025149357</v>
       </c>
       <c r="X15">
-        <v>1.614157849284721E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1382,61 +1382,61 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.084484369367125E-06</v>
+        <v>5.715285824214429E-06</v>
       </c>
       <c r="C16">
-        <v>0.04212405782730213</v>
+        <v>0.02920127406521616</v>
       </c>
       <c r="D16">
-        <v>0.003127410456233486</v>
+        <v>0.001959242822329288</v>
       </c>
       <c r="E16">
-        <v>0.04473198811535038</v>
+        <v>0.03125707832377474</v>
       </c>
       <c r="F16">
-        <v>6.499785884321603</v>
+        <v>6.899785965414819</v>
       </c>
       <c r="K16">
-        <v>7.713481551817647</v>
+        <v>8.309431230528839</v>
       </c>
       <c r="L16">
-        <v>8.672910410735506</v>
+        <v>7.145218923818073</v>
       </c>
       <c r="M16">
-        <v>8.368949875840501</v>
+        <v>8.309041809773101</v>
       </c>
       <c r="N16">
-        <v>0.01147389957215051</v>
+        <v>0.0101913936098238</v>
       </c>
       <c r="O16">
-        <v>0.001016203067919326</v>
+        <v>0.0006551202629516232</v>
       </c>
       <c r="P16">
-        <v>0.01006782366728541</v>
+        <v>0.01007132547842675</v>
       </c>
       <c r="Q16">
-        <v>0.0008042753640834846</v>
+        <v>0.0007556745798221329</v>
       </c>
       <c r="R16">
-        <v>0.001014592256537602</v>
+        <v>3.75625011970544E-06</v>
       </c>
       <c r="S16">
-        <v>2.183925166220913E-06</v>
+        <v>1.007052491366508E-08</v>
       </c>
       <c r="T16">
-        <v>0.002817602372872474</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>0.0009259541491577296</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>12.24269630861206</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>0.0003395810928257163</v>
+        <v>-1.217384504141755</v>
       </c>
       <c r="X16">
-        <v>1.614325922409118E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1444,61 +1444,61 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.074491519439858E-06</v>
+        <v>5.707995492637297E-06</v>
       </c>
       <c r="C17">
-        <v>0.04258284191402058</v>
+        <v>0.02952176855042659</v>
       </c>
       <c r="D17">
-        <v>0.003168811231278722</v>
+        <v>0.00198431784556337</v>
       </c>
       <c r="E17">
-        <v>0.04524130134072312</v>
+        <v>0.03161926635010411</v>
       </c>
       <c r="F17">
-        <v>6.499769915740508</v>
+        <v>6.899770003908347</v>
       </c>
       <c r="K17">
-        <v>7.710089212123115</v>
+        <v>8.310091282367907</v>
       </c>
       <c r="L17">
-        <v>8.670324448044605</v>
+        <v>7.146599969649664</v>
       </c>
       <c r="M17">
-        <v>8.368307446893864</v>
+        <v>8.309728756177167</v>
       </c>
       <c r="N17">
-        <v>0.0115969312957297</v>
+        <v>0.01030358506096347</v>
       </c>
       <c r="O17">
-        <v>0.001027415926782874</v>
+        <v>0.0006633814246626963</v>
       </c>
       <c r="P17">
-        <v>0.01017680658849955</v>
+        <v>0.01018092137135151</v>
       </c>
       <c r="Q17">
-        <v>0.0008146689645789152</v>
+        <v>0.0007648512237961203</v>
       </c>
       <c r="R17">
-        <v>0.00102650294278903</v>
+        <v>3.800322820820637E-06</v>
       </c>
       <c r="S17">
-        <v>2.209975858179787E-06</v>
+        <v>1.016010611838667E-08</v>
       </c>
       <c r="T17">
-        <v>0.002839857057857353</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0.0009341717981185733</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>12.29557035578877</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>0.000344066500504394</v>
+        <v>-1.198674828622487</v>
       </c>
       <c r="X17">
-        <v>1.614495539393844E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -1506,61 +1506,61 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.064270740011853E-06</v>
+        <v>5.700534505750903E-06</v>
       </c>
       <c r="C18">
-        <v>0.0430520565650056</v>
+        <v>0.02984959534453211</v>
       </c>
       <c r="D18">
-        <v>0.003211336676470849</v>
+        <v>0.002010052863277306</v>
       </c>
       <c r="E18">
-        <v>0.04576256212644009</v>
+        <v>0.0319901044213508</v>
       </c>
       <c r="F18">
-        <v>6.499753846506296</v>
+        <v>6.899753941956434</v>
       </c>
       <c r="K18">
-        <v>7.706686973382403</v>
+        <v>8.310714062006399</v>
       </c>
       <c r="L18">
-        <v>8.667756818118654</v>
+        <v>7.147957932947127</v>
       </c>
       <c r="M18">
-        <v>8.367694322522141</v>
+        <v>8.310376579102254</v>
       </c>
       <c r="N18">
-        <v>0.01172275885964573</v>
+        <v>0.01041834938996706</v>
       </c>
       <c r="O18">
-        <v>0.001038934707401653</v>
+        <v>0.0006718584965287246</v>
       </c>
       <c r="P18">
-        <v>0.01028826060783193</v>
+        <v>0.01029301744453669</v>
       </c>
       <c r="Q18">
-        <v>0.0008253303687694097</v>
+        <v>0.0007742741982450339</v>
       </c>
       <c r="R18">
-        <v>0.001038696906681064</v>
+        <v>3.845443805519474E-06</v>
       </c>
       <c r="S18">
-        <v>2.23649471488409E-06</v>
+        <v>1.025275615649718E-08</v>
       </c>
       <c r="T18">
-        <v>0.002862543787139957</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>0.0009425914378467018</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>12.34916319578179</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>0.0003486632187915022</v>
+        <v>-1.179858519390798</v>
       </c>
       <c r="X18">
-        <v>1.61466565133088E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -1568,61 +1568,61 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.053814150781299E-06</v>
+        <v>5.692896770004466E-06</v>
       </c>
       <c r="C19">
-        <v>0.04353206523836144</v>
+        <v>0.03018501151900506</v>
       </c>
       <c r="D19">
-        <v>0.003255033082559337</v>
+        <v>0.002036474258007479</v>
       </c>
       <c r="E19">
-        <v>0.04629619544231771</v>
+        <v>0.03236990629779821</v>
       </c>
       <c r="F19">
-        <v>6.49973767430334</v>
+        <v>6.899737777251937</v>
       </c>
       <c r="K19">
-        <v>7.703258817833507</v>
+        <v>8.311352698906196</v>
       </c>
       <c r="L19">
-        <v>8.665136023048873</v>
+        <v>7.149353133344806</v>
       </c>
       <c r="M19">
-        <v>8.367071489952266</v>
+        <v>8.311046080460335</v>
       </c>
       <c r="N19">
-        <v>0.01185147963256434</v>
+        <v>0.01053577699109282</v>
       </c>
       <c r="O19">
-        <v>0.001050748735837531</v>
+        <v>0.0006805598207660579</v>
       </c>
       <c r="P19">
-        <v>0.01040227181553148</v>
+        <v>0.01040770109810647</v>
       </c>
       <c r="Q19">
-        <v>0.0008362805757111017</v>
+        <v>0.0007839383336029439</v>
       </c>
       <c r="R19">
-        <v>0.00105118438152403</v>
+        <v>3.891650926596137E-06</v>
       </c>
       <c r="S19">
-        <v>2.263707502654432E-06</v>
+        <v>1.0347136422284E-08</v>
       </c>
       <c r="T19">
-        <v>0.002885675743155539</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>0.0009512015598202837</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>12.4035032990518</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>0.0003533742738894879</v>
+        <v>-1.160834898739736</v>
       </c>
       <c r="X19">
-        <v>1.614837059108325E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1630,61 +1630,61 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.043113486029713E-06</v>
+        <v>5.68507591405846E-06</v>
       </c>
       <c r="C20">
-        <v>0.04402324855733463</v>
+        <v>0.03052828636365136</v>
       </c>
       <c r="D20">
-        <v>0.003299949312119287</v>
+        <v>0.002063609827468657</v>
       </c>
       <c r="E20">
-        <v>0.04684264653651293</v>
+        <v>0.03275900105236766</v>
       </c>
       <c r="F20">
-        <v>6.499721396730438</v>
+        <v>6.899721507402508</v>
       </c>
       <c r="K20">
-        <v>7.699809373704655</v>
+        <v>8.311974438750786</v>
       </c>
       <c r="L20">
-        <v>8.662493463266472</v>
+        <v>7.150742859488738</v>
       </c>
       <c r="M20">
-        <v>8.366457272493992</v>
+        <v>8.31169331538981</v>
       </c>
       <c r="N20">
-        <v>0.01198319586301222</v>
+        <v>0.0106559625663407</v>
       </c>
       <c r="O20">
-        <v>0.001062880262015081</v>
+        <v>0.000689495101338099</v>
       </c>
       <c r="P20">
-        <v>0.01051893024528539</v>
+        <v>0.0105250640586492</v>
       </c>
       <c r="Q20">
-        <v>0.0008475261684849796</v>
+        <v>0.0007938646291082397</v>
       </c>
       <c r="R20">
-        <v>0.001063976097060876</v>
+        <v>3.938983899647037E-06</v>
       </c>
       <c r="S20">
-        <v>2.291543561671851E-06</v>
+        <v>1.04443690267215E-08</v>
       </c>
       <c r="T20">
-        <v>0.002909266891732798</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>0.0009600181124343743</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>12.45862490296055</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>0.0003582042634369296</v>
+        <v>-1.141659037937032</v>
       </c>
       <c r="X20">
-        <v>1.615009531314767E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -1692,61 +1692,61 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.03216010392059E-06</v>
+        <v>5.677065245974432E-06</v>
       </c>
       <c r="C21">
-        <v>0.04452600533813976</v>
+        <v>0.03087970212335732</v>
       </c>
       <c r="D21">
-        <v>0.003346136961449894</v>
+        <v>0.00209148888876885</v>
       </c>
       <c r="E21">
-        <v>0.04740238217249707</v>
+        <v>0.03315773400329351</v>
       </c>
       <c r="F21">
-        <v>6.499705011296672</v>
+        <v>6.899705129926637</v>
       </c>
       <c r="K21">
-        <v>7.696330109214859</v>
+        <v>8.312602283094442</v>
       </c>
       <c r="L21">
-        <v>8.659824163969089</v>
+        <v>7.152160187869441</v>
       </c>
       <c r="M21">
-        <v>8.365847390101049</v>
+        <v>8.312351463800802</v>
       </c>
       <c r="N21">
-        <v>0.01211801457413564</v>
+        <v>0.01077900537455061</v>
       </c>
       <c r="O21">
-        <v>0.001075338732873286</v>
+        <v>0.0006986728144800308</v>
       </c>
       <c r="P21">
-        <v>0.01063833029561626</v>
+        <v>0.01064520232321143</v>
       </c>
       <c r="Q21">
-        <v>0.0008590796609689332</v>
+        <v>0.0008040543165377532</v>
       </c>
       <c r="R21">
-        <v>0.001077083313770743</v>
+        <v>3.987484387679387E-06</v>
       </c>
       <c r="S21">
-        <v>2.320048246611125E-06</v>
+        <v>1.054376076098608E-08</v>
       </c>
       <c r="T21">
-        <v>0.002933331691477223</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>0.0009690466147546361</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>12.51455926377888</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>0.0003631569553708768</v>
+        <v>-1.122285796296758</v>
       </c>
       <c r="X21">
-        <v>1.615183494539257E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -1754,61 +1754,61 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.020944935743298E-06</v>
+        <v>5.668857748349696E-06</v>
       </c>
       <c r="C22">
-        <v>0.04504075369284839</v>
+        <v>0.03123955478878968</v>
       </c>
       <c r="D22">
-        <v>0.003393650569962645</v>
+        <v>0.002120142378319591</v>
       </c>
       <c r="E22">
-        <v>0.04797589191725805</v>
+        <v>0.03356646772876849</v>
       </c>
       <c r="F22">
-        <v>6.499688515416824</v>
+        <v>6.899688642248885</v>
       </c>
       <c r="K22">
-        <v>7.6928382118656</v>
+        <v>8.313204375795745</v>
       </c>
       <c r="L22">
-        <v>8.65712134035706</v>
+        <v>7.153563793645841</v>
       </c>
       <c r="M22">
-        <v>8.365241070798044</v>
+        <v>8.312977428284954</v>
       </c>
       <c r="N22">
-        <v>0.01225604802215142</v>
+        <v>0.01090500953155149</v>
       </c>
       <c r="O22">
-        <v>0.00108813890475498</v>
+        <v>0.000708104855478733</v>
       </c>
       <c r="P22">
-        <v>0.01076057092854935</v>
+        <v>0.01076821667329485</v>
       </c>
       <c r="Q22">
-        <v>0.0008709561400261897</v>
+        <v>0.000814530904124273</v>
       </c>
       <c r="R22">
-        <v>0.001090517854589794</v>
+        <v>4.037196145515867E-06</v>
       </c>
       <c r="S22">
-        <v>2.349256093185868E-06</v>
+        <v>1.064644630209071E-08</v>
       </c>
       <c r="T22">
-        <v>0.002957885254936255</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>0.0009782943764703779</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>12.57133656115734</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>0.0003682385868446287</v>
+        <v>-1.102767818588141</v>
       </c>
       <c r="X22">
-        <v>1.61535808940672E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -1816,61 +1816,61 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.009458495825595E-06</v>
+        <v>5.660446061845753E-06</v>
       </c>
       <c r="C23">
-        <v>0.04556793221339124</v>
+        <v>0.03160815494588424</v>
       </c>
       <c r="D23">
-        <v>0.00344254781060811</v>
+        <v>0.00214960296349475</v>
       </c>
       <c r="E23">
-        <v>0.04856368956135799</v>
+        <v>0.0339855831551374</v>
       </c>
       <c r="F23">
-        <v>6.499671906406208</v>
+        <v>6.899672041694996</v>
       </c>
       <c r="K23">
-        <v>7.68931165026201</v>
+        <v>8.313816458637948</v>
       </c>
       <c r="L23">
-        <v>8.654386826479373</v>
+        <v>7.155009545545959</v>
       </c>
       <c r="M23">
-        <v>8.364638950518014</v>
+        <v>8.313627789359249</v>
       </c>
       <c r="N23">
-        <v>0.01239741396034631</v>
+        <v>0.01103408427428659</v>
       </c>
       <c r="O23">
-        <v>0.001101293863089164</v>
+        <v>0.0007177995678076129</v>
       </c>
       <c r="P23">
-        <v>0.01088575592587243</v>
+        <v>0.01089421269568941</v>
       </c>
       <c r="Q23">
-        <v>0.0008831676261355896</v>
+        <v>0.0008252895288062824</v>
       </c>
       <c r="R23">
-        <v>0.001104292140646713</v>
+        <v>4.088165129050218E-06</v>
       </c>
       <c r="S23">
-        <v>2.379188968051271E-06</v>
+        <v>1.075115293748558E-08</v>
       </c>
       <c r="T23">
-        <v>0.002982943367321899</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0.0009877703173296433</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>12.62898716820044</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0.0003734518425684059</v>
+        <v>-1.083036217027111</v>
       </c>
       <c r="X23">
-        <v>1.615534417486899E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -1878,61 +1878,61 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.997690833426145E-06</v>
+        <v>5.651822441275465E-06</v>
       </c>
       <c r="C24">
-        <v>0.04610800124419615</v>
+        <v>0.03198582868924821</v>
       </c>
       <c r="D24">
-        <v>0.003492889730891654</v>
+        <v>0.002179905172463914</v>
       </c>
       <c r="E24">
-        <v>0.04916631461379469</v>
+        <v>0.03441548071820964</v>
       </c>
       <c r="F24">
-        <v>6.499655181475892</v>
+        <v>6.899655325487095</v>
       </c>
       <c r="K24">
-        <v>7.685777929448623</v>
+        <v>8.314419571412559</v>
       </c>
       <c r="L24">
-        <v>8.651645403422872</v>
+        <v>7.156455676074988</v>
       </c>
       <c r="M24">
-        <v>8.364055455040361</v>
+        <v>8.314259479236135</v>
       </c>
       <c r="N24">
-        <v>0.01254223601287525</v>
+        <v>0.01116634433462607</v>
       </c>
       <c r="O24">
-        <v>0.001114828780813704</v>
+        <v>0.0007277698555609163</v>
       </c>
       <c r="P24">
-        <v>0.01101399423740751</v>
+        <v>0.0110233014542392</v>
       </c>
       <c r="Q24">
-        <v>0.0008957262791045821</v>
+        <v>0.0008363548701835308</v>
       </c>
       <c r="R24">
-        <v>0.001118419229770799</v>
+        <v>4.14043966720551E-06</v>
       </c>
       <c r="S24">
-        <v>2.409797316658533E-06</v>
+        <v>1.08590424466012E-08</v>
       </c>
       <c r="T24">
-        <v>0.003008522508988466</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>0.0009974899036689821</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>12.68754559742243</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>0.0003788052119290279</v>
+        <v>-1.063120826835348</v>
       </c>
       <c r="X24">
-        <v>1.615711103527569E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -1940,61 +1940,61 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.985631498165835E-06</v>
+        <v>5.642978761673305E-06</v>
       </c>
       <c r="C25">
-        <v>0.04666144425086245</v>
+        <v>0.0323729186050506</v>
       </c>
       <c r="D25">
-        <v>0.003544741005366471</v>
+        <v>0.002211085517440881</v>
       </c>
       <c r="E25">
-        <v>0.04978433391273202</v>
+        <v>0.03485658163246528</v>
       </c>
       <c r="F25">
-        <v>6.499638337726924</v>
+        <v>6.899638490737659</v>
       </c>
       <c r="K25">
-        <v>7.682201673499985</v>
+        <v>8.315021469012752</v>
       </c>
       <c r="L25">
-        <v>8.648833364518781</v>
+        <v>7.15792100281779</v>
       </c>
       <c r="M25">
-        <v>8.363456620137613</v>
+        <v>8.31489067373103</v>
       </c>
       <c r="N25">
-        <v>0.01269064389900592</v>
+        <v>0.01130191023695159</v>
       </c>
       <c r="O25">
-        <v>0.001128737266397574</v>
+        <v>0.000738027030286209</v>
       </c>
       <c r="P25">
-        <v>0.01114540031478807</v>
+        <v>0.01115559946182434</v>
       </c>
       <c r="Q25">
-        <v>0.0009086544368363734</v>
+        <v>0.000847734700431645</v>
       </c>
       <c r="R25">
-        <v>0.00113291285876371</v>
+        <v>4.194070584410172E-06</v>
       </c>
       <c r="S25">
-        <v>2.441304896172405E-06</v>
+        <v>1.096977640999234E-08</v>
       </c>
       <c r="T25">
-        <v>0.003034639815551057</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>0.0010074462314175</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>12.74703657871277</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>0.000384300189993183</v>
+        <v>-1.04300290217202</v>
       </c>
       <c r="X25">
-        <v>1.615889916325001E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -2002,61 +2002,61 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.973269531388424E-06</v>
+        <v>5.633906469051176E-06</v>
       </c>
       <c r="C26">
-        <v>0.04722876929356634</v>
+        <v>0.03276978482988757</v>
       </c>
       <c r="D26">
-        <v>0.003598170193427182</v>
+        <v>0.002243182647274813</v>
       </c>
       <c r="E26">
-        <v>0.05041834337951143</v>
+        <v>0.03530932924001398</v>
       </c>
       <c r="F26">
-        <v>6.499621372144366</v>
+        <v>6.899621534444071</v>
       </c>
       <c r="K26">
-        <v>7.678610778851257</v>
+        <v>8.315616525216079</v>
       </c>
       <c r="L26">
-        <v>8.646015836886095</v>
+        <v>7.159400042148912</v>
       </c>
       <c r="M26">
-        <v>8.362878581615727</v>
+        <v>8.315515007669726</v>
       </c>
       <c r="N26">
-        <v>0.01284277424943498</v>
+        <v>0.01144090870019719</v>
       </c>
       <c r="O26">
-        <v>0.001143059470036598</v>
+        <v>0.0007485837385580473</v>
       </c>
       <c r="P26">
-        <v>0.01128009433949796</v>
+        <v>0.01129122926131635</v>
       </c>
       <c r="Q26">
-        <v>0.0009219606252812698</v>
+        <v>0.000859444354672225</v>
       </c>
       <c r="R26">
-        <v>0.001147787484472493</v>
+        <v>4.249111384515437E-06</v>
       </c>
       <c r="S26">
-        <v>2.473536788551308E-06</v>
+        <v>1.108364190553243E-08</v>
       </c>
       <c r="T26">
-        <v>0.003061313415342288</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>0.001017666332647928</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>12.80749603503346</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>0.000389945465470122</v>
+        <v>-1.022687629705722</v>
       </c>
       <c r="X26">
-        <v>1.616069461057437E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -2064,61 +2064,61 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.960593420622153E-06</v>
+        <v>5.624596569178617E-06</v>
       </c>
       <c r="C27">
-        <v>0.04781051061490153</v>
+        <v>0.03317680619232241</v>
       </c>
       <c r="D27">
-        <v>0.003653250042226192</v>
+        <v>0.002276237499347573</v>
       </c>
       <c r="E27">
-        <v>0.05106896988355236</v>
+        <v>0.03577419048068215</v>
       </c>
       <c r="F27">
-        <v>6.499604281590956</v>
+        <v>6.89960445348204</v>
       </c>
       <c r="K27">
-        <v>7.674992796800747</v>
+        <v>8.316199078873113</v>
       </c>
       <c r="L27">
-        <v>8.643167148007953</v>
+        <v>7.160887791196255</v>
       </c>
       <c r="M27">
-        <v>8.362306637492663</v>
+        <v>8.316126017909548</v>
       </c>
       <c r="N27">
-        <v>0.01299877044649362</v>
+        <v>0.01158347303301904</v>
       </c>
       <c r="O27">
-        <v>0.001157803702952039</v>
+        <v>0.0007594535015365547</v>
       </c>
       <c r="P27">
-        <v>0.01141820278902085</v>
+        <v>0.01143031972673827</v>
       </c>
       <c r="Q27">
-        <v>0.0009356649996471141</v>
+        <v>0.0008715002029003278</v>
       </c>
       <c r="R27">
-        <v>0.001163058337108279</v>
+        <v>4.305618421083569E-06</v>
       </c>
       <c r="S27">
-        <v>2.506614456603616E-06</v>
+        <v>1.120092784721684E-08</v>
       </c>
       <c r="T27">
-        <v>0.003088562043111546</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>0.001028153478109317</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>12.86895612529331</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>0.000395746035591015</v>
+        <v>-1.002179662692761</v>
       </c>
       <c r="X27">
-        <v>1.616250360159963E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -2126,61 +2126,61 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4.947591065442998E-06</v>
+        <v>5.615039588194258E-06</v>
       </c>
       <c r="C28">
-        <v>0.04840723035237011</v>
+        <v>0.03359438144493018</v>
       </c>
       <c r="D28">
-        <v>0.003710057808647881</v>
+        <v>0.002310293474394046</v>
       </c>
       <c r="E28">
-        <v>0.05173687326218868</v>
+        <v>0.03625165746986612</v>
       </c>
       <c r="F28">
-        <v>6.499587062800416</v>
+        <v>6.899587244599072</v>
       </c>
       <c r="K28">
-        <v>7.671343323831899</v>
+        <v>8.316775629391328</v>
       </c>
       <c r="L28">
-        <v>8.640257633159958</v>
+        <v>7.162388740894645</v>
       </c>
       <c r="M28">
-        <v>8.361728046561103</v>
+        <v>8.316728470211618</v>
       </c>
       <c r="N28">
-        <v>0.01315878351059554</v>
+        <v>0.01172974356722827</v>
       </c>
       <c r="O28">
-        <v>0.001172980915494125</v>
+        <v>0.0007706504908904439</v>
       </c>
       <c r="P28">
-        <v>0.01155985870509347</v>
+        <v>0.0115730064770604</v>
       </c>
       <c r="Q28">
-        <v>0.0009497894072964455</v>
+        <v>0.0008839164518082427</v>
       </c>
       <c r="R28">
-        <v>0.001178741468495464</v>
+        <v>4.363651089911087E-06</v>
       </c>
       <c r="S28">
-        <v>2.54064610503036E-06</v>
+        <v>1.132165425930747E-08</v>
       </c>
       <c r="T28">
-        <v>0.003116405402098062</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>0.001038912178604947</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>12.93144658489111</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>0.0004017075300071743</v>
+        <v>-0.9814620563127257</v>
       </c>
       <c r="X28">
-        <v>1.616432833808405E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -2188,61 +2188,61 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4.934249750942829E-06</v>
+        <v>5.605225540969942E-06</v>
       </c>
       <c r="C29">
-        <v>0.04901952038721562</v>
+        <v>0.03402293059521149</v>
       </c>
       <c r="D29">
-        <v>0.003768675604688516</v>
+        <v>0.002345396623509409</v>
       </c>
       <c r="E29">
-        <v>0.05242274850845259</v>
+        <v>0.03674224920801909</v>
       </c>
       <c r="F29">
-        <v>6.49956971237051</v>
+        <v>6.899569904407316</v>
       </c>
       <c r="K29">
-        <v>7.667672811592865</v>
+        <v>8.317364150770425</v>
       </c>
       <c r="L29">
-        <v>8.637336511181962</v>
+        <v>7.163941183659802</v>
       </c>
       <c r="M29">
-        <v>8.361168563868292</v>
+        <v>8.317359613027556</v>
       </c>
       <c r="N29">
-        <v>0.01332297258724076</v>
+        <v>0.01187986812991783</v>
       </c>
       <c r="O29">
-        <v>0.001188627535632553</v>
+        <v>0.0007821884108885881</v>
       </c>
       <c r="P29">
-        <v>0.01170520212013178</v>
+        <v>0.01171943236781728</v>
       </c>
       <c r="Q29">
-        <v>0.0009643467187032727</v>
+        <v>0.0008966980990031873</v>
       </c>
       <c r="R29">
-        <v>0.00119485380852821</v>
+        <v>4.423272041084399E-06</v>
       </c>
       <c r="S29">
-        <v>2.57552302436034E-06</v>
+        <v>1.144498664398258E-08</v>
       </c>
       <c r="T29">
-        <v>0.00314486421337879</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>0.001049966644433748</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>12.99500501597219</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>0.0004078385747399545</v>
+        <v>-0.9604971967449245</v>
       </c>
       <c r="X29">
-        <v>1.616616359420357E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -2250,61 +2250,61 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.920556083741471E-06</v>
+        <v>5.595143908239216E-06</v>
       </c>
       <c r="C30">
-        <v>0.04964800434252849</v>
+        <v>0.03446289634481847</v>
       </c>
       <c r="D30">
-        <v>0.003829190797911437</v>
+        <v>0.002381595848151848</v>
       </c>
       <c r="E30">
-        <v>0.05312732809898412</v>
+        <v>0.03724651343495097</v>
       </c>
       <c r="F30">
-        <v>6.499552226754499</v>
+        <v>6.89955242937558</v>
       </c>
       <c r="K30">
-        <v>7.663976699279469</v>
+        <v>8.317921634405142</v>
       </c>
       <c r="L30">
-        <v>8.634380020740156</v>
+        <v>7.165473009515894</v>
       </c>
       <c r="M30">
-        <v>8.360617692310232</v>
+        <v>8.317945416495588</v>
       </c>
       <c r="N30">
-        <v>0.01349150515740199</v>
+        <v>0.0120340025704599</v>
       </c>
       <c r="O30">
-        <v>0.001204758060284904</v>
+        <v>0.0007940850760657795</v>
       </c>
       <c r="P30">
-        <v>0.01185438066737385</v>
+        <v>0.01186974812155081</v>
       </c>
       <c r="Q30">
-        <v>0.0009793599727382478</v>
+        <v>0.000909884008128614</v>
       </c>
       <c r="R30">
-        <v>0.001211413229160207</v>
+        <v>4.484547416840516E-06</v>
       </c>
       <c r="S30">
-        <v>2.611346928623264E-06</v>
+        <v>1.157301871042882E-08</v>
       </c>
       <c r="T30">
-        <v>0.003173960012947471</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>0.001061323733469662</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>13.0596671474781</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>0.000414145080195612</v>
+        <v>-0.9393562599926781</v>
       </c>
       <c r="X30">
-        <v>1.616801165036026E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -2312,61 +2312,61 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.906495975856163E-06</v>
+        <v>5.58478358274927E-06</v>
       </c>
       <c r="C31">
-        <v>0.05029333974456536</v>
+        <v>0.03491474564758842</v>
       </c>
       <c r="D31">
-        <v>0.003891696416882857</v>
+        <v>0.002418943129473208</v>
       </c>
       <c r="E31">
-        <v>0.05385138456102098</v>
+        <v>0.03776502862682045</v>
       </c>
       <c r="F31">
-        <v>6.499534602253727</v>
+        <v>6.899534815821492</v>
       </c>
       <c r="K31">
-        <v>7.660246116896179</v>
+        <v>8.318489275322307</v>
       </c>
       <c r="L31">
-        <v>8.631370421008693</v>
+        <v>7.167052576082439</v>
       </c>
       <c r="M31">
-        <v>8.360064670007993</v>
+        <v>8.318554691775006</v>
       </c>
       <c r="N31">
-        <v>0.01366455793341772</v>
+        <v>0.01219231126756404</v>
       </c>
       <c r="O31">
-        <v>0.001221388696940323</v>
+        <v>0.0008063553422300159</v>
       </c>
       <c r="P31">
-        <v>0.0120075499729321</v>
+        <v>0.01202411240483845</v>
       </c>
       <c r="Q31">
-        <v>0.0009948545801958678</v>
+        <v>0.0009234719494834896</v>
       </c>
       <c r="R31">
-        <v>0.001228438607783188</v>
+        <v>4.547547056250799E-06</v>
       </c>
       <c r="S31">
-        <v>2.648228456994771E-06</v>
+        <v>1.170408877693799E-08</v>
       </c>
       <c r="T31">
-        <v>0.003203715453503497</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>0.001072990966531463</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>13.12546745696457</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>0.0004206340623533401</v>
+        <v>-0.9179592652142397</v>
       </c>
       <c r="X31">
-        <v>1.616987694155191E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -2374,61 +2374,61 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.892054579758766E-06</v>
+        <v>5.574132843604368E-06</v>
       </c>
       <c r="C32">
-        <v>0.05095622036353226</v>
+        <v>0.0353789713978472</v>
       </c>
       <c r="D32">
-        <v>0.003956291626509604</v>
+        <v>0.002457493767414302</v>
       </c>
       <c r="E32">
-        <v>0.05459573320245823</v>
+        <v>0.03829840617426175</v>
       </c>
       <c r="F32">
-        <v>6.499516835008102</v>
+        <v>6.899517059902267</v>
       </c>
       <c r="K32">
-        <v>7.65649203874949</v>
+        <v>8.319047624556713</v>
       </c>
       <c r="L32">
-        <v>8.628345259805625</v>
+        <v>7.168640870314223</v>
       </c>
       <c r="M32">
-        <v>8.359532734767731</v>
+        <v>8.319146439098562</v>
       </c>
       <c r="N32">
-        <v>0.01384231749393883</v>
+        <v>0.0123549677807831</v>
       </c>
       <c r="O32">
-        <v>0.001238558132269838</v>
+        <v>0.000819018891925853</v>
       </c>
       <c r="P32">
-        <v>0.01216487419282833</v>
+        <v>0.01218269298277209</v>
       </c>
       <c r="Q32">
-        <v>0.001010847075408257</v>
+        <v>0.0009374942577640285</v>
       </c>
       <c r="R32">
-        <v>0.001245949898916419</v>
+        <v>4.612344812928997E-06</v>
       </c>
       <c r="S32">
-        <v>2.686069622818156E-06</v>
+        <v>1.183946330430924E-08</v>
       </c>
       <c r="T32">
-        <v>0.003234154374745955</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>0.001084993680900797</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>13.19244742490446</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>0.0004273143926562163</v>
+        <v>-0.8963352715689048</v>
       </c>
       <c r="X32">
-        <v>1.617175398062525E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -2436,61 +2436,61 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.877216258865608E-06</v>
+        <v>5.56317930488455E-06</v>
       </c>
       <c r="C33">
-        <v>0.05163737875102533</v>
+        <v>0.03585609426205637</v>
       </c>
       <c r="D33">
-        <v>0.004023082223489976</v>
+        <v>0.00249730665157537</v>
       </c>
       <c r="E33">
-        <v>0.05536123510459545</v>
+        <v>0.03884729273738027</v>
       </c>
       <c r="F33">
-        <v>6.499498920986615</v>
+        <v>6.899499157605447</v>
       </c>
       <c r="K33">
-        <v>7.652699421016455</v>
+        <v>8.319589380150408</v>
       </c>
       <c r="L33">
-        <v>8.625256266921562</v>
+        <v>7.17023147329586</v>
       </c>
       <c r="M33">
-        <v>8.358994438490852</v>
+        <v>8.319712800098856</v>
       </c>
       <c r="N33">
-        <v>0.01402498067309345</v>
+        <v>0.012522155445839</v>
       </c>
       <c r="O33">
-        <v>0.001256273580656385</v>
+        <v>0.0008320950773175649</v>
       </c>
       <c r="P33">
-        <v>0.01232652675974746</v>
+        <v>0.01234566687733742</v>
       </c>
       <c r="Q33">
-        <v>0.001027369369642502</v>
+        <v>0.0009519741626978093</v>
       </c>
       <c r="R33">
-        <v>0.001263968215282993</v>
+        <v>4.679018803503268E-06</v>
       </c>
       <c r="S33">
-        <v>2.725092713626508E-06</v>
+        <v>1.197954829012746E-08</v>
       </c>
       <c r="T33">
-        <v>0.003265301631178494</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>0.001097332185573934</v>
+        <v>0</v>
       </c>
       <c r="V33">
-        <v>13.26064348200358</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>0.0004341934275520188</v>
+        <v>-0.8744905141936705</v>
       </c>
       <c r="X33">
-        <v>1.617365028949177E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -2498,61 +2498,61 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.861964503815498E-06</v>
+        <v>5.551909874756561E-06</v>
       </c>
       <c r="C34">
-        <v>0.05233758899407732</v>
+        <v>0.03634666466809286</v>
       </c>
       <c r="D34">
-        <v>0.0040921812174078</v>
+        <v>0.00253844455293697</v>
       </c>
       <c r="E34">
-        <v>0.05614880032315666</v>
+        <v>0.03941237281032255</v>
       </c>
       <c r="F34">
-        <v>6.499480855977115</v>
+        <v>6.899481104738445</v>
       </c>
       <c r="K34">
-        <v>7.648886906617657</v>
+        <v>8.320129739581427</v>
       </c>
       <c r="L34">
-        <v>8.622149741542851</v>
+        <v>7.171877498204742</v>
       </c>
       <c r="M34">
-        <v>8.358480133545465</v>
+        <v>8.32030673773763</v>
       </c>
       <c r="N34">
-        <v>0.014212755777394</v>
+        <v>0.01269406809831726</v>
       </c>
       <c r="O34">
-        <v>0.001274583356558985</v>
+        <v>0.0008456021157025181</v>
       </c>
       <c r="P34">
-        <v>0.01249269083901371</v>
+        <v>0.01251322118196448</v>
       </c>
       <c r="Q34">
-        <v>0.001044440540305558</v>
+        <v>0.0009669166328155119</v>
       </c>
       <c r="R34">
-        <v>0.001282515908261954</v>
+        <v>4.747651733726991E-06</v>
       </c>
       <c r="S34">
-        <v>2.765155391049113E-06</v>
+        <v>1.212307651269919E-08</v>
       </c>
       <c r="T34">
-        <v>0.003297183534790325</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>0.001110037386661091</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>13.33010076510979</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>0.0004412819564238689</v>
+        <v>-0.8523906267300667</v>
       </c>
       <c r="X34">
-        <v>1.617555654669117E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -2560,61 +2560,61 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.846281891569299E-06</v>
+        <v>5.540310691781485E-06</v>
       </c>
       <c r="C35">
-        <v>0.05305766970716194</v>
+        <v>0.03685126496831907</v>
       </c>
       <c r="D35">
-        <v>0.004163709437058665</v>
+        <v>0.002580974452194971</v>
       </c>
       <c r="E35">
-        <v>0.05695939140088288</v>
+        <v>0.03999437150271999</v>
       </c>
       <c r="F35">
-        <v>6.49946263557532</v>
+        <v>6.899462896917935</v>
       </c>
       <c r="K35">
-        <v>7.645034260284578</v>
+        <v>8.320660172657615</v>
       </c>
       <c r="L35">
-        <v>8.61897927777194</v>
+        <v>7.173520250222301</v>
       </c>
       <c r="M35">
-        <v>8.357960358211619</v>
+        <v>8.320867512953816</v>
       </c>
       <c r="N35">
-        <v>0.01440586282845123</v>
+        <v>0.01287091087417718</v>
       </c>
       <c r="O35">
-        <v>0.001293497098179793</v>
+        <v>0.0008595641675793447</v>
       </c>
       <c r="P35">
-        <v>0.01266356024645711</v>
+        <v>0.01268555408568312</v>
       </c>
       <c r="Q35">
-        <v>0.00106209720853803</v>
+        <v>0.000982364763163599</v>
       </c>
       <c r="R35">
-        <v>0.00130161666576749</v>
+        <v>4.81833126592422E-06</v>
       </c>
       <c r="S35">
-        <v>2.806507720727039E-06</v>
+        <v>1.227193677994667E-08</v>
       </c>
       <c r="T35">
-        <v>0.003329827507150464</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>0.001123110276645576</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>13.40085950984425</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>0.0004485870277788087</v>
+        <v>-0.8300443333243628</v>
       </c>
       <c r="X35">
-        <v>1.617748286985771E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -2622,61 +2622,61 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4.830150029049622E-06</v>
+        <v>5.528367086026367E-06</v>
       </c>
       <c r="C36">
-        <v>0.053798487287012</v>
+        <v>0.03737051179432095</v>
       </c>
       <c r="D36">
-        <v>0.004237796207424625</v>
+        <v>0.002624967889199807</v>
       </c>
       <c r="E36">
-        <v>0.05779402717131377</v>
+        <v>0.04059405758184326</v>
       </c>
       <c r="F36">
-        <v>6.4994442551726</v>
+        <v>6.899444529557426</v>
       </c>
       <c r="K36">
-        <v>7.641157774140345</v>
+        <v>8.321172278288344</v>
       </c>
       <c r="L36">
-        <v>8.615785646697361</v>
+        <v>7.175182159287149</v>
       </c>
       <c r="M36">
-        <v>8.357462612370469</v>
+        <v>8.321416282967212</v>
       </c>
       <c r="N36">
-        <v>0.01460453503648565</v>
+        <v>0.0130529009757923</v>
       </c>
       <c r="O36">
-        <v>0.001313064105670276</v>
+        <v>0.000874003203226799</v>
       </c>
       <c r="P36">
-        <v>0.01283933998945589</v>
+        <v>0.01286287513602432</v>
       </c>
       <c r="Q36">
-        <v>0.001080361564210767</v>
+        <v>0.0009983364314665722</v>
       </c>
       <c r="R36">
-        <v>0.001321295607556078</v>
+        <v>4.891150346668831E-06</v>
       </c>
       <c r="S36">
-        <v>2.849027735960977E-06</v>
+        <v>1.242577540221085E-08</v>
       </c>
       <c r="T36">
-        <v>0.003363262616703568</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>0.001136582389836448</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>13.47296797710579</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>0.0004561208737119243</v>
+        <v>-0.8074588725690397</v>
       </c>
       <c r="X36">
-        <v>1.617942111292983E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -2684,61 +2684,61 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4.813549465633459E-06</v>
+        <v>5.516063504902338E-06</v>
       </c>
       <c r="C37">
-        <v>0.0545609594574672</v>
+        <v>0.03790505862363051</v>
       </c>
       <c r="D37">
-        <v>0.004314580118086698</v>
+        <v>0.002670501361074904</v>
       </c>
       <c r="E37">
-        <v>0.05865378687331686</v>
+        <v>0.04121224677608616</v>
       </c>
       <c r="F37">
-        <v>6.499425709943291</v>
+        <v>6.899425997855018</v>
       </c>
       <c r="K37">
-        <v>7.637241309166968</v>
+        <v>8.321689579707163</v>
       </c>
       <c r="L37">
-        <v>8.612541573135269</v>
+        <v>7.176883940498329</v>
       </c>
       <c r="M37">
-        <v>8.35697012819791</v>
+        <v>8.321971717428951</v>
       </c>
       <c r="N37">
-        <v>0.01480901920465204</v>
+        <v>0.01324026863383177</v>
       </c>
       <c r="O37">
-        <v>0.001333306212103258</v>
+        <v>0.0008889443042573835</v>
       </c>
       <c r="P37">
-        <v>0.01302024734984428</v>
+        <v>0.01304540650070983</v>
       </c>
       <c r="Q37">
-        <v>0.001099270435969839</v>
+        <v>0.001014853378023861</v>
       </c>
       <c r="R37">
-        <v>0.001341579401091772</v>
+        <v>4.96620764776524E-06</v>
       </c>
       <c r="S37">
-        <v>2.89289056232085E-06</v>
+        <v>1.258428359415769E-08</v>
       </c>
       <c r="T37">
-        <v>0.003397519235578446</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>0.001150463400946363</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>13.54647283081562</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>0.0004638920278323651</v>
+        <v>-0.7845845176206439</v>
       </c>
       <c r="X37">
-        <v>1.618137934541652E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -2746,61 +2746,61 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4.796459640929659E-06</v>
+        <v>5.503383454769524E-06</v>
       </c>
       <c r="C38">
-        <v>0.05534605913464501</v>
+        <v>0.03845559858085793</v>
       </c>
       <c r="D38">
-        <v>0.004394209842396028</v>
+        <v>0.002717656752755481</v>
       </c>
       <c r="E38">
-        <v>0.05953981466402981</v>
+        <v>0.04184980538922117</v>
       </c>
       <c r="F38">
-        <v>6.499406994830473</v>
+        <v>6.899407296779121</v>
       </c>
       <c r="K38">
-        <v>7.63329749561543</v>
+        <v>8.322202161854579</v>
       </c>
       <c r="L38">
-        <v>8.609257516212702</v>
+        <v>7.178623060268265</v>
       </c>
       <c r="M38">
-        <v>8.356492406249288</v>
+        <v>8.322531957916741</v>
       </c>
       <c r="N38">
-        <v>0.01501957722016061</v>
+        <v>0.01343325807648136</v>
       </c>
       <c r="O38">
-        <v>0.001354266577420177</v>
+        <v>0.0009044137732077327</v>
       </c>
       <c r="P38">
-        <v>0.01320651261412356</v>
+        <v>0.01323338389325179</v>
       </c>
       <c r="Q38">
-        <v>0.001118856901973737</v>
+        <v>0.001031944366336109</v>
       </c>
       <c r="R38">
-        <v>0.001362496377818794</v>
+        <v>5.043608012830413E-06</v>
       </c>
       <c r="S38">
-        <v>2.938101812650454E-06</v>
+        <v>1.274775567398253E-08</v>
       </c>
       <c r="T38">
-        <v>0.003432629482994572</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>0.001164777693486094</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>13.62142492358908</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>0.0004719138237909237</v>
+        <v>-0.761431096764781</v>
       </c>
       <c r="X38">
-        <v>1.618335125219228E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -2808,61 +2808,61 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.778858789223352E-06</v>
+        <v>5.490309431538177E-06</v>
       </c>
       <c r="C39">
-        <v>0.05615481864722038</v>
+        <v>0.03902286749876432</v>
       </c>
       <c r="D39">
-        <v>0.004476845075481573</v>
+        <v>0.002766521815579705</v>
       </c>
       <c r="E39">
-        <v>0.06045332450236907</v>
+        <v>0.04250765425051789</v>
       </c>
       <c r="F39">
-        <v>6.499388104530839</v>
+        <v>6.899388421053624</v>
       </c>
       <c r="K39">
-        <v>7.629313539854915</v>
+        <v>8.322689667361002</v>
       </c>
       <c r="L39">
-        <v>8.60591395302697</v>
+        <v>7.180352340959362</v>
       </c>
       <c r="M39">
-        <v>8.356020555467794</v>
+        <v>8.323048438557894</v>
       </c>
       <c r="N39">
-        <v>0.01523648691290253</v>
+        <v>0.01363212862097777</v>
       </c>
       <c r="O39">
-        <v>0.001375976425328404</v>
+        <v>0.000920441332598437</v>
       </c>
       <c r="P39">
-        <v>0.01339838016511007</v>
+        <v>0.01342705753653617</v>
       </c>
       <c r="Q39">
-        <v>0.001139159688655562</v>
+        <v>0.001049655828073016</v>
       </c>
       <c r="R39">
-        <v>0.00138407666791413</v>
+        <v>5.123462937547181E-06</v>
       </c>
       <c r="S39">
-        <v>2.984793167153315E-06</v>
+        <v>1.291789243773134E-08</v>
       </c>
       <c r="T39">
-        <v>0.003468627130447087</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>0.001179541544075777</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>13.69787575649583</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>0.0004801968013396222</v>
+        <v>-0.7380263711085142</v>
       </c>
       <c r="X39">
-        <v>1.618534323007254E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -2870,61 +2870,61 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.760723846523492E-06</v>
+        <v>5.476822826897779E-06</v>
       </c>
       <c r="C40">
-        <v>0.05698833434999036</v>
+        <v>0.03960764726784794</v>
       </c>
       <c r="D40">
-        <v>0.004562657569557589</v>
+        <v>0.002817190705364138</v>
       </c>
       <c r="E40">
-        <v>0.0613956054892691</v>
+        <v>0.04318677302577903</v>
       </c>
       <c r="F40">
-        <v>6.499369033479139</v>
+        <v>6.899369365142097</v>
       </c>
       <c r="K40">
-        <v>7.625291956177299</v>
+        <v>8.323183040150477</v>
       </c>
       <c r="L40">
-        <v>8.602525593868991</v>
+        <v>7.182148294678821</v>
       </c>
       <c r="M40">
-        <v>8.355560932327869</v>
+        <v>8.323592800255982</v>
       </c>
       <c r="N40">
-        <v>0.01546004353366985</v>
+        <v>0.01383715583530647</v>
       </c>
       <c r="O40">
-        <v>0.001398481955651541</v>
+        <v>0.000937055155357629</v>
       </c>
       <c r="P40">
-        <v>0.01359610952763353</v>
+        <v>0.013626693047963</v>
       </c>
       <c r="Q40">
-        <v>0.001160217725171321</v>
+        <v>0.001067996810431544</v>
       </c>
       <c r="R40">
-        <v>0.001406352343313275</v>
+        <v>5.205891083436044E-06</v>
       </c>
       <c r="S40">
-        <v>3.033000366975926E-06</v>
+        <v>1.309285587685105E-08</v>
       </c>
       <c r="T40">
-        <v>0.00350554786571114</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>0.001194780579331991</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>13.77588075497082</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>0.0004887537862356627</v>
+        <v>-0.7143062267663893</v>
       </c>
       <c r="X40">
-        <v>1.618735402191135E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -2932,61 +2932,61 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4.742030380845709E-06</v>
+        <v>5.462903864033559E-06</v>
       </c>
       <c r="C41">
-        <v>0.05784777167425976</v>
+        <v>0.04021076950657719</v>
       </c>
       <c r="D41">
-        <v>0.004651832260173608</v>
+        <v>0.002869764563069984</v>
       </c>
       <c r="E41">
-        <v>0.06236802771894236</v>
+        <v>0.04388820496197527</v>
       </c>
       <c r="F41">
-        <v>6.499349775829224</v>
+        <v>6.899350123229562</v>
       </c>
       <c r="K41">
-        <v>7.621236010662856</v>
+        <v>8.323650982497998</v>
       </c>
       <c r="L41">
-        <v>8.599086965085014</v>
+        <v>7.183953831406279</v>
       </c>
       <c r="M41">
-        <v>8.355114513498139</v>
+        <v>8.324106333319202</v>
       </c>
       <c r="N41">
-        <v>0.01569056093658818</v>
+        <v>0.0140486328956335</v>
       </c>
       <c r="O41">
-        <v>0.001421828656074258</v>
+        <v>0.0009542908110575734</v>
       </c>
       <c r="P41">
-        <v>0.01379997660636242</v>
+        <v>0.01383257331415204</v>
       </c>
       <c r="Q41">
-        <v>0.001182074555734007</v>
+        <v>0.001087023297074235</v>
       </c>
       <c r="R41">
-        <v>0.001429357578443542</v>
+        <v>5.291018923232096E-06</v>
       </c>
       <c r="S41">
-        <v>3.082799275076079E-06</v>
+        <v>1.327471538162368E-08</v>
       </c>
       <c r="T41">
-        <v>0.003543429296635388</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>0.001210518850623349</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>13.85549822649865</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>0.000497599447508815</v>
+        <v>-0.6903169569064787</v>
       </c>
       <c r="X41">
-        <v>1.618938199466857E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -2994,61 +2994,61 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4.722752464475176E-06</v>
+        <v>5.448531485292399E-06</v>
       </c>
       <c r="C42">
-        <v>0.05873437066449452</v>
+        <v>0.04083311958896898</v>
       </c>
       <c r="D42">
-        <v>0.004744568565275323</v>
+        <v>0.002924352178820826</v>
       </c>
       <c r="E42">
-        <v>0.06337204863991029</v>
+        <v>0.04461306206994772</v>
       </c>
       <c r="F42">
-        <v>6.49933032543595</v>
+        <v>6.899330689204001</v>
       </c>
       <c r="K42">
-        <v>7.61714519151993</v>
+        <v>8.324111979031265</v>
       </c>
       <c r="L42">
-        <v>8.595616955393856</v>
+        <v>7.185782509492626</v>
       </c>
       <c r="M42">
-        <v>8.354692007496006</v>
+        <v>8.324603698637898</v>
       </c>
       <c r="N42">
-        <v>0.01592837314126341</v>
+        <v>0.01426687193037643</v>
       </c>
       <c r="O42">
-        <v>0.0014460707667749</v>
+        <v>0.0009721819961462231</v>
       </c>
       <c r="P42">
-        <v>0.01401027497387289</v>
+        <v>0.01404499914777</v>
       </c>
       <c r="Q42">
-        <v>0.001204771649712615</v>
+        <v>0.001106767193408513</v>
       </c>
       <c r="R42">
-        <v>0.001453128824763016</v>
+        <v>5.378981326696271E-06</v>
       </c>
       <c r="S42">
-        <v>3.134204870226488E-06</v>
+        <v>1.346336849768228E-08</v>
       </c>
       <c r="T42">
-        <v>0.003582311137402256</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>0.0012267879760226</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>13.9367915949268</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>0.0005067481608762625</v>
+        <v>-0.6660165207520592</v>
       </c>
       <c r="X42">
-        <v>1.619142740424003E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -3056,61 +3056,61 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4.702862568589452E-06</v>
+        <v>5.433683265869057E-06</v>
       </c>
       <c r="C43">
-        <v>0.05964945205600672</v>
+        <v>0.04147564107049691</v>
       </c>
       <c r="D43">
-        <v>0.004841081809034791</v>
+        <v>0.002981070715187852</v>
       </c>
       <c r="E43">
-        <v>0.06440922003820547</v>
+        <v>0.04536253083943834</v>
       </c>
       <c r="F43">
-        <v>6.49931067583332</v>
+        <v>6.899311056635166</v>
       </c>
       <c r="K43">
-        <v>7.613012195599011</v>
+        <v>8.32457301966598</v>
       </c>
       <c r="L43">
-        <v>8.592057273770946</v>
+        <v>7.18766765829743</v>
       </c>
       <c r="M43">
-        <v>8.354265793118143</v>
+        <v>8.325114070950013</v>
       </c>
       <c r="N43">
-        <v>0.01617383589337339</v>
+        <v>0.01449220565807525</v>
       </c>
       <c r="O43">
-        <v>0.00147124125636269</v>
+        <v>0.0009907667509404616</v>
       </c>
       <c r="P43">
-        <v>0.01422731740309594</v>
+        <v>0.01426429121479308</v>
       </c>
       <c r="Q43">
-        <v>0.001228369612674452</v>
+        <v>0.001127260352341371</v>
       </c>
       <c r="R43">
-        <v>0.001477705004761199</v>
+        <v>5.46992230903862E-06</v>
       </c>
       <c r="S43">
-        <v>3.187513574145179E-06</v>
+        <v>1.365826435732331E-08</v>
       </c>
       <c r="T43">
-        <v>0.003622235258781573</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>0.001243599542410569</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>14.0198221090646</v>
+        <v>0</v>
       </c>
       <c r="W43">
-        <v>0.00051621453522702</v>
+        <v>-0.6413819299488388</v>
       </c>
       <c r="X43">
-        <v>1.619349390220049E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -3118,61 +3118,61 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.682331451674645E-06</v>
+        <v>5.41833528328398E-06</v>
       </c>
       <c r="C44">
-        <v>0.06059442395681656</v>
+        <v>0.04213934055938155</v>
       </c>
       <c r="D44">
-        <v>0.004941604813484086</v>
+        <v>0.003040046530789966</v>
       </c>
       <c r="E44">
-        <v>0.06548119570810303</v>
+        <v>0.0461378785051603</v>
       </c>
       <c r="F44">
-        <v>6.499290820212558</v>
+        <v>6.89929121875257</v>
       </c>
       <c r="K44">
-        <v>7.608836873925062</v>
+        <v>8.325011821638077</v>
       </c>
       <c r="L44">
-        <v>8.588462242543104</v>
+        <v>7.18957034191738</v>
       </c>
       <c r="M44">
-        <v>8.353864064844055</v>
+        <v>8.325597063451067</v>
       </c>
       <c r="N44">
-        <v>0.01642732890435633</v>
+        <v>0.0147249890875086</v>
       </c>
       <c r="O44">
-        <v>0.001497414328107961</v>
+        <v>0.001010086707423893</v>
       </c>
       <c r="P44">
-        <v>0.01445143719258597</v>
+        <v>0.01449079174690431</v>
       </c>
       <c r="Q44">
-        <v>0.001252911713112222</v>
+        <v>0.001148560139289276</v>
       </c>
       <c r="R44">
-        <v>0.001503127720126493</v>
+        <v>5.563995827050365E-06</v>
       </c>
       <c r="S44">
-        <v>3.242624259868077E-06</v>
+        <v>1.386104682967171E-08</v>
       </c>
       <c r="T44">
-        <v>0.003663246219408658</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>0.001260998858884338</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>14.10466008354748</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>0.000526015527069072</v>
+        <v>-0.6164416802930326</v>
       </c>
       <c r="X44">
-        <v>1.619558156303747E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -3180,61 +3180,61 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4.661128019761421E-06</v>
+        <v>5.402462008004768E-06</v>
       </c>
       <c r="C45">
-        <v>0.06157078920494521</v>
+        <v>0.04282529308619895</v>
       </c>
       <c r="D45">
-        <v>0.005046389698939746</v>
+        <v>0.003101416085519212</v>
       </c>
       <c r="E45">
-        <v>0.066589739841178</v>
+        <v>0.04694045997100433</v>
       </c>
       <c r="F45">
-        <v>6.499270751396425</v>
+        <v>6.899271168420407</v>
       </c>
       <c r="K45">
-        <v>7.604623654664174</v>
+        <v>8.325433951462388</v>
       </c>
       <c r="L45">
-        <v>8.584813837351145</v>
+        <v>7.191504505737247</v>
       </c>
       <c r="M45">
-        <v>8.353480315642667</v>
+        <v>8.326063200977462</v>
       </c>
       <c r="N45">
-        <v>0.01668925723025542</v>
+        <v>0.01496560140996623</v>
       </c>
       <c r="O45">
-        <v>0.001524646411987965</v>
+        <v>0.001030185706971425</v>
       </c>
       <c r="P45">
-        <v>0.01468299027117323</v>
+        <v>0.0147248659856344</v>
       </c>
       <c r="Q45">
-        <v>0.001278459729913955</v>
+        <v>0.001170710463336383</v>
       </c>
       <c r="R45">
-        <v>0.001529441493738188</v>
+        <v>5.661366612668272E-06</v>
       </c>
       <c r="S45">
-        <v>3.299692986493406E-06</v>
+        <v>1.407181460475736E-08</v>
       </c>
       <c r="T45">
-        <v>0.003705390909944172</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>0.001279013285806683</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>14.19137815318134</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>0.0005361694998451163</v>
+        <v>-0.5911751278178414</v>
       </c>
       <c r="X45">
-        <v>1.619768817266791E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -3242,61 +3242,61 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.639219184887667E-06</v>
+        <v>5.386036156168258E-06</v>
       </c>
       <c r="C46">
-        <v>0.06258015348183817</v>
+        <v>0.04353464803263966</v>
       </c>
       <c r="D46">
-        <v>0.005155709899664289</v>
+        <v>0.003165326967641472</v>
       </c>
       <c r="E46">
-        <v>0.0677367362686801</v>
+        <v>0.04777172543391936</v>
       </c>
       <c r="F46">
-        <v>6.499250461813004</v>
+        <v>6.899250898111134</v>
       </c>
       <c r="K46">
-        <v>7.600359501044864</v>
+        <v>8.325861713948688</v>
       </c>
       <c r="L46">
-        <v>8.581090669995573</v>
+        <v>7.19350732217111</v>
       </c>
       <c r="M46">
-        <v>8.353104852441875</v>
+        <v>8.32655281372616</v>
       </c>
       <c r="N46">
-        <v>0.0169600538520102</v>
+        <v>0.01521444811894828</v>
       </c>
       <c r="O46">
-        <v>0.00155299437672342</v>
+        <v>0.001051110494964935</v>
       </c>
       <c r="P46">
-        <v>0.01492235688798143</v>
+        <v>0.01496690447710401</v>
       </c>
       <c r="Q46">
-        <v>0.001305079225299512</v>
+        <v>0.001193748289991124</v>
       </c>
       <c r="R46">
-        <v>0.001556694025894469</v>
+        <v>5.762211162633692E-06</v>
       </c>
       <c r="S46">
-        <v>3.358920822438692E-06</v>
+        <v>1.428969018002686E-08</v>
       </c>
       <c r="T46">
-        <v>0.00374871908180377</v>
+        <v>0</v>
       </c>
       <c r="U46">
-        <v>0.001297671247341885</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>14.28005134636636</v>
+        <v>0</v>
       </c>
       <c r="W46">
-        <v>0.0005466945488932606</v>
+        <v>-0.5655312381043771</v>
       </c>
       <c r="X46">
-        <v>1.619982024947757E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -3304,61 +3304,61 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.616569691709316E-06</v>
+        <v>5.369028556705242E-06</v>
       </c>
       <c r="C47">
-        <v>0.06362423427424133</v>
+        <v>0.04426863568836689</v>
       </c>
       <c r="D47">
-        <v>0.005269862452005231</v>
+        <v>0.003231939032641956</v>
       </c>
       <c r="E47">
-        <v>0.0689241985990599</v>
+        <v>0.04863322882799773</v>
       </c>
       <c r="F47">
-        <v>6.499229943465267</v>
+        <v>6.899230399875471</v>
       </c>
       <c r="K47">
-        <v>7.596058991473797</v>
+        <v>8.326253064411519</v>
       </c>
       <c r="L47">
-        <v>8.577318239181892</v>
+        <v>7.195510761609686</v>
       </c>
       <c r="M47">
-        <v>8.352754266603656</v>
+        <v>8.326984633821507</v>
       </c>
       <c r="N47">
-        <v>0.01724018220610632</v>
+        <v>0.01547196334847525</v>
       </c>
       <c r="O47">
-        <v>0.001582542353305401</v>
+        <v>0.001072916025063012</v>
       </c>
       <c r="P47">
-        <v>0.01516994375457564</v>
+        <v>0.01521732549868788</v>
       </c>
       <c r="Q47">
-        <v>0.001332835044099227</v>
+        <v>0.001217759338682261</v>
       </c>
       <c r="R47">
-        <v>0.001584936482350324</v>
+        <v>5.866718825769213E-06</v>
       </c>
       <c r="S47">
-        <v>3.420307317461172E-06</v>
+        <v>1.451783674771282E-08</v>
       </c>
       <c r="T47">
-        <v>0.003793283587884895</v>
+        <v>0</v>
       </c>
       <c r="U47">
-        <v>0.001317018230397876</v>
+        <v>0</v>
       </c>
       <c r="V47">
-        <v>14.37076202201284</v>
+        <v>0</v>
       </c>
       <c r="W47">
-        <v>0.0005576126692923296</v>
+        <v>-0.5395712442071385</v>
       </c>
       <c r="X47">
-        <v>1.62019705042631E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -3366,61 +3366,61 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.543929512109243E-06</v>
+        <v>6.207021138707451E-06</v>
       </c>
       <c r="C48">
-        <v>0.06470487078946793</v>
+        <v>0.04502857451532476</v>
       </c>
       <c r="D48">
-        <v>0.00439872553041856</v>
+        <v>0.002771534963259502</v>
       </c>
       <c r="E48">
-        <v>0.06820360330058037</v>
+        <v>0.04778193816477314</v>
       </c>
       <c r="F48">
-        <v>7.509229943465267</v>
+        <v>7.799230399875471</v>
       </c>
       <c r="K48">
-        <v>7.591704756871143</v>
+        <v>8.326645543326959</v>
       </c>
       <c r="L48">
-        <v>8.584520553164896</v>
+        <v>7.138546443440928</v>
       </c>
       <c r="M48">
-        <v>8.330646135518709</v>
+        <v>8.327192362107546</v>
       </c>
       <c r="N48">
-        <v>0.01753013849967671</v>
+        <v>0.01573861237298288</v>
       </c>
       <c r="O48">
-        <v>0.001365376264582233</v>
+        <v>0.000919579050300706</v>
       </c>
       <c r="P48">
-        <v>0.01542618650847336</v>
+        <v>0.01547657672387317</v>
       </c>
       <c r="Q48">
-        <v>0.001140530365711035</v>
+        <v>0.001061919247714722</v>
       </c>
       <c r="R48">
-        <v>0.001614223818925006</v>
+        <v>5.9750929181585E-06</v>
       </c>
       <c r="S48">
-        <v>3.075839185344085E-06</v>
+        <v>1.248496005537122E-08</v>
       </c>
       <c r="T48">
-        <v>0.003839140353764285</v>
+        <v>0</v>
       </c>
       <c r="U48">
-        <v>0.001167738950853414</v>
+        <v>0</v>
       </c>
       <c r="V48">
-        <v>14.41311156282974</v>
+        <v>0</v>
       </c>
       <c r="W48">
-        <v>0.0005689467972511613</v>
+        <v>-0.5132164129739465</v>
       </c>
       <c r="X48">
-        <v>1.620414762156443E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -3428,61 +3428,61 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.519802444108908E-06</v>
+        <v>6.18937873027343E-06</v>
       </c>
       <c r="C49">
-        <v>0.06584272258680848</v>
+        <v>0.0458258771483826</v>
       </c>
       <c r="D49">
-        <v>0.004497161327949843</v>
+        <v>0.002830433554860783</v>
       </c>
       <c r="E49">
-        <v>0.06944598940113041</v>
+        <v>0.04866671100621491</v>
       </c>
       <c r="F49">
-        <v>7.509229943465267</v>
+        <v>7.799230399875471</v>
       </c>
       <c r="K49">
-        <v>7.587563723818619</v>
+        <v>8.326901683361871</v>
       </c>
       <c r="L49">
-        <v>8.573235496366078</v>
+        <v>7.140238676851255</v>
       </c>
       <c r="M49">
-        <v>8.326571172269604</v>
+        <v>8.327388587474706</v>
       </c>
       <c r="N49">
-        <v>0.01783513401354641</v>
+        <v>0.01601821677529764</v>
       </c>
       <c r="O49">
-        <v>0.001389984534093377</v>
+        <v>0.0009394846279893063</v>
       </c>
       <c r="P49">
-        <v>0.01569572719041227</v>
+        <v>0.01574855139323465</v>
       </c>
       <c r="Q49">
-        <v>0.001167138143176943</v>
+        <v>0.001084263010389164</v>
       </c>
       <c r="R49">
-        <v>0.00164462283741066</v>
+        <v>6.087594955103842E-06</v>
       </c>
       <c r="S49">
-        <v>3.175848382705762E-06</v>
+        <v>1.268943326176106E-08</v>
       </c>
       <c r="T49">
-        <v>0.003889544153819207</v>
+        <v>0</v>
       </c>
       <c r="U49">
-        <v>0.001183800399826629</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>14.45838480947852</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>0.0005807402919471821</v>
+        <v>-0.4868209919892763</v>
       </c>
       <c r="X49">
-        <v>1.620621813809069E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -3490,61 +3490,61 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.494798865330843E-06</v>
+        <v>6.171076163875393E-06</v>
       </c>
       <c r="C50">
-        <v>0.06702244491870959</v>
+        <v>0.04665271260210417</v>
       </c>
       <c r="D50">
-        <v>0.004600126140432722</v>
+        <v>0.002891915477180773</v>
       </c>
       <c r="E50">
-        <v>0.07073504999398708</v>
+        <v>0.04958534998574333</v>
       </c>
       <c r="F50">
-        <v>7.509229943465267</v>
+        <v>7.799230399875471</v>
       </c>
       <c r="K50">
-        <v>7.583412778651899</v>
+        <v>8.327125411470831</v>
       </c>
       <c r="L50">
-        <v>8.568967918893698</v>
+        <v>7.142073437899623</v>
       </c>
       <c r="M50">
-        <v>8.32607166664207</v>
+        <v>8.327682876829208</v>
       </c>
       <c r="N50">
-        <v>0.01815138688815128</v>
+        <v>0.01630819239351511</v>
       </c>
       <c r="O50">
-        <v>0.001417184678405415</v>
+        <v>0.0009595947854740888</v>
       </c>
       <c r="P50">
-        <v>0.01597512313362833</v>
+        <v>0.0160305569390586</v>
       </c>
       <c r="Q50">
-        <v>0.001192757345900934</v>
+        <v>0.001106767918903885</v>
       </c>
       <c r="R50">
-        <v>0.001676189125661198</v>
+        <v>6.204420061293112E-06</v>
       </c>
       <c r="S50">
-        <v>3.235997426562143E-06</v>
+        <v>1.289889840603534E-08</v>
       </c>
       <c r="T50">
-        <v>0.003941577687549834</v>
+        <v>0</v>
       </c>
       <c r="U50">
-        <v>0.001202675070219153</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>14.50720716864917</v>
+        <v>0</v>
       </c>
       <c r="W50">
-        <v>0.0005930023739528503</v>
+        <v>-0.4600645630002731</v>
       </c>
       <c r="X50">
-        <v>1.620829361067405E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -3552,61 +3552,61 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.468870422061388E-06</v>
+        <v>6.15207568725349E-06</v>
       </c>
       <c r="C51">
-        <v>0.06824641195357778</v>
+        <v>0.0475107674476909</v>
       </c>
       <c r="D51">
-        <v>0.004707937522261195</v>
+        <v>0.002956153892723169</v>
       </c>
       <c r="E51">
-        <v>0.07207345365100853</v>
+        <v>0.05053983388016947</v>
       </c>
       <c r="F51">
-        <v>7.509229943465267</v>
+        <v>7.799230399875471</v>
       </c>
       <c r="K51">
-        <v>7.579209263589211</v>
+        <v>8.32734745640818</v>
       </c>
       <c r="L51">
-        <v>8.564628805224341</v>
+        <v>7.143973472157229</v>
       </c>
       <c r="M51">
-        <v>8.3255528255523</v>
+        <v>8.327985403893893</v>
       </c>
       <c r="N51">
-        <v>0.01847950850010708</v>
+        <v>0.01660914528779043</v>
       </c>
       <c r="O51">
-        <v>0.001445623690338171</v>
+        <v>0.0009806024096535892</v>
       </c>
       <c r="P51">
-        <v>0.01626497344319161</v>
+        <v>0.01632318025317928</v>
       </c>
       <c r="Q51">
-        <v>0.001219561394103585</v>
+        <v>0.001130256098590315</v>
       </c>
       <c r="R51">
-        <v>0.001708992128175603</v>
+        <v>6.325822437035997E-06</v>
       </c>
       <c r="S51">
-        <v>3.298925521948777E-06</v>
+        <v>1.311647173783482E-08</v>
       </c>
       <c r="T51">
-        <v>0.003995281660438671</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>0.001222281066931614</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>14.55957062585176</v>
+        <v>0</v>
       </c>
       <c r="W51">
-        <v>0.0006057553544010785</v>
+        <v>-0.4328792245226083</v>
       </c>
       <c r="X51">
-        <v>1.62103953682054E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -3614,61 +3614,61 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.441965171875047E-06</v>
+        <v>6.132336617321457E-06</v>
       </c>
       <c r="C52">
-        <v>0.0695171814422041</v>
+        <v>0.04840185971879026</v>
       </c>
       <c r="D52">
-        <v>0.004820943171701695</v>
+        <v>0.00302333771245608</v>
       </c>
       <c r="E52">
-        <v>0.07346407461071125</v>
+        <v>0.05153229783967563</v>
       </c>
       <c r="F52">
-        <v>7.509229943465267</v>
+        <v>7.799230399875471</v>
       </c>
       <c r="K52">
-        <v>7.574958304304416</v>
+        <v>8.327539752073848</v>
       </c>
       <c r="L52">
-        <v>8.560218379022951</v>
+        <v>7.145898211302684</v>
       </c>
       <c r="M52">
-        <v>8.325055614012895</v>
+        <v>8.328252245271665</v>
       </c>
       <c r="N52">
-        <v>0.01882018619630246</v>
+        <v>0.01692171614535316</v>
       </c>
       <c r="O52">
-        <v>0.001475367349456471</v>
+        <v>0.001002567655903275</v>
       </c>
       <c r="P52">
-        <v>0.01656588168417338</v>
+        <v>0.01662703873627106</v>
       </c>
       <c r="Q52">
-        <v>0.001247606721332115</v>
+        <v>0.001154807839804963</v>
       </c>
       <c r="R52">
-        <v>0.001743105992228676</v>
+        <v>6.45207655634196E-06</v>
       </c>
       <c r="S52">
-        <v>3.364382860794616E-06</v>
+        <v>1.334403484757665E-08</v>
       </c>
       <c r="T52">
-        <v>0.004050741672308812</v>
+        <v>0</v>
       </c>
       <c r="U52">
-        <v>0.001242689651772023</v>
+        <v>0</v>
       </c>
       <c r="V52">
-        <v>14.61548737261894</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>0.0006190297019973566</v>
+        <v>-0.4052985350987406</v>
       </c>
       <c r="X52">
-        <v>1.621252084784779E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -3676,61 +3676,61 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5.41334801036646E-06</v>
+        <v>6.111127559097728E-06</v>
       </c>
       <c r="C53">
-        <v>0.07083751283547966</v>
+        <v>0.04932795200463382</v>
       </c>
       <c r="D53">
-        <v>0.00494006655465269</v>
+        <v>0.003093977546871673</v>
       </c>
       <c r="E53">
-        <v>0.07490945288303323</v>
+        <v>0.05256465115732974</v>
       </c>
       <c r="F53">
-        <v>7.508466574526852</v>
+        <v>7.798467538928405</v>
       </c>
       <c r="K53">
-        <v>7.570653934666916</v>
+        <v>8.327713091854626</v>
       </c>
       <c r="L53">
-        <v>8.555677164161924</v>
+        <v>7.147917660613759</v>
       </c>
       <c r="M53">
-        <v>8.324568244526541</v>
+        <v>8.32850750739515</v>
       </c>
       <c r="N53">
-        <v>0.01917416209113605</v>
+        <v>0.0172465967267705</v>
       </c>
       <c r="O53">
-        <v>0.001506622438057137</v>
+        <v>0.001025657478679056</v>
       </c>
       <c r="P53">
-        <v>0.01687849954055789</v>
+        <v>0.01694279855048465</v>
       </c>
       <c r="Q53">
-        <v>0.001277111728156706</v>
+        <v>0.001180586384730831</v>
       </c>
       <c r="R53">
-        <v>0.001778610923032102</v>
+        <v>6.583479260862254E-06</v>
       </c>
       <c r="S53">
-        <v>3.433040914288871E-06</v>
+        <v>1.358283402301896E-08</v>
       </c>
       <c r="T53">
-        <v>0.0041080488564014</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>0.001264030302115361</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>14.67500354935585</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>0.0006328570020452607</v>
+        <v>-0.3772857241122161</v>
       </c>
       <c r="X53">
-        <v>1.621467303266654E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -3738,61 +3738,61 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.384301477866233E-06</v>
+        <v>6.089759713465588E-06</v>
       </c>
       <c r="C54">
-        <v>0.07221037629966356</v>
+        <v>0.05029115980583719</v>
       </c>
       <c r="D54">
-        <v>0.005064671256404305</v>
+        <v>0.003167706206357429</v>
       </c>
       <c r="E54">
-        <v>0.07641400911816343</v>
+        <v>0.05364015424290998</v>
       </c>
       <c r="F54">
-        <v>7.50844755404635</v>
+        <v>7.798448541980808</v>
       </c>
       <c r="K54">
-        <v>7.566302364594202</v>
+        <v>8.32786073799355</v>
       </c>
       <c r="L54">
-        <v>8.551119337458406</v>
+        <v>7.149935546598402</v>
       </c>
       <c r="M54">
-        <v>8.324115214563795</v>
+        <v>8.328735899457344</v>
       </c>
       <c r="N54">
-        <v>0.01954223583390853</v>
+        <v>0.01758453296110574</v>
       </c>
       <c r="O54">
-        <v>0.001539266645914143</v>
+        <v>0.001049748161891619</v>
       </c>
       <c r="P54">
-        <v>0.01720352845331625</v>
+        <v>0.01727117797060453</v>
       </c>
       <c r="Q54">
-        <v>0.001307923057846062</v>
+        <v>0.001207481745013878</v>
       </c>
       <c r="R54">
-        <v>0.001815593795576223</v>
+        <v>6.720352103088072E-06</v>
       </c>
       <c r="S54">
-        <v>3.504104638705271E-06</v>
+        <v>1.383134690912285E-08</v>
       </c>
       <c r="T54">
-        <v>0.004167299242949026</v>
+        <v>0</v>
       </c>
       <c r="U54">
-        <v>0.001286205820458998</v>
+        <v>0</v>
       </c>
       <c r="V54">
-        <v>14.73813611918784</v>
+        <v>0</v>
       </c>
       <c r="W54">
-        <v>0.0006472734268285742</v>
+        <v>-0.3488337965023796</v>
       </c>
       <c r="X54">
-        <v>1.62168488177029E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -3800,61 +3800,61 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.354097275446502E-06</v>
+        <v>6.067510578082163E-06</v>
       </c>
       <c r="C55">
-        <v>0.07363900832186057</v>
+        <v>0.05129378647816655</v>
       </c>
       <c r="D55">
-        <v>0.005195734924325381</v>
+        <v>0.003245061830711217</v>
       </c>
       <c r="E55">
-        <v>0.07798084796009921</v>
+        <v>0.05476114499233074</v>
       </c>
       <c r="F55">
-        <v>7.50842826788843</v>
+        <v>7.798429280544214</v>
       </c>
       <c r="K55">
-        <v>7.561895230167234</v>
+        <v>8.327996261477129</v>
       </c>
       <c r="L55">
-        <v>8.546460624249617</v>
+        <v>7.152027512250063</v>
       </c>
       <c r="M55">
-        <v>8.323678437647144</v>
+        <v>8.328962217116478</v>
       </c>
       <c r="N55">
-        <v>0.01992527773152543</v>
+        <v>0.01793633689300391</v>
       </c>
       <c r="O55">
-        <v>0.00157351610263573</v>
+        <v>0.001075015557370341</v>
       </c>
       <c r="P55">
-        <v>0.01754173282343264</v>
+        <v>0.01761295874136177</v>
       </c>
       <c r="Q55">
-        <v>0.001340274641481045</v>
+        <v>0.001235666406117603</v>
       </c>
       <c r="R55">
-        <v>0.001854148895383404</v>
+        <v>6.863044034070603E-06</v>
       </c>
       <c r="S55">
-        <v>3.578336850501389E-06</v>
+        <v>1.409081677362918E-08</v>
       </c>
       <c r="T55">
-        <v>0.004228599103002005</v>
+        <v>0</v>
       </c>
       <c r="U55">
-        <v>0.001309348282579692</v>
+        <v>0</v>
       </c>
       <c r="V55">
-        <v>14.8049350574848</v>
+        <v>0</v>
       </c>
       <c r="W55">
-        <v>0.0006623158222073841</v>
+        <v>-0.3199014407535081</v>
       </c>
       <c r="X55">
-        <v>1.621905238491638E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -3862,61 +3862,61 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.322665475517454E-06</v>
+        <v>6.04432458791212E-06</v>
       </c>
       <c r="C56">
-        <v>0.07512690556963308</v>
+        <v>0.05233832397050253</v>
       </c>
       <c r="D56">
-        <v>0.005333768061140393</v>
+        <v>0.003326317368181055</v>
       </c>
       <c r="E56">
-        <v>0.07961389133023941</v>
+        <v>0.05593056084200598</v>
       </c>
       <c r="F56">
-        <v>7.508408704366672</v>
+        <v>7.798409743018428</v>
       </c>
       <c r="K56">
-        <v>7.557428475471255</v>
+        <v>8.328101587970815</v>
       </c>
       <c r="L56">
-        <v>8.541696986518099</v>
+        <v>7.154153255607663</v>
       </c>
       <c r="M56">
-        <v>8.323256280740456</v>
+        <v>8.329151619487373</v>
       </c>
       <c r="N56">
-        <v>0.02032422907128391</v>
+        <v>0.01830288735682203</v>
       </c>
       <c r="O56">
-        <v>0.001609489607567943</v>
+        <v>0.001101549474540549</v>
       </c>
       <c r="P56">
-        <v>0.01789393843608376</v>
+        <v>0.01796898683560621</v>
       </c>
       <c r="Q56">
-        <v>0.001374285483390062</v>
+        <v>0.001265250482120982</v>
       </c>
       <c r="R56">
-        <v>0.00189437869013412</v>
+        <v>7.011934321403146E-06</v>
       </c>
       <c r="S56">
-        <v>3.655976301351011E-06</v>
+        <v>1.436317907540187E-08</v>
       </c>
       <c r="T56">
-        <v>0.004292061077359012</v>
+        <v>0</v>
       </c>
       <c r="U56">
-        <v>0.001333522841736512</v>
+        <v>0</v>
       </c>
       <c r="V56">
-        <v>14.8754633025409</v>
+        <v>0</v>
       </c>
       <c r="W56">
-        <v>0.0006780249549605667</v>
+        <v>-0.2904990806447856</v>
       </c>
       <c r="X56">
-        <v>1.622128576226437E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -3924,61 +3924,61 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.289930531340313E-06</v>
+        <v>6.020141469868693E-06</v>
       </c>
       <c r="C57">
-        <v>0.07667786418093293</v>
+        <v>0.05342747967277635</v>
       </c>
       <c r="D57">
-        <v>0.00547933581447957</v>
+        <v>0.003411773653290357</v>
       </c>
       <c r="E57">
-        <v>0.08131739394237575</v>
+        <v>0.05715159588243398</v>
       </c>
       <c r="F57">
-        <v>7.508388850986997</v>
+        <v>7.798389917003084</v>
       </c>
       <c r="K57">
-        <v>7.55290433198511</v>
+        <v>8.328185616743752</v>
       </c>
       <c r="L57">
-        <v>8.536858487807059</v>
+        <v>7.156347824906035</v>
       </c>
       <c r="M57">
-        <v>8.32286947113421</v>
+        <v>8.329327602602287</v>
       </c>
       <c r="N57">
-        <v>0.0207401121704776</v>
+        <v>0.01868513930976162</v>
       </c>
       <c r="O57">
-        <v>0.001647337015879247</v>
+        <v>0.00112944642205955</v>
       </c>
       <c r="P57">
-        <v>0.01826104183503251</v>
+        <v>0.01834018097679477</v>
       </c>
       <c r="Q57">
-        <v>0.001410077548616807</v>
+        <v>0.001296329637261701</v>
       </c>
       <c r="R57">
-        <v>0.001936394750441515</v>
+        <v>7.167435902343763E-06</v>
       </c>
       <c r="S57">
-        <v>3.737108132268922E-06</v>
+        <v>1.464854569170654E-08</v>
       </c>
       <c r="T57">
-        <v>0.004357806371483957</v>
+        <v>0</v>
       </c>
       <c r="U57">
-        <v>0.001358815454127418</v>
+        <v>0</v>
       </c>
       <c r="V57">
-        <v>14.94980080299159</v>
+        <v>0</v>
       </c>
       <c r="W57">
-        <v>0.0006944468334100085</v>
+        <v>-0.2605893517736924</v>
       </c>
       <c r="X57">
-        <v>1.622354783400744E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -3986,61 +3986,61 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.255810667147105E-06</v>
+        <v>5.994895681325072E-06</v>
       </c>
       <c r="C58">
-        <v>0.07829601255289778</v>
+        <v>0.0545642002641283</v>
       </c>
       <c r="D58">
-        <v>0.005633065456007187</v>
+        <v>0.0035017630646477</v>
       </c>
       <c r="E58">
-        <v>0.08309597888463215</v>
+        <v>0.05842772924277472</v>
       </c>
       <c r="F58">
-        <v>7.508368694371739</v>
+        <v>7.798369789224327</v>
       </c>
       <c r="K58">
-        <v>7.548318256256311</v>
+        <v>8.328240485201302</v>
       </c>
       <c r="L58">
-        <v>8.53190849715577</v>
+        <v>7.158602635832534</v>
       </c>
       <c r="M58">
-        <v>8.322502302841583</v>
+        <v>8.329471544337519</v>
       </c>
       <c r="N58">
-        <v>0.02117403887853665</v>
+        <v>0.01908413232993667</v>
       </c>
       <c r="O58">
-        <v>0.001687196154535384</v>
+        <v>0.001158813972978199</v>
       </c>
       <c r="P58">
-        <v>0.01864401829608741</v>
+        <v>0.01872754123451143</v>
       </c>
       <c r="Q58">
-        <v>0.001447804545219899</v>
+        <v>0.001329027238504304</v>
       </c>
       <c r="R58">
-        <v>0.001980318787766725</v>
+        <v>7.329999251358583E-06</v>
       </c>
       <c r="S58">
-        <v>3.822151078887052E-06</v>
+        <v>1.494852407036238E-08</v>
       </c>
       <c r="T58">
-        <v>0.004425965255969333</v>
+        <v>0</v>
       </c>
       <c r="U58">
-        <v>0.001385296013639856</v>
+        <v>0</v>
       </c>
       <c r="V58">
-        <v>15.02803907744977</v>
+        <v>0</v>
       </c>
       <c r="W58">
-        <v>0.0007116294644724842</v>
+        <v>-0.2301647389839871</v>
       </c>
       <c r="X58">
-        <v>1.622584087187184E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -4048,61 +4048,61 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.22021729993038E-06</v>
+        <v>5.968515898938554E-06</v>
       </c>
       <c r="C59">
-        <v>0.07998584853189523</v>
+        <v>0.05575169880365111</v>
       </c>
       <c r="D59">
-        <v>0.00579565501044623</v>
+        <v>0.003596653704513218</v>
       </c>
       <c r="E59">
-        <v>0.08495467790411343</v>
+        <v>0.05976275736323482</v>
       </c>
       <c r="F59">
-        <v>7.508348220173856</v>
+        <v>7.798349345449174</v>
       </c>
       <c r="K59">
-        <v>7.543667196933618</v>
+        <v>8.328269209094861</v>
       </c>
       <c r="L59">
-        <v>8.526849080071887</v>
+        <v>7.160924731696795</v>
       </c>
       <c r="M59">
-        <v>8.322159934966976</v>
+        <v>8.329593576347632</v>
       </c>
       <c r="N59">
-        <v>0.02162722126746691</v>
+        <v>0.01950100019870315</v>
       </c>
       <c r="O59">
-        <v>0.001729235311509494</v>
+        <v>0.001189771188576126</v>
       </c>
       <c r="P59">
-        <v>0.01904393024378201</v>
+        <v>0.01913215783906974</v>
       </c>
       <c r="Q59">
-        <v>0.001487625465634009</v>
+        <v>0.001363467970325765</v>
       </c>
       <c r="R59">
-        <v>0.002026283825829233</v>
+        <v>7.500116710132728E-06</v>
       </c>
       <c r="S59">
-        <v>3.91137865324905E-06</v>
+        <v>1.52638537006886E-08</v>
       </c>
       <c r="T59">
-        <v>0.004496678494163042</v>
+        <v>0</v>
       </c>
       <c r="U59">
-        <v>0.001413055739926034</v>
+        <v>0</v>
       </c>
       <c r="V59">
-        <v>15.11028536873691</v>
+        <v>0</v>
       </c>
       <c r="W59">
-        <v>0.0007296264698559602</v>
+        <v>-0.199193750062733</v>
       </c>
       <c r="X59">
-        <v>1.622816640153319E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -4110,61 +4110,61 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.18305430324675E-06</v>
+        <v>5.940924320944626E-06</v>
       </c>
       <c r="C60">
-        <v>0.08175228171097734</v>
+        <v>0.0569934855917258</v>
       </c>
       <c r="D60">
-        <v>0.005967883438333271</v>
+        <v>0.003696854321123487</v>
       </c>
       <c r="E60">
-        <v>0.08689897693997711</v>
+        <v>0.06116083063549231</v>
       </c>
       <c r="F60">
-        <v>7.50832741298186</v>
+        <v>7.79832857039172</v>
       </c>
       <c r="K60">
-        <v>7.538946705580847</v>
+        <v>8.328271793382715</v>
       </c>
       <c r="L60">
-        <v>8.521671221716165</v>
+        <v>7.163326446258038</v>
       </c>
       <c r="M60">
-        <v>8.321843695833788</v>
+        <v>8.329693743040117</v>
       </c>
       <c r="N60">
-        <v>0.02210098283784685</v>
+        <v>0.01993698184180141</v>
       </c>
       <c r="O60">
-        <v>0.001773638904874274</v>
+        <v>0.001222449497748096</v>
       </c>
       <c r="P60">
-        <v>0.01946193750040457</v>
+        <v>0.01955522188356364</v>
       </c>
       <c r="Q60">
-        <v>0.001529719478495121</v>
+        <v>0.001399793430210059</v>
       </c>
       <c r="R60">
-        <v>0.002074435550761994</v>
+        <v>7.678327492428727E-06</v>
       </c>
       <c r="S60">
-        <v>4.005129164368148E-06</v>
+        <v>1.559572420291252E-08</v>
       </c>
       <c r="T60">
-        <v>0.004570098083549636</v>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>0.001442192674304891</v>
+        <v>0</v>
       </c>
       <c r="V60">
-        <v>15.19666293129536</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>0.0007484965080685062</v>
+        <v>-0.1676502246631095</v>
       </c>
       <c r="X60">
-        <v>1.623052664720958E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -4172,61 +4172,61 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.144217208476244E-06</v>
+        <v>5.912035944783444E-06</v>
       </c>
       <c r="C61">
-        <v>0.08360068166884671</v>
+        <v>0.05829340342759416</v>
       </c>
       <c r="D61">
-        <v>0.00615062258199721</v>
+        <v>0.00380282002283222</v>
       </c>
       <c r="E61">
-        <v>0.08893486781787539</v>
+        <v>0.06262649523614013</v>
       </c>
       <c r="F61">
-        <v>7.508306256212293</v>
+        <v>7.798307447607098</v>
       </c>
       <c r="K61">
-        <v>7.534157202076434</v>
+        <v>8.328238422858009</v>
       </c>
       <c r="L61">
-        <v>8.516396687106953</v>
+        <v>7.165804334734019</v>
       </c>
       <c r="M61">
-        <v>8.321568360528127</v>
+        <v>8.329762555021418</v>
       </c>
       <c r="N61">
-        <v>0.02259677171426081</v>
+        <v>0.02039343385019295</v>
       </c>
       <c r="O61">
-        <v>0.001820624084007383</v>
+        <v>0.001256996677168594</v>
       </c>
       <c r="P61">
-        <v>0.01989930867167066</v>
+        <v>0.01999803721169422</v>
       </c>
       <c r="Q61">
-        <v>0.001574280993505623</v>
+        <v>0.001438166677839083</v>
       </c>
       <c r="R61">
-        <v>0.00212493385372779</v>
+        <v>7.865223389214723E-06</v>
       </c>
       <c r="S61">
-        <v>4.103655672998608E-06</v>
+        <v>1.594580503473609E-08</v>
       </c>
       <c r="T61">
-        <v>0.004646388459384873</v>
+        <v>0</v>
       </c>
       <c r="U61">
-        <v>0.001472823977979263</v>
+        <v>0</v>
       </c>
       <c r="V61">
-        <v>15.28731416169823</v>
+        <v>0</v>
       </c>
       <c r="W61">
-        <v>0.0007683042102748036</v>
+        <v>-0.1355229547262056</v>
       </c>
       <c r="X61">
-        <v>1.623292139896178E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -4234,61 +4234,61 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5.103592347413684E-06</v>
+        <v>5.881757718751187E-06</v>
       </c>
       <c r="C62">
-        <v>0.08553693314601794</v>
+        <v>0.0596556680127132</v>
       </c>
       <c r="D62">
-        <v>0.006344851224456519</v>
+        <v>0.00391505899165775</v>
       </c>
       <c r="E62">
-        <v>0.09106890709733627</v>
+        <v>0.06416474094756884</v>
       </c>
       <c r="F62">
-        <v>7.50828473198623</v>
+        <v>7.798285959370707</v>
       </c>
       <c r="K62">
-        <v>7.529295234170386</v>
+        <v>8.328181155318021</v>
       </c>
       <c r="L62">
-        <v>8.510995584100446</v>
+        <v>7.168375834166103</v>
       </c>
       <c r="M62">
-        <v>8.321324538019404</v>
+        <v>8.329809901017576</v>
       </c>
       <c r="N62">
-        <v>0.02311617540501715</v>
+        <v>0.02087184477951856</v>
       </c>
       <c r="O62">
-        <v>0.001870413448439739</v>
+        <v>0.001293575973722065</v>
       </c>
       <c r="P62">
-        <v>0.02035743436362479</v>
+        <v>0.0204620339750406</v>
       </c>
       <c r="Q62">
-        <v>0.001621540353082333</v>
+        <v>0.001478759159302259</v>
       </c>
       <c r="R62">
-        <v>0.00217795460867916</v>
+        <v>8.061455328819223E-06</v>
       </c>
       <c r="S62">
-        <v>4.207479769492903E-06</v>
+        <v>1.631521902122235E-08</v>
       </c>
       <c r="T62">
-        <v>0.004725727571420014</v>
+        <v>0</v>
       </c>
       <c r="U62">
-        <v>0.001505062490409496</v>
+        <v>0</v>
       </c>
       <c r="V62">
-        <v>15.38239803696756</v>
+        <v>0</v>
       </c>
       <c r="W62">
-        <v>0.0007891206522268827</v>
+        <v>-0.1027624080453258</v>
       </c>
       <c r="X62">
-        <v>1.623535238291481E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -4296,61 +4296,61 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.061055806522589E-06</v>
+        <v>5.849987612089254E-06</v>
       </c>
       <c r="C63">
-        <v>0.08756749934913491</v>
+        <v>0.06108491439786846</v>
       </c>
       <c r="D63">
-        <v>0.006551671844521006</v>
+        <v>0.004034140366693168</v>
       </c>
       <c r="E63">
-        <v>0.09330828312433158</v>
+        <v>0.0657810560406446</v>
       </c>
       <c r="F63">
-        <v>7.508262820993683</v>
+        <v>7.798264086542304</v>
       </c>
       <c r="K63">
-        <v>7.524349221950113</v>
+        <v>8.328088762344814</v>
       </c>
       <c r="L63">
-        <v>8.505440128984699</v>
+        <v>7.171042487326797</v>
       </c>
       <c r="M63">
-        <v>8.321105791103687</v>
+        <v>8.329829234726272</v>
       </c>
       <c r="N63">
-        <v>0.02366093853210888</v>
+        <v>0.02137385167197488</v>
       </c>
       <c r="O63">
-        <v>0.001923259505997149</v>
+        <v>0.001332371753970371</v>
       </c>
       <c r="P63">
-        <v>0.02083784190235664</v>
+        <v>0.02094878461134158</v>
       </c>
       <c r="Q63">
-        <v>0.001671754369501087</v>
+        <v>0.001521771634238187</v>
       </c>
       <c r="R63">
-        <v>0.002233691714548639</v>
+        <v>8.267740972660198E-06</v>
       </c>
       <c r="S63">
-        <v>4.31716057037991E-06</v>
+        <v>1.670585577759456E-08</v>
       </c>
       <c r="T63">
-        <v>0.00480830872734336</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>0.001539036569425795</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>15.48209228434268</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>0.0008110221943360286</v>
+        <v>-0.06935413805559421</v>
       </c>
       <c r="X63">
-        <v>1.623782538902494E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -4358,61 +4358,61 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.016472353906951E-06</v>
+        <v>5.816613474023567E-06</v>
       </c>
       <c r="C64">
-        <v>0.08969949480978265</v>
+        <v>0.06258625055658361</v>
       </c>
       <c r="D64">
-        <v>0.006772330461277802</v>
+        <v>0.004160703612163447</v>
       </c>
       <c r="E64">
-        <v>0.09566089281219882</v>
+        <v>0.06748149035190293</v>
       </c>
       <c r="F64">
-        <v>7.508240502334654</v>
+        <v>7.798241808413</v>
       </c>
       <c r="K64">
-        <v>7.519320930021035</v>
+        <v>8.327958422639611</v>
       </c>
       <c r="L64">
-        <v>8.499751947196327</v>
+        <v>7.173801021130784</v>
       </c>
       <c r="M64">
-        <v>8.320929132018138</v>
+        <v>8.32980463712456</v>
       </c>
       <c r="N64">
-        <v>0.02423298271700656</v>
+        <v>0.02190125903823816</v>
       </c>
       <c r="O64">
-        <v>0.001979466745640618</v>
+        <v>0.001373591616298784</v>
       </c>
       <c r="P64">
-        <v>0.02134221262690548</v>
+        <v>0.02146002179494956</v>
       </c>
       <c r="Q64">
-        <v>0.001725200304645966</v>
+        <v>0.001567433938722163</v>
       </c>
       <c r="R64">
-        <v>0.00229235946596912</v>
+        <v>8.484873475736057E-06</v>
       </c>
       <c r="S64">
-        <v>4.43307400080304E-06</v>
+        <v>1.712020490379189E-08</v>
       </c>
       <c r="T64">
-        <v>0.004894342205183296</v>
+        <v>0</v>
       </c>
       <c r="U64">
-        <v>0.001574905504929257</v>
+        <v>0</v>
       </c>
       <c r="V64">
-        <v>15.58659877236206</v>
+        <v>0</v>
       </c>
       <c r="W64">
-        <v>0.0008340963141285189</v>
+        <v>-0.03526869187652082</v>
       </c>
       <c r="X64">
-        <v>1.624033953498948E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -4420,61 +4420,61 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>4.969694141239681E-06</v>
+        <v>5.781511801101903E-06</v>
       </c>
       <c r="C65">
-        <v>0.0919407695219044</v>
+        <v>0.06416531939291928</v>
       </c>
       <c r="D65">
-        <v>0.007008240486019576</v>
+        <v>0.004295469603616489</v>
       </c>
       <c r="E65">
-        <v>0.09813542961153038</v>
+        <v>0.06927272811900961</v>
       </c>
       <c r="F65">
-        <v>7.508217753341556</v>
+        <v>7.798219102527915</v>
       </c>
       <c r="K65">
-        <v>7.5142066119166</v>
+        <v>8.327788291167403</v>
       </c>
       <c r="L65">
-        <v>8.493911666786358</v>
+        <v>7.176674289160062</v>
       </c>
       <c r="M65">
-        <v>8.320792036261491</v>
+        <v>8.329752303435995</v>
       </c>
       <c r="N65">
-        <v>0.02483442909461104</v>
+        <v>0.02245606086045273</v>
       </c>
       <c r="O65">
-        <v>0.002039361985746945</v>
+        <v>0.001417465954048317</v>
       </c>
       <c r="P65">
-        <v>0.02187240214912871</v>
+        <v>0.02199765930457733</v>
       </c>
       <c r="Q65">
-        <v>0.001782202954550216</v>
+        <v>0.001615985751412351</v>
       </c>
       <c r="R65">
-        <v>0.002354195314400695</v>
+        <v>8.713731672245036E-06</v>
       </c>
       <c r="S65">
-        <v>4.555869728936553E-06</v>
+        <v>1.75597275064419E-08</v>
       </c>
       <c r="T65">
-        <v>0.004984056710595567</v>
+        <v>0</v>
       </c>
       <c r="U65">
-        <v>0.001612832950609224</v>
+        <v>0</v>
       </c>
       <c r="V65">
-        <v>15.69614258015306</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>0.0008584388068375297</v>
+        <v>-0.0004724175197949876</v>
       </c>
       <c r="X65">
-        <v>1.62428966940417E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -4482,61 +4482,61 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4.920559295721421E-06</v>
+        <v>5.744546314931878E-06</v>
       </c>
       <c r="C66">
-        <v>0.09430000643956787</v>
+        <v>0.06582837077595548</v>
       </c>
       <c r="D66">
-        <v>0.007261011357272269</v>
+        <v>0.004439253864690402</v>
       </c>
       <c r="E66">
-        <v>0.1007414847491218</v>
+        <v>0.07116217230910264</v>
       </c>
       <c r="F66">
-        <v>7.508194549375142</v>
+        <v>7.798195944485097</v>
       </c>
       <c r="K66">
-        <v>7.508999758990506</v>
+        <v>8.327581837628763</v>
       </c>
       <c r="L66">
-        <v>8.487907808885643</v>
+        <v>7.179667384386728</v>
       </c>
       <c r="M66">
-        <v>8.320696747089558</v>
+        <v>8.329660696079031</v>
       </c>
       <c r="N66">
-        <v>0.0254676254031906</v>
+        <v>0.02304046627451952</v>
       </c>
       <c r="O66">
-        <v>0.002103321393964356</v>
+        <v>0.00146426004000732</v>
       </c>
       <c r="P66">
-        <v>0.022430463237867</v>
+        <v>0.02256381690327636</v>
       </c>
       <c r="Q66">
-        <v>0.001843129774529532</v>
+        <v>0.001667716254062999</v>
       </c>
       <c r="R66">
-        <v>0.002419463076752689</v>
+        <v>8.955292004043331E-06</v>
       </c>
       <c r="S66">
-        <v>4.686227060465196E-06</v>
+        <v>1.802725926075797E-08</v>
       </c>
       <c r="T66">
-        <v>0.005077701815039633</v>
+        <v>0</v>
       </c>
       <c r="U66">
-        <v>0.001653006368286585</v>
+        <v>0</v>
       </c>
       <c r="V66">
-        <v>15.8109753439363</v>
+        <v>0</v>
       </c>
       <c r="W66">
-        <v>0.0008841559397385248</v>
+        <v>0.03508256628490614</v>
       </c>
       <c r="X66">
-        <v>1.624550012050475E-06</v>
+        <v>1.757401171797452E-07</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -4544,61 +4544,61 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4.868890279322917E-06</v>
+        <v>5.705566258447143E-06</v>
       </c>
       <c r="C67">
-        <v>0.09678683487049061</v>
+        <v>0.06758234554484877</v>
       </c>
       <c r="D67">
-        <v>0.007532483246662018</v>
+        <v>0.004592982493302928</v>
       </c>
       <c r="E67">
-        <v>0.1034896639343528</v>
+        <v>0.07315804251273679</v>
       </c>
       <c r="F67">
-        <v>7.508170863588943</v>
+        <v>7.798172307705296</v>
       </c>
       <c r="K67">
-        <v>7.5036928653366</v>
+        <v>8.327331107670521</v>
       </c>
       <c r="L67">
-        <v>8.481721601875222</v>
+        <v>7.182788380402108</v>
       </c>
       <c r="M67">
-        <v>8.320642281873138</v>
+        <v>8.329527504898842</v>
       </c>
       <c r="N67">
-        <v>0.02613517694631135</v>
+        <v>0.0236569293097913</v>
       </c>
       <c r="O67">
-        <v>0.002171769734547455</v>
+        <v>0.001514271965826045</v>
       </c>
       <c r="P67">
-        <v>0.02301867276539093</v>
+        <v>0.02316084835039674</v>
       </c>
       <c r="Q67">
-        <v>0.001908401114334844</v>
+        <v>0.001722945103759441</v>
       </c>
       <c r="R67">
-        <v>0.00248845670102961</v>
+        <v>9.210642425322833E-06</v>
       </c>
       <c r="S67">
-        <v>4.82496097067069E-06</v>
+        <v>1.852558403388068E-08</v>
       </c>
       <c r="T67">
-        <v>0.005175550256375434</v>
+        <v>0</v>
       </c>
       <c r="U67">
-        <v>0.001695634230343917</v>
+        <v>0</v>
       </c>
       <c r="V67">
-        <v>15.93137770541224</v>
+        <v>0</v>
       </c>
       <c r="W67">
-        <v>0.0009113655301376296</v>
+        <v>0.07142629055766037</v>
       </c>
       <c r="X67">
-        <v>1.62481535673317E-06</v>
+        <v>3.591076151010732E-07</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -4606,61 +4606,61 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4.814492137000578E-06</v>
+        <v>5.664404488694446E-06</v>
       </c>
       <c r="C68">
-        <v>0.09941196285942676</v>
+        <v>0.06943497386989424</v>
       </c>
       <c r="D68">
-        <v>0.007824769158526836</v>
+        <v>0.004757711338696419</v>
       </c>
       <c r="E68">
-        <v>0.1063917225535349</v>
+        <v>0.07526948910642134</v>
       </c>
       <c r="F68">
-        <v>7.508146666658895</v>
+        <v>7.798148163165829</v>
       </c>
       <c r="K68">
-        <v>7.498280887274374</v>
+        <v>8.327037270771752</v>
       </c>
       <c r="L68">
-        <v>8.475339503533958</v>
+        <v>7.186069428039125</v>
       </c>
       <c r="M68">
-        <v>8.320633844845519</v>
+        <v>8.329370908659513</v>
       </c>
       <c r="N68">
-        <v>0.026839983040775</v>
+        <v>0.02430818393755498</v>
       </c>
       <c r="O68">
-        <v>0.002245199793546691</v>
+        <v>0.001567840309708138</v>
       </c>
       <c r="P68">
-        <v>0.02363956310806905</v>
+        <v>0.02379137491647431</v>
       </c>
       <c r="Q68">
-        <v>0.001978496260217992</v>
+        <v>0.001782024536247908</v>
       </c>
       <c r="R68">
-        <v>0.002561504693384285</v>
+        <v>9.480998803007802E-06</v>
       </c>
       <c r="S68">
-        <v>4.972927799721664E-06</v>
+        <v>1.905697464582619E-08</v>
       </c>
       <c r="T68">
-        <v>0.005277900727729302</v>
+        <v>0</v>
       </c>
       <c r="U68">
-        <v>0.001740956681139932</v>
+        <v>0</v>
       </c>
       <c r="V68">
-        <v>16.0576637703979</v>
+        <v>0</v>
       </c>
       <c r="W68">
-        <v>0.0009402004136880249</v>
+        <v>0.1086084838103147</v>
       </c>
       <c r="X68">
-        <v>1.625085955636281E-06</v>
+        <v>5.499648976138907E-07</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -4668,61 +4668,61 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>4.757150385970364E-06</v>
+        <v>5.620875230617739E-06</v>
       </c>
       <c r="C69">
-        <v>0.1021873323655146</v>
+        <v>0.07139489091629418</v>
       </c>
       <c r="D69">
-        <v>0.008140306647295242</v>
+        <v>0.004934649298603462</v>
       </c>
       <c r="E69">
-        <v>0.1094607224220145</v>
+        <v>0.07750672678239574</v>
       </c>
       <c r="F69">
-        <v>7.508121926471565</v>
+        <v>7.798123479094006</v>
       </c>
       <c r="K69">
-        <v>7.492759686651093</v>
+        <v>8.326698647017922</v>
       </c>
       <c r="L69">
-        <v>8.468761008316717</v>
+        <v>7.189504810406072</v>
       </c>
       <c r="M69">
-        <v>8.320681009208183</v>
+        <v>8.3291628408232</v>
       </c>
       <c r="N69">
-        <v>0.02758527950281222</v>
+        <v>0.02499728525961094</v>
       </c>
       <c r="O69">
-        <v>0.002324180329835355</v>
+        <v>0.001625357897662202</v>
       </c>
       <c r="P69">
-        <v>0.02429595907315544</v>
+        <v>0.02445832492799632</v>
       </c>
       <c r="Q69">
-        <v>0.00205396255902846</v>
+        <v>0.001845386694094251</v>
       </c>
       <c r="R69">
-        <v>0.002638975352947453</v>
+        <v>9.767724312958166E-06</v>
       </c>
       <c r="S69">
-        <v>5.131068747863699E-06</v>
+        <v>1.962611629348267E-08</v>
       </c>
       <c r="T69">
-        <v>0.005385080850353223</v>
+        <v>0</v>
       </c>
       <c r="U69">
-        <v>0.001789249288571165</v>
+        <v>0</v>
       </c>
       <c r="V69">
-        <v>16.19018594704162</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>0.0009708097628441428</v>
+        <v>0.1466772097706901</v>
       </c>
       <c r="X69">
-        <v>1.625362015667445E-06</v>
+        <v>7.490022113725605E-07</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -4730,61 +4730,61 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.696628752792961E-06</v>
+        <v>5.574771521895088E-06</v>
       </c>
       <c r="C70">
-        <v>0.105126301919209</v>
+        <v>0.07347177346684701</v>
       </c>
       <c r="D70">
-        <v>0.008481921381068187</v>
+        <v>0.00512518672390491</v>
       </c>
       <c r="E70">
-        <v>0.1127112145188344</v>
+        <v>0.07988119141469477</v>
       </c>
       <c r="F70">
-        <v>7.508096607758763</v>
+        <v>7.798098220608233</v>
       </c>
       <c r="K70">
-        <v>7.487121063932338</v>
+        <v>8.326300683101941</v>
       </c>
       <c r="L70">
-        <v>8.46195721501315</v>
+        <v>7.193106590836751</v>
       </c>
       <c r="M70">
-        <v>8.320780627131736</v>
+        <v>8.328899990534641</v>
       </c>
       <c r="N70">
-        <v>0.02837468885196775</v>
+        <v>0.02572765798967184</v>
       </c>
       <c r="O70">
-        <v>0.002409358078533128</v>
+        <v>0.001687272187935621</v>
       </c>
       <c r="P70">
-        <v>0.02499102146422191</v>
+        <v>0.02516497924780576</v>
       </c>
       <c r="Q70">
-        <v>0.00213544397461451</v>
+        <v>0.001913509386789575</v>
       </c>
       <c r="R70">
-        <v>0.002721282986828691</v>
+        <v>1.007235238160394E-05</v>
       </c>
       <c r="S70">
-        <v>5.300635101184394E-06</v>
+        <v>2.023720655707674E-08</v>
       </c>
       <c r="T70">
-        <v>0.005497450586658913</v>
+        <v>0</v>
       </c>
       <c r="U70">
-        <v>0.001840815579717625</v>
+        <v>0</v>
       </c>
       <c r="V70">
-        <v>16.32933784762686</v>
+        <v>0</v>
       </c>
       <c r="W70">
-        <v>0.001003360495242842</v>
+        <v>0.1856653604562055</v>
       </c>
       <c r="X70">
-        <v>1.625643946803383E-06</v>
+        <v>9.569053297786014E-07</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -4792,61 +4792,61 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4.632666597112518E-06</v>
+        <v>5.525862149100598E-06</v>
       </c>
       <c r="C71">
-        <v>0.1082438625817297</v>
+        <v>0.07567650207145804</v>
       </c>
       <c r="D71">
-        <v>0.008852906036805152</v>
+        <v>0.005330930392305338</v>
       </c>
       <c r="E71">
-        <v>0.1161594525676346</v>
+        <v>0.08240572493529348</v>
       </c>
       <c r="F71">
-        <v>7.508070671675377</v>
+        <v>7.798072349303226</v>
       </c>
       <c r="K71">
-        <v>7.481354819747576</v>
+        <v>8.32584834316733</v>
       </c>
       <c r="L71">
-        <v>8.45490708390003</v>
+        <v>7.196902634136108</v>
       </c>
       <c r="M71">
-        <v>8.320937357280267</v>
+        <v>8.328589606803044</v>
       </c>
       <c r="N71">
-        <v>0.02921228016723984</v>
+        <v>0.02650315430585689</v>
       </c>
       <c r="O71">
-        <v>0.002501490502218865</v>
+        <v>0.001754100718862729</v>
       </c>
       <c r="P71">
-        <v>0.02572829815743505</v>
+        <v>0.02591502666267725</v>
       </c>
       <c r="Q71">
-        <v>0.002223683011262565</v>
+        <v>0.001986938501400456</v>
       </c>
       <c r="R71">
-        <v>0.002808895320755385</v>
+        <v>1.039661416144416E-05</v>
       </c>
       <c r="S71">
-        <v>5.482977538565838E-06</v>
+        <v>2.089456427361311E-08</v>
       </c>
       <c r="T71">
-        <v>0.00561540655462476</v>
+        <v>0</v>
       </c>
       <c r="U71">
-        <v>0.001896009183254224</v>
+        <v>0</v>
       </c>
       <c r="V71">
-        <v>16.47556137361184</v>
+        <v>0</v>
       </c>
       <c r="W71">
-        <v>0.001038041169760772</v>
+        <v>0.2256435056874011</v>
       </c>
       <c r="X71">
-        <v>1.625932259012621E-06</v>
+        <v>1.174614774376483E-06</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -4854,61 +4854,61 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.564975999291132E-06</v>
+        <v>5.473888123878542E-06</v>
       </c>
       <c r="C72">
-        <v>0.1115568944665605</v>
+        <v>0.07802135446076312</v>
       </c>
       <c r="D72">
-        <v>0.009257118923027231</v>
+        <v>0.005553746747486537</v>
       </c>
       <c r="E72">
-        <v>0.1198236435337104</v>
+        <v>0.08509479427259287</v>
       </c>
       <c r="F72">
-        <v>7.508044075298945</v>
+        <v>7.798045822761082</v>
       </c>
       <c r="K72">
-        <v>7.475454318747586</v>
+        <v>8.325343949668161</v>
       </c>
       <c r="L72">
-        <v>8.447587261472108</v>
+        <v>7.200928886020901</v>
       </c>
       <c r="M72">
-        <v>8.321156264208582</v>
+        <v>8.328242282974754</v>
       </c>
       <c r="N72">
-        <v>0.03010263982274054</v>
+        <v>0.02732812275875669</v>
       </c>
       <c r="O72">
-        <v>0.002601463201897906</v>
+        <v>0.001826443300282027</v>
       </c>
       <c r="P72">
-        <v>0.02651178532897414</v>
+        <v>0.02671262960138648</v>
       </c>
       <c r="Q72">
-        <v>0.002319548793647152</v>
+        <v>0.002066303638863439</v>
       </c>
       <c r="R72">
-        <v>0.002902342398862612</v>
+        <v>1.074247148134985E-05</v>
       </c>
       <c r="S72">
-        <v>5.679675164487108E-06</v>
+        <v>2.160301492138877E-08</v>
       </c>
       <c r="T72">
-        <v>0.005739386467003778</v>
+        <v>0</v>
       </c>
       <c r="U72">
-        <v>0.001955236379038811</v>
+        <v>0</v>
       </c>
       <c r="V72">
-        <v>16.62935370506396</v>
+        <v>0</v>
       </c>
       <c r="W72">
-        <v>0.001075066288353524</v>
+        <v>0.2666829549719125</v>
       </c>
       <c r="X72">
-        <v>1.626227284062621E-06</v>
+        <v>1.403163202116087E-06</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -4916,61 +4916,61 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.872814901328803E-06</v>
+        <v>6.820336371020568E-06</v>
       </c>
       <c r="C73">
-        <v>0.1150844729335788</v>
+        <v>0.08052023748535884</v>
       </c>
       <c r="D73">
-        <v>0.007422029803289368</v>
+        <v>0.004551493749458891</v>
       </c>
       <c r="E73">
-        <v>0.1214675746145513</v>
+        <v>0.08577263022749987</v>
       </c>
       <c r="F73">
-        <v>9.008044075298944</v>
+        <v>9.298045822761082</v>
       </c>
       <c r="K73">
-        <v>7.469411282453427</v>
+        <v>8.324777045281499</v>
       </c>
       <c r="L73">
-        <v>8.476435641176954</v>
+        <v>7.115372217272859</v>
       </c>
       <c r="M73">
-        <v>8.306569972819901</v>
+        <v>8.328433461801945</v>
       </c>
       <c r="N73">
-        <v>0.031050956257942</v>
+        <v>0.02820749101594546</v>
       </c>
       <c r="O73">
-        <v>0.002175745148124138</v>
+        <v>0.001494990744685084</v>
       </c>
       <c r="P73">
-        <v>0.02734600038191644</v>
+        <v>0.02756250291043899</v>
       </c>
       <c r="Q73">
-        <v>0.001915719274269084</v>
+        <v>0.001736203442098179</v>
       </c>
       <c r="R73">
-        <v>0.003002227320369443</v>
+        <v>1.111215660088186E-05</v>
       </c>
       <c r="S73">
-        <v>4.744545651569148E-06</v>
+        <v>1.764237551092102E-08</v>
       </c>
       <c r="T73">
-        <v>0.005869874401071533</v>
+        <v>0</v>
       </c>
       <c r="U73">
-        <v>0.00169340478753409</v>
+        <v>0</v>
       </c>
       <c r="V73">
-        <v>16.72792232691224</v>
+        <v>0</v>
       </c>
       <c r="W73">
-        <v>0.001114687115005668</v>
+        <v>0.3088422488699578</v>
       </c>
       <c r="X73">
-        <v>1.626529435877329E-06</v>
+        <v>1.643954418028499E-06</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -4978,61 +4978,61 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5.793517303547775E-06</v>
+        <v>6.761101499159921E-06</v>
       </c>
       <c r="C74">
-        <v>0.118929560188232</v>
+        <v>0.08323340690449813</v>
       </c>
       <c r="D74">
-        <v>0.007775372263655024</v>
+        <v>0.004750388802603099</v>
       </c>
       <c r="E74">
-        <v>0.1256371036896383</v>
+        <v>0.08878456163063114</v>
       </c>
       <c r="F74">
-        <v>9.008044075298944</v>
+        <v>9.298045822761082</v>
       </c>
       <c r="K74">
-        <v>7.463572531297376</v>
+        <v>8.323898392285244</v>
       </c>
       <c r="L74">
-        <v>8.458976730543663</v>
+        <v>7.118707355450685</v>
       </c>
       <c r="M74">
-        <v>8.302538518201994</v>
+        <v>8.32748668272701</v>
       </c>
       <c r="N74">
-        <v>0.03208221379757835</v>
+        <v>0.02916150888277619</v>
       </c>
       <c r="O74">
-        <v>0.002264001430444744</v>
+        <v>0.00156087589979575</v>
       </c>
       <c r="P74">
-        <v>0.02825422470718956</v>
+        <v>0.02848487074859402</v>
       </c>
       <c r="Q74">
-        <v>0.002005751189186682</v>
+        <v>0.001810460630689488</v>
       </c>
       <c r="R74">
-        <v>0.003109280276609367</v>
+        <v>1.150838925178796E-05</v>
       </c>
       <c r="S74">
-        <v>4.995439652165176E-06</v>
+        <v>1.827639140815949E-08</v>
       </c>
       <c r="T74">
-        <v>0.006019034030126441</v>
+        <v>0</v>
       </c>
       <c r="U74">
-        <v>0.001747001858279257</v>
+        <v>0</v>
       </c>
       <c r="V74">
-        <v>16.83407740512373</v>
+        <v>0</v>
       </c>
       <c r="W74">
-        <v>0.001157196046568925</v>
+        <v>0.351414926565365</v>
       </c>
       <c r="X74">
-        <v>1.626821373435131E-06</v>
+        <v>1.894222304472134E-06</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -5040,61 +5040,61 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.708879591173009E-06</v>
+        <v>6.69767463369239E-06</v>
       </c>
       <c r="C75">
-        <v>0.1230463819632164</v>
+        <v>0.08614018535271646</v>
       </c>
       <c r="D75">
-        <v>0.008163606079694321</v>
+        <v>0.004967414202713222</v>
       </c>
       <c r="E75">
-        <v>0.1301024970758817</v>
+        <v>0.09201640452337169</v>
       </c>
       <c r="F75">
-        <v>9.008044075298944</v>
+        <v>9.298045822761082</v>
       </c>
       <c r="K75">
-        <v>7.457626123401393</v>
+        <v>8.322941174038503</v>
       </c>
       <c r="L75">
-        <v>8.451118530446065</v>
+        <v>7.122481897470183</v>
       </c>
       <c r="M75">
-        <v>8.3027536325319</v>
+        <v>8.326683756043961</v>
       </c>
       <c r="N75">
-        <v>0.03318659203339811</v>
+        <v>0.03018375454881251</v>
       </c>
       <c r="O75">
-        <v>0.002362212113439941</v>
+        <v>0.001631201277874327</v>
       </c>
       <c r="P75">
-        <v>0.02922639039304152</v>
+        <v>0.02947281186407197</v>
       </c>
       <c r="Q75">
-        <v>0.00209945616236542</v>
+        <v>0.001889408518080246</v>
       </c>
       <c r="R75">
-        <v>0.003224253789089263</v>
+        <v>1.193394898735759E-05</v>
       </c>
       <c r="S75">
-        <v>5.186375850664546E-06</v>
+        <v>1.895482217957896E-08</v>
       </c>
       <c r="T75">
-        <v>0.00617725744389856</v>
+        <v>0</v>
       </c>
       <c r="U75">
-        <v>0.001808815434481862</v>
+        <v>0</v>
       </c>
       <c r="V75">
-        <v>16.94906707603456</v>
+        <v>0</v>
       </c>
       <c r="W75">
-        <v>0.001202900853305341</v>
+        <v>0.3952298731080823</v>
       </c>
       <c r="X75">
-        <v>1.62711869382993E-06</v>
+        <v>2.15911895415877E-06</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -5102,61 +5102,61 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5.618360960310748E-06</v>
+        <v>6.629600049571659E-06</v>
       </c>
       <c r="C76">
-        <v>0.1274649502664288</v>
+        <v>0.08926221501233197</v>
       </c>
       <c r="D76">
-        <v>0.008592064330742501</v>
+        <v>0.005205137697800431</v>
       </c>
       <c r="E76">
-        <v>0.134895881191868</v>
+        <v>0.09549289578091151</v>
       </c>
       <c r="F76">
-        <v>9.008044075298944</v>
+        <v>9.298045822761082</v>
       </c>
       <c r="K76">
-        <v>7.451518053850677</v>
+        <v>8.321898742479503</v>
       </c>
       <c r="L76">
-        <v>8.443019567889531</v>
+        <v>7.126524220773637</v>
       </c>
       <c r="M76">
-        <v>8.303038447282754</v>
+        <v>8.325801550462113</v>
       </c>
       <c r="N76">
-        <v>0.03437214510724266</v>
+        <v>0.03128192967461783</v>
       </c>
       <c r="O76">
-        <v>0.002470111561843505</v>
+        <v>0.001708200797674673</v>
       </c>
       <c r="P76">
-        <v>0.0302697340172983</v>
+        <v>0.03053371199276396</v>
       </c>
       <c r="Q76">
-        <v>0.002202490990348036</v>
+        <v>0.001975688251750474</v>
       </c>
       <c r="R76">
-        <v>0.003348064074213825</v>
+        <v>1.239221799371059E-05</v>
       </c>
       <c r="S76">
-        <v>5.39473242442529E-06</v>
+        <v>1.969430967914673E-08</v>
       </c>
       <c r="T76">
-        <v>0.00634527444426074</v>
+        <v>0</v>
       </c>
       <c r="U76">
-        <v>0.001875949087757143</v>
+        <v>0</v>
       </c>
       <c r="V76">
-        <v>17.0735318172683</v>
+        <v>0</v>
       </c>
       <c r="W76">
-        <v>0.001252164208350213</v>
+        <v>0.4403733858519381</v>
       </c>
       <c r="X76">
-        <v>1.627424097307466E-06</v>
+        <v>2.440329300124194E-06</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -5164,61 +5164,61 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.520390940159207E-06</v>
+        <v>6.555374846206632E-06</v>
       </c>
       <c r="C77">
-        <v>0.1322198657038562</v>
+        <v>0.09262449810491323</v>
       </c>
       <c r="D77">
-        <v>0.009068579126648778</v>
+        <v>0.005467342665951706</v>
       </c>
       <c r="E77">
-        <v>0.14005262426236</v>
+        <v>0.09924149386420425</v>
       </c>
       <c r="F77">
-        <v>9.006936647509919</v>
+        <v>9.296939842974153</v>
       </c>
       <c r="K77">
-        <v>7.445228921401839</v>
+        <v>8.320758822442667</v>
       </c>
       <c r="L77">
-        <v>8.434499777740799</v>
+        <v>7.130919029857075</v>
       </c>
       <c r="M77">
-        <v>8.303404327036082</v>
+        <v>8.324830086939153</v>
       </c>
       <c r="N77">
-        <v>0.03564822644905863</v>
+        <v>0.03246487882969555</v>
       </c>
       <c r="O77">
-        <v>0.002589417692420402</v>
+        <v>0.0017930912784194</v>
       </c>
       <c r="P77">
-        <v>0.03139242373837631</v>
+        <v>0.0316760329424045</v>
       </c>
       <c r="Q77">
-        <v>0.00231660014279218</v>
+        <v>0.002070592349058759</v>
       </c>
       <c r="R77">
-        <v>0.003481770847885401</v>
+        <v>1.288711894107185E-05</v>
       </c>
       <c r="S77">
-        <v>5.623820406953897E-06</v>
+        <v>2.050657049384249E-08</v>
       </c>
       <c r="T77">
-        <v>0.006524047458520884</v>
+        <v>0</v>
       </c>
       <c r="U77">
-        <v>0.001949334491906435</v>
+        <v>0</v>
       </c>
       <c r="V77">
-        <v>17.20825015606873</v>
+        <v>0</v>
       </c>
       <c r="W77">
-        <v>0.001305413883963194</v>
+        <v>0.4869357148612536</v>
       </c>
       <c r="X77">
-        <v>1.627738553929908E-06</v>
+        <v>2.739782792026876E-06</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -5226,61 +5226,61 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.416173185422984E-06</v>
+        <v>6.476336622254846E-06</v>
       </c>
       <c r="C78">
-        <v>0.1373511693112399</v>
+        <v>0.09625604624820329</v>
       </c>
       <c r="D78">
-        <v>0.009598414503198675</v>
+        <v>0.00575636357143237</v>
       </c>
       <c r="E78">
-        <v>0.1456179729929939</v>
+        <v>0.1032973060326599</v>
       </c>
       <c r="F78">
-        <v>9.006910200095369</v>
+        <v>9.296913492239305</v>
       </c>
       <c r="K78">
-        <v>7.438744326627248</v>
+        <v>8.319513347537926</v>
       </c>
       <c r="L78">
-        <v>8.425656732684452</v>
+        <v>7.135595488617983</v>
       </c>
       <c r="M78">
-        <v>8.303879953618296</v>
+        <v>8.323759769268717</v>
       </c>
       <c r="N78">
-        <v>0.03702567681391855</v>
+        <v>0.03374286997766539</v>
       </c>
       <c r="O78">
-        <v>0.002721370022670189</v>
+        <v>0.001886609649830717</v>
       </c>
       <c r="P78">
-        <v>0.03260391638819232</v>
+        <v>0.03290959296712724</v>
       </c>
       <c r="Q78">
-        <v>0.002442949650748108</v>
+        <v>0.002174953204722408</v>
       </c>
       <c r="R78">
-        <v>0.00362661030736367</v>
+        <v>1.342322778984593E-05</v>
       </c>
       <c r="S78">
-        <v>5.874758590052482E-06</v>
+        <v>2.139698340642484E-08</v>
       </c>
       <c r="T78">
-        <v>0.006714660498796487</v>
+        <v>0</v>
       </c>
       <c r="U78">
-        <v>0.002029511566551541</v>
+        <v>0</v>
       </c>
       <c r="V78">
-        <v>17.35405842104127</v>
+        <v>0</v>
       </c>
       <c r="W78">
-        <v>0.001363151210901042</v>
+        <v>0.5350293011661833</v>
       </c>
       <c r="X78">
-        <v>1.628062783668638E-06</v>
+        <v>3.059783461239557E-06</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -5288,61 +5288,61 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.303976050797979E-06</v>
+        <v>6.390827670051973E-06</v>
       </c>
       <c r="C79">
-        <v>0.1429056369115895</v>
+        <v>0.1001908150602368</v>
       </c>
       <c r="D79">
-        <v>0.01019256643262872</v>
+        <v>0.00607736358471726</v>
       </c>
       <c r="E79">
-        <v>0.1516397884494527</v>
+        <v>0.1076979375202937</v>
       </c>
       <c r="F79">
-        <v>9.006882802473697</v>
+        <v>9.296886201100737</v>
       </c>
       <c r="K79">
-        <v>7.432048931760423</v>
+        <v>8.318152562047361</v>
       </c>
       <c r="L79">
-        <v>8.416384451504141</v>
+        <v>7.140658563236705</v>
       </c>
       <c r="M79">
-        <v>8.304467744117488</v>
+        <v>8.322584008691498</v>
       </c>
       <c r="N79">
-        <v>0.03851716841353806</v>
+        <v>0.03512792477452777</v>
       </c>
       <c r="O79">
-        <v>0.002868475536131027</v>
+        <v>0.001990421129941473</v>
       </c>
       <c r="P79">
-        <v>0.0339152627680812</v>
+        <v>0.0342458816524492</v>
       </c>
       <c r="Q79">
-        <v>0.002584015393454829</v>
+        <v>0.002290537153078667</v>
       </c>
       <c r="R79">
-        <v>0.003784033592092958</v>
+        <v>1.400591608577808E-05</v>
       </c>
       <c r="S79">
-        <v>6.152350652589074E-06</v>
+        <v>2.238085609192879E-08</v>
       </c>
       <c r="T79">
-        <v>0.006918362626285398</v>
+        <v>0</v>
       </c>
       <c r="U79">
-        <v>0.002117717635566425</v>
+        <v>0</v>
       </c>
       <c r="V79">
-        <v>17.51197231041152</v>
+        <v>0</v>
       </c>
       <c r="W79">
-        <v>0.001425964766239708</v>
+        <v>0.5847761464928105</v>
       </c>
       <c r="X79">
-        <v>1.628397553411979E-06</v>
+        <v>3.403014026236512E-06</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -5350,61 +5350,61 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5.182898025940472E-06</v>
+        <v>6.298037029017877E-06</v>
       </c>
       <c r="C80">
-        <v>0.1489380492060877</v>
+        <v>0.104468699218215</v>
       </c>
       <c r="D80">
-        <v>0.01086316786014865</v>
+        <v>0.006435870194447049</v>
       </c>
       <c r="E80">
-        <v>0.1581752852275596</v>
+        <v>0.1124885881394497</v>
       </c>
       <c r="F80">
-        <v>9.006854363052481</v>
+        <v>9.296857879446833</v>
       </c>
       <c r="K80">
-        <v>7.425118380931817</v>
+        <v>8.316668058277822</v>
       </c>
       <c r="L80">
-        <v>8.40659465145592</v>
+        <v>7.146172706897548</v>
       </c>
       <c r="M80">
-        <v>8.30517130099946</v>
+        <v>8.321295781738419</v>
       </c>
       <c r="N80">
-        <v>0.04013756354432928</v>
+        <v>0.03663417494019078</v>
       </c>
       <c r="O80">
-        <v>0.003033484382302993</v>
+        <v>0.002106299236053323</v>
       </c>
       <c r="P80">
-        <v>0.03533941037601876</v>
+        <v>0.03569839731151149</v>
       </c>
       <c r="Q80">
-        <v>0.00274251433192504</v>
+        <v>0.002419238083433339</v>
       </c>
       <c r="R80">
-        <v>0.003955755466703884</v>
+        <v>1.464153132349109E-05</v>
       </c>
       <c r="S80">
-        <v>6.46145893536701E-06</v>
+        <v>2.347376560660568E-08</v>
       </c>
       <c r="T80">
-        <v>0.007136573762227169</v>
+        <v>0</v>
       </c>
       <c r="U80">
-        <v>0.002215243351958584</v>
+        <v>0</v>
       </c>
       <c r="V80">
-        <v>17.68318499767582</v>
+        <v>0</v>
       </c>
       <c r="W80">
-        <v>0.001494548478027592</v>
+        <v>0.6363216221018888</v>
       </c>
       <c r="X80">
-        <v>1.628744080953409E-06</v>
+        <v>3.772674137665415E-06</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -5412,61 +5412,61 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5.051910241319023E-06</v>
+        <v>6.1970169920531E-06</v>
       </c>
       <c r="C81">
-        <v>0.1555130435558943</v>
+        <v>0.1091369291717277</v>
       </c>
       <c r="D81">
-        <v>0.01162552238866689</v>
+        <v>0.006838741113018827</v>
       </c>
       <c r="E81">
-        <v>0.1652913926555164</v>
+        <v>0.1177225581764144</v>
       </c>
       <c r="F81">
-        <v>9.006824776402613</v>
+        <v>9.296828423634297</v>
       </c>
       <c r="K81">
-        <v>7.417931713157656</v>
+        <v>8.31505076596587</v>
       </c>
       <c r="L81">
-        <v>8.396245182360836</v>
+        <v>7.152213581506553</v>
       </c>
       <c r="M81">
-        <v>8.306012748925717</v>
+        <v>8.319888179189496</v>
       </c>
       <c r="N81">
-        <v>0.04190442445680672</v>
+        <v>0.03827835949753067</v>
       </c>
       <c r="O81">
-        <v>0.003219874968559577</v>
+        <v>0.00223644359655264</v>
       </c>
       <c r="P81">
-        <v>0.0368916435209756</v>
+        <v>0.03728311917951521</v>
       </c>
       <c r="Q81">
-        <v>0.002921851661352166</v>
+        <v>0.002563396561176958</v>
       </c>
       <c r="R81">
-        <v>0.004143817086121433</v>
+        <v>1.533762930243797E-05</v>
       </c>
       <c r="S81">
-        <v>6.807926870113994E-06</v>
+        <v>2.469488908045683E-08</v>
       </c>
       <c r="T81">
-        <v>0.007370922829382816</v>
+        <v>0</v>
       </c>
       <c r="U81">
-        <v>0.002323690498640707</v>
+        <v>0</v>
       </c>
       <c r="V81">
-        <v>17.86911052991056</v>
+        <v>0</v>
       </c>
       <c r="W81">
-        <v>0.001569731360434351</v>
+        <v>0.689832328462856</v>
       </c>
       <c r="X81">
-        <v>1.629103414342117E-06</v>
+        <v>4.172580787726087E-06</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -5474,61 +5474,61 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4.909837845114765E-06</v>
+        <v>6.086654493707488E-06</v>
       </c>
       <c r="C82">
-        <v>0.1627074196142557</v>
+        <v>0.1142518385746632</v>
       </c>
       <c r="D82">
-        <v>0.0124991830731904</v>
+        <v>0.007294583548700511</v>
       </c>
       <c r="E82">
-        <v>0.1730668494409772</v>
+        <v>0.1234631071918787</v>
       </c>
       <c r="F82">
-        <v>9.006793920356492</v>
+        <v>9.296797713668388</v>
       </c>
       <c r="K82">
-        <v>7.410459424697629</v>
+        <v>8.313281244824083</v>
       </c>
       <c r="L82">
-        <v>8.385223645661254</v>
+        <v>7.158866611502197</v>
       </c>
       <c r="M82">
-        <v>8.306997368498052</v>
+        <v>8.31834711541112</v>
       </c>
       <c r="N82">
-        <v>0.04383865193121908</v>
+        <v>0.04008045529257957</v>
       </c>
       <c r="O82">
-        <v>0.003432050245957225</v>
+        <v>0.002383615508969733</v>
       </c>
       <c r="P82">
-        <v>0.03859013311395677</v>
+        <v>0.03901910531043212</v>
       </c>
       <c r="Q82">
-        <v>0.003126386499476644</v>
+        <v>0.002725945858991499</v>
       </c>
       <c r="R82">
-        <v>0.004350667544083999</v>
+        <v>1.610327602310585E-05</v>
       </c>
       <c r="S82">
-        <v>7.199505042241979E-06</v>
+        <v>2.606859189101693E-08</v>
       </c>
       <c r="T82">
-        <v>0.007623284445919923</v>
+        <v>0</v>
       </c>
       <c r="U82">
-        <v>0.002445026197145811</v>
+        <v>0</v>
       </c>
       <c r="V82">
-        <v>18.07143338816118</v>
+        <v>0</v>
       </c>
       <c r="W82">
-        <v>0.001652507084076877</v>
+        <v>0.7454835425035995</v>
       </c>
       <c r="X82">
-        <v>1.629477028765118E-06</v>
+        <v>4.607244147309998E-06</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -5536,61 +5536,61 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4.755340514937712E-06</v>
+        <v>5.965635533521041E-06</v>
       </c>
       <c r="C83">
-        <v>0.1706131162743118</v>
+        <v>0.119881167786556</v>
       </c>
       <c r="D83">
-        <v>0.01350949002332051</v>
+        <v>0.007814340260911939</v>
       </c>
       <c r="E83">
-        <v>0.1815948517293457</v>
+        <v>0.1297858366803791</v>
       </c>
       <c r="F83">
-        <v>9.006761652313457</v>
+        <v>9.296765609615894</v>
       </c>
       <c r="K83">
-        <v>7.40266852009306</v>
+        <v>8.311346414850451</v>
       </c>
       <c r="L83">
-        <v>8.373422920262135</v>
+        <v>7.16624078111052</v>
       </c>
       <c r="M83">
-        <v>8.308142245839591</v>
+        <v>8.31666056558849</v>
       </c>
       <c r="N83">
-        <v>0.04596531517781181</v>
+        <v>0.04206449949171693</v>
       </c>
       <c r="O83">
-        <v>0.003675701915626326</v>
+        <v>0.002551325653632297</v>
       </c>
       <c r="P83">
-        <v>0.04045664609366625</v>
+        <v>0.04092927159735005</v>
       </c>
       <c r="Q83">
-        <v>0.003361739858588158</v>
+        <v>0.002910599235686532</v>
       </c>
       <c r="R83">
-        <v>0.004579271125086197</v>
+        <v>1.694944483527505E-05</v>
       </c>
       <c r="S83">
-        <v>7.64601822592116E-06</v>
+        <v>2.762551110721694E-08</v>
       </c>
       <c r="T83">
-        <v>0.007895824353750139</v>
+        <v>0</v>
       </c>
       <c r="U83">
-        <v>0.002581729557851704</v>
+        <v>0</v>
       </c>
       <c r="V83">
-        <v>18.29217947897702</v>
+        <v>0</v>
       </c>
       <c r="W83">
-        <v>0.001744079533807683</v>
+        <v>0.8034925038069858</v>
       </c>
       <c r="X83">
-        <v>1.629866573995347E-06</v>
+        <v>5.082184263961911E-06</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -5598,61 +5598,61 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4.586893593837384E-06</v>
+        <v>5.832400935407011E-06</v>
       </c>
       <c r="C84">
-        <v>0.179341095510478</v>
+        <v>0.1261071026490918</v>
       </c>
       <c r="D84">
-        <v>0.01468980458000726</v>
+        <v>0.008412123991723787</v>
       </c>
       <c r="E84">
-        <v>0.1909864307515362</v>
+        <v>0.1367817729663172</v>
       </c>
       <c r="F84">
-        <v>9.006727804472767</v>
+        <v>9.296731946986643</v>
       </c>
       <c r="K84">
-        <v>7.39452067424696</v>
+        <v>8.30922751605979</v>
       </c>
       <c r="L84">
-        <v>8.360714091261036</v>
+        <v>7.17446882220953</v>
       </c>
       <c r="M84">
-        <v>8.309465906226347</v>
+        <v>8.31481269441289</v>
       </c>
       <c r="N84">
-        <v>0.04831473813682211</v>
+        <v>0.04425967581605497</v>
       </c>
       <c r="O84">
-        <v>0.003958294507152895</v>
+        <v>0.002744099115990738</v>
       </c>
       <c r="P84">
-        <v>0.04251747421783726</v>
+        <v>0.04304142006188691</v>
       </c>
       <c r="Q84">
-        <v>0.003635299444294981</v>
+        <v>0.003122127058642909</v>
       </c>
       <c r="R84">
-        <v>0.004833250297689546</v>
+        <v>1.788954590883993E-05</v>
       </c>
       <c r="S84">
-        <v>8.160358043692627E-06</v>
+        <v>2.940518081692241E-08</v>
       </c>
       <c r="T84">
-        <v>0.008191051842411165</v>
+        <v>0</v>
       </c>
       <c r="U84">
-        <v>0.002736947734853787</v>
+        <v>0</v>
       </c>
       <c r="V84">
-        <v>18.5338083372187</v>
+        <v>0</v>
       </c>
       <c r="W84">
-        <v>0.001845921311684434</v>
+        <v>0.8641097597690646</v>
       </c>
       <c r="X84">
-        <v>1.630273966287652E-06</v>
+        <v>5.604151104136639E-06</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -5660,61 +5660,61 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4.402773493861019E-06</v>
+        <v>5.685091351141684E-06</v>
       </c>
       <c r="C85">
-        <v>0.1890264655652116</v>
+        <v>0.1330303366877605</v>
       </c>
       <c r="D85">
-        <v>0.01608482285312542</v>
+        <v>0.009106430271986207</v>
       </c>
       <c r="E85">
-        <v>0.2013748063988883</v>
+        <v>0.1445613962035498</v>
       </c>
       <c r="F85">
-        <v>9.006692177608308</v>
+        <v>9.296696530711207</v>
       </c>
       <c r="K85">
-        <v>7.385967235546245</v>
+        <v>8.306903204963081</v>
       </c>
       <c r="L85">
-        <v>8.346903183101926</v>
+        <v>7.183724450528273</v>
       </c>
       <c r="M85">
-        <v>8.310979737794536</v>
+        <v>8.312789732750518</v>
       </c>
       <c r="N85">
-        <v>0.05092394070327325</v>
+        <v>0.04670176856311757</v>
       </c>
       <c r="O85">
-        <v>0.004289772382797638</v>
+        <v>0.002967865330691857</v>
       </c>
       <c r="P85">
-        <v>0.04480466096922211</v>
+        <v>0.04538961376796009</v>
       </c>
       <c r="Q85">
-        <v>0.00395694750576563</v>
+        <v>0.003366752441189723</v>
       </c>
       <c r="R85">
-        <v>0.005117079117668714</v>
+        <v>1.894014242225305E-05</v>
       </c>
       <c r="S85">
-        <v>8.759933177051884E-06</v>
+        <v>3.145893528975689E-08</v>
       </c>
       <c r="T85">
-        <v>0.008511881495796894</v>
+        <v>0</v>
       </c>
       <c r="U85">
-        <v>0.00291471998012217</v>
+        <v>0</v>
       </c>
       <c r="V85">
-        <v>18.79933611465052</v>
+        <v>0</v>
       </c>
       <c r="W85">
-        <v>0.001959851548432679</v>
+        <v>0.9276264821083906</v>
       </c>
       <c r="X85">
-        <v>1.630701638222688E-06</v>
+        <v>6.181450287845952E-06</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -5722,61 +5722,61 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4.201054228531195E-06</v>
+        <v>5.521479174931017E-06</v>
       </c>
       <c r="C86">
-        <v>0.1998353182347169</v>
+        <v>0.1407755808387463</v>
       </c>
       <c r="D86">
-        <v>0.01775560072697087</v>
+        <v>0.009921941218459192</v>
       </c>
       <c r="E86">
-        <v>0.2129210677969671</v>
+        <v>0.1532599627061937</v>
       </c>
       <c r="F86">
-        <v>9.006654532819933</v>
+        <v>9.296659127172427</v>
       </c>
       <c r="K86">
-        <v>7.376954735956329</v>
+        <v>8.3043488842572</v>
       </c>
       <c r="L86">
-        <v>8.331804974591842</v>
+        <v>7.194224341848004</v>
       </c>
       <c r="M86">
-        <v>8.31271125928518</v>
+        <v>8.310576108499236</v>
       </c>
       <c r="N86">
-        <v>0.05383857622330294</v>
+        <v>0.04943513751514415</v>
       </c>
       <c r="O86">
-        <v>0.004683689057493369</v>
+        <v>0.003230534864168872</v>
       </c>
       <c r="P86">
-        <v>0.04735764306068811</v>
+        <v>0.04801604260088321</v>
       </c>
       <c r="Q86">
-        <v>0.00434014079840171</v>
+        <v>0.003652744348527683</v>
       </c>
       <c r="R86">
-        <v>0.005436349066699439</v>
+        <v>2.012193514018824E-05</v>
       </c>
       <c r="S86">
-        <v>9.468128061484236E-06</v>
+        <v>3.385505597051782E-08</v>
       </c>
       <c r="T86">
-        <v>0.008861704090526558</v>
+        <v>0</v>
       </c>
       <c r="U86">
-        <v>0.003120333217753516</v>
+        <v>0</v>
       </c>
       <c r="V86">
-        <v>19.09250849817163</v>
+        <v>0</v>
       </c>
       <c r="W86">
-        <v>0.002088146357128374</v>
+        <v>0.9943929596156025</v>
       </c>
       <c r="X86">
-        <v>1.631152263202183E-06</v>
+        <v>6.824505801971164E-06</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -5784,61 +5784,61 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>3.97962832064056E-06</v>
+        <v>5.338885458033032E-06</v>
       </c>
       <c r="C87">
-        <v>0.2119739660685666</v>
+        <v>0.1494991568134321</v>
       </c>
       <c r="D87">
-        <v>0.01978735674675374</v>
+        <v>0.01089227802020734</v>
       </c>
       <c r="E87">
-        <v>0.2258216981910219</v>
+        <v>0.163044619011672</v>
       </c>
       <c r="F87">
-        <v>9.00661458041016</v>
+        <v>9.296619453489322</v>
       </c>
       <c r="K87">
-        <v>7.367410172392302</v>
+        <v>8.301533073998666</v>
       </c>
       <c r="L87">
-        <v>8.31514756739054</v>
+        <v>7.20623727050552</v>
       </c>
       <c r="M87">
-        <v>8.314680271062898</v>
+        <v>8.308146147407211</v>
       </c>
       <c r="N87">
-        <v>0.05711556870102358</v>
+        <v>0.0525154443585425</v>
       </c>
       <c r="O87">
-        <v>0.005158871235045054</v>
+        <v>0.003542885256745634</v>
       </c>
       <c r="P87">
-        <v>0.05022547654484053</v>
+        <v>0.05097359581770691</v>
       </c>
       <c r="Q87">
-        <v>0.004803633442216303</v>
+        <v>0.00399133051610414</v>
       </c>
       <c r="R87">
-        <v>0.005798141129275303</v>
+        <v>2.146114047913609E-05</v>
       </c>
       <c r="S87">
-        <v>1.031772832588695E-05</v>
+        <v>3.668690073564261E-08</v>
       </c>
       <c r="T87">
-        <v>0.009244462148711429</v>
+        <v>0</v>
       </c>
       <c r="U87">
-        <v>0.003360773877713785</v>
+        <v>0</v>
       </c>
       <c r="V87">
-        <v>19.4180351761074</v>
+        <v>0</v>
       </c>
       <c r="W87">
-        <v>0.002233689754938607</v>
+        <v>1.064823990667215</v>
       </c>
       <c r="X87">
-        <v>1.631629491380385E-06</v>
+        <v>7.546481516701725E-06</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -5846,61 +5846,61 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8.179489685742546E-06</v>
+        <v>9.769221580344438E-06</v>
       </c>
       <c r="C88">
-        <v>0.2257015810201247</v>
+        <v>0.1593996481558053</v>
       </c>
       <c r="D88">
-        <v>0.01092768648002598</v>
+        <v>0.006617746888040819</v>
       </c>
       <c r="E88">
-        <v>0.2447918906987617</v>
+        <v>0.1757706399071555</v>
       </c>
       <c r="F88">
-        <v>14.20661458041016</v>
+        <v>14.49661945348932</v>
       </c>
       <c r="K88">
-        <v>7.357258046333072</v>
+        <v>8.298428191206238</v>
       </c>
       <c r="L88">
-        <v>8.522953987346645</v>
+        <v>6.967770141046606</v>
       </c>
       <c r="M88">
-        <v>8.32649281562758</v>
+        <v>8.304492640111452</v>
       </c>
       <c r="N88">
-        <v>0.0608267613771649</v>
+        <v>0.05601348429438514</v>
       </c>
       <c r="O88">
-        <v>0.003227165615733703</v>
+        <v>0.002142933229866337</v>
       </c>
       <c r="P88">
-        <v>0.05346989390931369</v>
+        <v>0.05432947191067854</v>
       </c>
       <c r="Q88">
-        <v>0.002831434658341183</v>
+        <v>0.002624619889086952</v>
       </c>
       <c r="R88">
-        <v>0.006211557086485975</v>
+        <v>2.299145859187898E-05</v>
       </c>
       <c r="S88">
-        <v>5.341262372509656E-06</v>
+        <v>2.189418438356436E-08</v>
       </c>
       <c r="T88">
-        <v>0.009664725596639832</v>
+        <v>0</v>
       </c>
       <c r="U88">
-        <v>0.002331480835060356</v>
+        <v>0</v>
       </c>
       <c r="V88">
-        <v>19.57031497845134</v>
+        <v>0</v>
       </c>
       <c r="W88">
-        <v>0.002400230783270296</v>
+        <v>1.139441989862483</v>
       </c>
       <c r="X88">
-        <v>1.632137097683346E-06</v>
+        <v>8.365381333603189E-06</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -5908,61 +5908,61 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7.828932817415425E-06</v>
+        <v>9.499769842685744E-06</v>
       </c>
       <c r="C89">
-        <v>0.2422226498309015</v>
+        <v>0.1711521020994795</v>
       </c>
       <c r="D89">
-        <v>0.0122469963482497</v>
+        <v>0.007325270070817532</v>
       </c>
       <c r="E89">
-        <v>0.26311280384584</v>
+        <v>0.1893984770521908</v>
       </c>
       <c r="F89">
-        <v>14.20532491053986</v>
+        <v>14.49533181159791</v>
       </c>
       <c r="K89">
-        <v>7.347178341150193</v>
+        <v>8.294233672926953</v>
       </c>
       <c r="L89">
-        <v>8.476519737201075</v>
+        <v>6.976367682318426</v>
       </c>
       <c r="M89">
-        <v>8.316902044564046</v>
+        <v>8.299559048279347</v>
       </c>
       <c r="N89">
-        <v>0.06525749951265962</v>
+        <v>0.06015737283780966</v>
       </c>
       <c r="O89">
-        <v>0.00355132313638431</v>
+        <v>0.002375870685079759</v>
       </c>
       <c r="P89">
-        <v>0.05736516000554235</v>
+        <v>0.05830676822003174</v>
       </c>
       <c r="Q89">
-        <v>0.003164870198888669</v>
+        <v>0.00289757013189545</v>
       </c>
       <c r="R89">
-        <v>0.006688958303725473</v>
+        <v>2.475834816168632E-05</v>
       </c>
       <c r="S89">
-        <v>6.068272308075786E-06</v>
+        <v>2.389782475391808E-08</v>
       </c>
       <c r="T89">
-        <v>0.01022882134753056</v>
+        <v>0</v>
       </c>
       <c r="U89">
-        <v>0.002513681120108246</v>
+        <v>0</v>
       </c>
       <c r="V89">
-        <v>19.74814306021708</v>
+        <v>0</v>
       </c>
       <c r="W89">
-        <v>0.002592451746509332</v>
+        <v>1.215671769454222</v>
       </c>
       <c r="X89">
-        <v>1.63264108294249E-06</v>
+        <v>9.290590962561688E-06</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -5970,61 +5970,61 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7.428790625828853E-06</v>
+        <v>9.189229962682399E-06</v>
       </c>
       <c r="C90">
-        <v>0.2613872876211226</v>
+        <v>0.184804338101868</v>
       </c>
       <c r="D90">
-        <v>0.01390997233832867</v>
+        <v>0.008195863165810816</v>
       </c>
       <c r="E90">
-        <v>0.2842769846682991</v>
+        <v>0.2052489018191697</v>
       </c>
       <c r="F90">
-        <v>14.20528325823707</v>
+        <v>14.49529038784247</v>
       </c>
       <c r="K90">
-        <v>7.336583566521512</v>
+        <v>8.289603625941249</v>
       </c>
       <c r="L90">
-        <v>8.461902833441622</v>
+        <v>6.987527787962712</v>
       </c>
       <c r="M90">
-        <v>8.319869454846021</v>
+        <v>8.294944807313088</v>
       </c>
       <c r="N90">
-        <v>0.07039968087734923</v>
+        <v>0.06497249801720383</v>
       </c>
       <c r="O90">
-        <v>0.003962462180492288</v>
+        <v>0.00265449829822081</v>
       </c>
       <c r="P90">
-        <v>0.06188185082276349</v>
+        <v>0.0629242013940431</v>
       </c>
       <c r="Q90">
-        <v>0.003551835840342431</v>
+        <v>0.003220232045183606</v>
       </c>
       <c r="R90">
-        <v>0.007245865806343591</v>
+        <v>2.681955235643069E-05</v>
       </c>
       <c r="S90">
-        <v>6.652052635679307E-06</v>
+        <v>2.628420990655138E-08</v>
       </c>
       <c r="T90">
-        <v>0.01087174969981576</v>
+        <v>0</v>
       </c>
       <c r="U90">
-        <v>0.002756481578744678</v>
+        <v>0</v>
       </c>
       <c r="V90">
-        <v>19.9601983449314</v>
+        <v>0</v>
       </c>
       <c r="W90">
-        <v>0.002816988138802018</v>
+        <v>1.297092982523061</v>
       </c>
       <c r="X90">
-        <v>1.633170821673924E-06</v>
+        <v>1.036258721000461E-05</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -6032,61 +6032,61 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6.96739246691312E-06</v>
+        <v>8.82627064521975E-06</v>
       </c>
       <c r="C91">
-        <v>0.2838852253741038</v>
+        <v>0.2008596540051459</v>
       </c>
       <c r="D91">
-        <v>0.01606684037008964</v>
+        <v>0.009292470882244375</v>
       </c>
       <c r="E91">
-        <v>0.3089605676376412</v>
+        <v>0.2238865655172858</v>
       </c>
       <c r="F91">
-        <v>14.20523795563361</v>
+        <v>14.49524536116437</v>
       </c>
       <c r="K91">
-        <v>7.325120393425824</v>
+        <v>8.28441847764149</v>
       </c>
       <c r="L91">
-        <v>8.444700136149864</v>
+        <v>7.001152378091605</v>
       </c>
       <c r="M91">
-        <v>8.323239476643487</v>
+        <v>8.289800306959011</v>
       </c>
       <c r="N91">
-        <v>0.07643942803160896</v>
+        <v>0.07063777071892956</v>
       </c>
       <c r="O91">
-        <v>0.004487259034312067</v>
+        <v>0.003005155003745493</v>
       </c>
       <c r="P91">
-        <v>0.06718457945752905</v>
+        <v>0.06835183497121215</v>
       </c>
       <c r="Q91">
-        <v>0.004048360037757387</v>
+        <v>0.003622798481074817</v>
       </c>
       <c r="R91">
-        <v>0.007903976147589765</v>
+        <v>2.92553040061147E-05</v>
       </c>
       <c r="S91">
-        <v>7.392663669062016E-06</v>
+        <v>2.925542989538785E-08</v>
       </c>
       <c r="T91">
-        <v>0.01160950134718585</v>
+        <v>0</v>
       </c>
       <c r="U91">
-        <v>0.003057955527557244</v>
+        <v>0</v>
       </c>
       <c r="V91">
-        <v>20.21447408439444</v>
+        <v>0</v>
       </c>
       <c r="W91">
-        <v>0.003082619825116001</v>
+        <v>1.384526705179901</v>
       </c>
       <c r="X91">
-        <v>1.633743980328709E-06</v>
+        <v>1.162122358359174E-05</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -6094,61 +6094,61 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6.431703493709326E-06</v>
+        <v>8.397339005526878E-06</v>
       </c>
       <c r="C92">
-        <v>0.3106670638745053</v>
+        <v>0.2200163723174361</v>
       </c>
       <c r="D92">
-        <v>0.01896244060869098</v>
+        <v>0.01071255405239863</v>
       </c>
       <c r="E92">
-        <v>0.338064469682928</v>
+        <v>0.24607871834602</v>
       </c>
       <c r="F92">
-        <v>14.20518821866498</v>
+        <v>14.49519596321249</v>
       </c>
       <c r="K92">
-        <v>7.31259833820137</v>
+        <v>8.278568771433264</v>
       </c>
       <c r="L92">
-        <v>8.423806511353973</v>
+        <v>7.01812677545504</v>
       </c>
       <c r="M92">
-        <v>8.327149440031672</v>
+        <v>8.284043264800394</v>
       </c>
       <c r="N92">
-        <v>0.08363464493133865</v>
+        <v>0.07740103229044798</v>
       </c>
       <c r="O92">
-        <v>0.00517947468600585</v>
+        <v>0.003458806274357316</v>
       </c>
       <c r="P92">
-        <v>0.07349820139950622</v>
+        <v>0.0748247386202259</v>
       </c>
       <c r="Q92">
-        <v>0.004707260076114679</v>
+        <v>0.004138400242426741</v>
       </c>
       <c r="R92">
-        <v>0.008693634495981836</v>
+        <v>3.217790886373664E-05</v>
       </c>
       <c r="S92">
-        <v>8.363051070018587E-06</v>
+        <v>3.305589564050354E-08</v>
       </c>
       <c r="T92">
-        <v>0.01246465592914872</v>
+        <v>0</v>
       </c>
       <c r="U92">
-        <v>0.00344292327656369</v>
+        <v>0</v>
       </c>
       <c r="V92">
-        <v>20.5224336881696</v>
+        <v>0</v>
       </c>
       <c r="W92">
-        <v>0.003401716676427762</v>
+        <v>1.479114151843078</v>
       </c>
       <c r="X92">
-        <v>1.634370083089932E-06</v>
+        <v>1.31226195264774E-05</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -6156,61 +6156,61 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.806219483497994E-06</v>
+        <v>7.884312109432694E-06</v>
       </c>
       <c r="C93">
-        <v>0.343078688681818</v>
+        <v>0.2432723521246625</v>
       </c>
       <c r="D93">
-        <v>0.02302476340524613</v>
+        <v>0.01261678269351386</v>
       </c>
       <c r="E93">
-        <v>0.3728071545263129</v>
+        <v>0.2728853660858535</v>
       </c>
       <c r="F93">
-        <v>14.20513298810096</v>
+        <v>14.49514115803702</v>
       </c>
       <c r="K93">
-        <v>7.298759481647655</v>
+        <v>8.271912799482385</v>
       </c>
       <c r="L93">
-        <v>8.397590272938343</v>
+        <v>7.039788997705336</v>
       </c>
       <c r="M93">
-        <v>8.331686710565307</v>
+        <v>8.277575563092707</v>
       </c>
       <c r="N93">
-        <v>0.09235188606970897</v>
+        <v>0.08561683518112473</v>
       </c>
       <c r="O93">
-        <v>0.006132623319006585</v>
+        <v>0.004066539418577297</v>
       </c>
       <c r="P93">
-        <v>0.08114163932432751</v>
+        <v>0.08267877621775915</v>
       </c>
       <c r="Q93">
-        <v>0.005620845619521623</v>
+        <v>0.004821117211731584</v>
       </c>
       <c r="R93">
-        <v>0.009658664656527595</v>
+        <v>3.57495591935251E-05</v>
       </c>
       <c r="S93">
-        <v>9.692415975452691E-06</v>
+        <v>3.808570647182454E-08</v>
       </c>
       <c r="T93">
-        <v>0.01346707066832483</v>
+        <v>0</v>
       </c>
       <c r="U93">
-        <v>0.003951940130890836</v>
+        <v>0</v>
       </c>
       <c r="V93">
-        <v>20.90121846518853</v>
+        <v>0</v>
       </c>
       <c r="W93">
-        <v>0.003792158303940623</v>
+        <v>1.582375897877029</v>
       </c>
       <c r="X93">
-        <v>1.635062025917617E-06</v>
+        <v>1.494787930356206E-05</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -6218,61 +6218,61 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5.074138192937765E-06</v>
+        <v>7.262859939415824E-06</v>
       </c>
       <c r="C94">
-        <v>0.3830854293413895</v>
+        <v>0.2721042983035561</v>
       </c>
       <c r="D94">
-        <v>0.02906092104107763</v>
+        <v>0.01528808188331781</v>
       </c>
       <c r="E94">
-        <v>0.4148775860763491</v>
+        <v>0.3058040354700728</v>
       </c>
       <c r="F94">
-        <v>14.20507078680208</v>
+        <v>14.49507950448833</v>
       </c>
       <c r="K94">
-        <v>7.283233087564333</v>
+        <v>8.264253378312629</v>
       </c>
       <c r="L94">
-        <v>8.363616260033071</v>
+        <v>7.068229714812378</v>
       </c>
       <c r="M94">
-        <v>8.33697534037918</v>
+        <v>8.270280830591934</v>
       </c>
       <c r="N94">
-        <v>0.1031292939135468</v>
+        <v>0.09581062215144318</v>
       </c>
       <c r="O94">
-        <v>0.007521704088514331</v>
+        <v>0.004918312197252886</v>
       </c>
       <c r="P94">
-        <v>0.09058173853742826</v>
+        <v>0.09241098359351262</v>
       </c>
       <c r="Q94">
-        <v>0.006962572477896049</v>
+        <v>0.005765118673340617</v>
       </c>
       <c r="R94">
-        <v>0.01086478618659661</v>
+        <v>4.021349337940676E-05</v>
       </c>
       <c r="S94">
-        <v>1.162183262360709E-05</v>
+        <v>4.504470514121007E-08</v>
       </c>
       <c r="T94">
-        <v>0.01465646198550408</v>
+        <v>0</v>
       </c>
       <c r="U94">
-        <v>0.004655594964782937</v>
+        <v>0</v>
       </c>
       <c r="V94">
-        <v>21.37786709514966</v>
+        <v>0</v>
       </c>
       <c r="W94">
-        <v>0.004280785414325128</v>
+        <v>1.696389787571718</v>
       </c>
       <c r="X94">
-        <v>1.635838345621783E-06</v>
+        <v>1.721869747321854E-05</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -6280,61 +6280,61 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.220845836082104E-06</v>
+        <v>6.498993794188396E-06</v>
       </c>
       <c r="C95">
-        <v>0.433660359098577</v>
+        <v>0.3087923292207331</v>
       </c>
       <c r="D95">
-        <v>0.038750634099303</v>
+        <v>0.01927298075356987</v>
       </c>
       <c r="E95">
-        <v>0.4666953033394503</v>
+        <v>0.3469940229120288</v>
       </c>
       <c r="F95">
-        <v>14.20279183972963</v>
+        <v>14.49280753686168</v>
       </c>
       <c r="K95">
-        <v>7.265464792926955</v>
+        <v>8.255314092190844</v>
       </c>
       <c r="L95">
-        <v>8.318184741104384</v>
+        <v>7.106944710536506</v>
       </c>
       <c r="M95">
-        <v>8.343191340578738</v>
+        <v>8.262003094956917</v>
       </c>
       <c r="N95">
-        <v>0.1167875210314086</v>
+        <v>0.1087952378591847</v>
       </c>
       <c r="O95">
-        <v>0.009708528334744813</v>
+        <v>0.006187962885281108</v>
       </c>
       <c r="P95">
-        <v>0.10252733368879</v>
+        <v>0.1047889642963944</v>
       </c>
       <c r="Q95">
-        <v>0.009092394748168</v>
+        <v>0.007150333070376315</v>
       </c>
       <c r="R95">
-        <v>0.01241523823716419</v>
+        <v>4.595184319001613E-05</v>
       </c>
       <c r="S95">
-        <v>1.464705873817822E-05</v>
+        <v>5.528089720354501E-08</v>
       </c>
       <c r="T95">
-        <v>0.01608515727417853</v>
+        <v>0</v>
       </c>
       <c r="U95">
-        <v>0.005685527823929974</v>
+        <v>0</v>
       </c>
       <c r="V95">
-        <v>21.99788904457449</v>
+        <v>0</v>
       </c>
       <c r="W95">
-        <v>0.004909808672007581</v>
+        <v>1.824120984734495</v>
       </c>
       <c r="X95">
-        <v>1.636726760353652E-06</v>
+        <v>2.012641095508602E-05</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -6342,61 +6342,61 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>3.256187101639459E-06</v>
+        <v>5.555634827106071E-06</v>
       </c>
       <c r="C96">
-        <v>0.4994786465984561</v>
+        <v>0.3570455539652604</v>
       </c>
       <c r="D96">
-        <v>0.05588970949150811</v>
+        <v>0.0257289475717085</v>
       </c>
       <c r="E96">
-        <v>0.5320470908641537</v>
+        <v>0.3997232887390815</v>
       </c>
       <c r="F96">
-        <v>14.2025937497335</v>
+        <v>14.49261183883011</v>
       </c>
       <c r="K96">
-        <v>7.244553177378092</v>
+        <v>8.244730305053116</v>
       </c>
       <c r="L96">
-        <v>8.257296206494303</v>
+        <v>7.161636524387977</v>
       </c>
       <c r="M96">
-        <v>8.350837797699343</v>
+        <v>8.252638055864756</v>
       </c>
       <c r="N96">
-        <v>0.1346340198141859</v>
+        <v>0.1258964503548353</v>
       </c>
       <c r="O96">
-        <v>0.01350647799609042</v>
+        <v>0.008243649225336307</v>
       </c>
       <c r="P96">
-        <v>0.1180998235122271</v>
+        <v>0.1210620695007307</v>
       </c>
       <c r="Q96">
-        <v>0.0128205716299821</v>
+        <v>0.009353858022620124</v>
       </c>
       <c r="R96">
-        <v>0.01448200343356853</v>
+        <v>5.360127023881825E-05</v>
       </c>
       <c r="S96">
-        <v>1.984470954550531E-05</v>
+        <v>7.160934898110185E-08</v>
       </c>
       <c r="T96">
-        <v>0.01781842884921996</v>
+        <v>0</v>
       </c>
       <c r="U96">
-        <v>0.007291106510118049</v>
+        <v>0</v>
       </c>
       <c r="V96">
-        <v>22.84165540529753</v>
+        <v>0</v>
       </c>
       <c r="W96">
-        <v>0.005749652371184111</v>
+        <v>1.970086641308846</v>
       </c>
       <c r="X96">
-        <v>1.637772341131095E-06</v>
+        <v>2.399029144070263E-05</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -6404,19 +6404,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2.246711873265104E-06</v>
+        <v>4.390728813039698E-06</v>
       </c>
       <c r="C97">
-        <v>0.5881964340198446</v>
+        <v>0.42330887524397</v>
       </c>
       <c r="D97">
-        <v>0.08978377823633084</v>
+        <v>0.03756530778720771</v>
       </c>
       <c r="E97">
-        <v>0.617565778733886</v>
+        <v>0.469117058891335</v>
       </c>
       <c r="F97">
-        <v>14.20235378181996</v>
+        <v>14.49237538186669</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -6428,31 +6428,31 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>0.1588595281778047</v>
+        <v>0.1494270105807348</v>
       </c>
       <c r="O97">
         <v>0</v>
       </c>
       <c r="P97">
-        <v>0.1391556738886758</v>
+        <v>0.1434037117963526</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
-        <v>0.0173744351783731</v>
+        <v>6.430720241678556E-05</v>
       </c>
       <c r="S97">
         <v>0</v>
       </c>
       <c r="T97">
-        <v>0.01992389331704031</v>
+        <v>0</v>
       </c>
       <c r="U97">
         <v>0</v>
       </c>
       <c r="V97">
-        <v>22.60372149482568</v>
+        <v>0</v>
       </c>
       <c r="W97">
         <v>0</v>
